--- a/lects/2.xlsx
+++ b/lects/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khosbayar\Documents\must\CS301 - Uildliin system\lects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC548EBC-9DA5-4E50-93E9-40BFFDE1EC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE06FEED-F197-47D4-9997-29F98E737226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Хичээлийн агуулга" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -484,12 +484,12 @@
   </sheetPr>
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="22" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -497,18 +497,18 @@
     <col min="5" max="27" width="12.5703125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -535,73 +535,73 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12.75">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12.75">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12.75">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12.75">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12.75">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12.75">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.75">
       <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12.75">
       <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12.75">
       <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12.75">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="12.75">
       <c r="B18" s="4">
         <v>1</v>
       </c>
@@ -609,13 +609,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="12.75">
       <c r="B19" s="4">
         <v>2</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="12.75">
       <c r="B20" s="4">
         <v>3</v>
       </c>
@@ -634,12 +634,12 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -651,7 +651,7 @@
     <col min="10" max="30" width="12.5703125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="12.75">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -683,7 +683,7 @@
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
     </row>
-    <row r="2" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="31.5" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>10</v>
@@ -729,7 +729,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
     </row>
-    <row r="3" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="31.5" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="10">
         <v>1</v>
@@ -765,7 +765,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="1:30" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="127.5">
       <c r="A4" s="7"/>
       <c r="B4" s="10">
         <v>2</v>
@@ -803,7 +803,7 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
     </row>
-    <row r="5" spans="1:30" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="127.5">
       <c r="A5" s="7"/>
       <c r="B5" s="10">
         <v>3</v>
@@ -839,7 +839,7 @@
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
     </row>
-    <row r="6" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="76.5">
       <c r="A6" s="7"/>
       <c r="B6" s="10">
         <v>4</v>
@@ -875,7 +875,7 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="63.75">
       <c r="A7" s="7"/>
       <c r="B7" s="10">
         <v>5</v>
@@ -911,7 +911,7 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="63.75">
       <c r="A8" s="7"/>
       <c r="B8" s="10">
         <v>6</v>
@@ -947,7 +947,7 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="63.75">
       <c r="A9" s="7"/>
       <c r="B9" s="10">
         <v>7</v>
@@ -983,7 +983,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="51">
       <c r="A10" s="7"/>
       <c r="B10" s="10">
         <v>8</v>
@@ -1019,7 +1019,7 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="38.25">
       <c r="A11" s="7"/>
       <c r="B11" s="10">
         <v>9</v>
@@ -1055,7 +1055,7 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="51">
       <c r="A12" s="7"/>
       <c r="B12" s="10">
         <v>10</v>
@@ -1093,7 +1093,7 @@
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="31.5" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="10">
         <v>11</v>
@@ -1129,7 +1129,7 @@
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
     </row>
-    <row r="14" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="51">
       <c r="A14" s="7"/>
       <c r="B14" s="10">
         <v>12</v>
@@ -1169,7 +1169,7 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
     </row>
-    <row r="15" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="63.75">
       <c r="A15" s="7"/>
       <c r="B15" s="10">
         <v>13</v>
@@ -1207,7 +1207,7 @@
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
     </row>
-    <row r="16" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="31.5" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="10">
         <v>14</v>
@@ -1243,7 +1243,7 @@
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
     </row>
-    <row r="17" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="31.5" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="10">
         <v>15</v>
@@ -1279,7 +1279,7 @@
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
     </row>
-    <row r="18" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="31.5" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="10">
         <v>16</v>
@@ -1315,7 +1315,7 @@
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
     </row>
-    <row r="19" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="31.5" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="10">
         <v>17</v>
@@ -1349,7 +1349,7 @@
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
     </row>
-    <row r="20" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="31.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="10">
         <v>18</v>
@@ -1383,7 +1383,7 @@
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
     </row>
-    <row r="21" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="31.5" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="10">
         <v>19</v>
@@ -1417,7 +1417,7 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
     </row>
-    <row r="22" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="31.5" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="10">
         <v>20</v>
@@ -1451,7 +1451,7 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
     </row>
-    <row r="23" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="31.5" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="10">
         <v>21</v>
@@ -1485,7 +1485,7 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
     </row>
-    <row r="24" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="31.5" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="10">
         <v>22</v>
@@ -1519,7 +1519,7 @@
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
     </row>
-    <row r="25" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="31.5" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="10">
         <v>23</v>
@@ -1553,7 +1553,7 @@
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
     </row>
-    <row r="26" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="31.5" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="10">
         <v>24</v>
@@ -1587,7 +1587,7 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
     </row>
-    <row r="27" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="31.5" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="10">
         <v>25</v>
@@ -1621,7 +1621,7 @@
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
     </row>
-    <row r="28" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="31.5" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="10">
         <v>26</v>
@@ -1655,7 +1655,7 @@
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
     </row>
-    <row r="29" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="31.5" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="10">
         <v>27</v>
@@ -1689,7 +1689,7 @@
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
     </row>
-    <row r="30" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="31.5" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="10">
         <v>28</v>
@@ -1723,7 +1723,7 @@
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
     </row>
-    <row r="31" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="31.5" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="10">
         <v>29</v>
@@ -1757,7 +1757,7 @@
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
     </row>
-    <row r="32" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="31.5" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="10">
         <v>30</v>
@@ -1791,7 +1791,7 @@
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
     </row>
-    <row r="33" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="31.5" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="10">
         <v>31</v>
@@ -1825,7 +1825,7 @@
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
     </row>
-    <row r="34" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="31.5" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="10">
         <v>32</v>
@@ -1859,7 +1859,7 @@
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
     </row>
-    <row r="35" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="31.5" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="10">
         <v>33</v>
@@ -1893,7 +1893,7 @@
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
     </row>
-    <row r="36" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="31.5" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="10">
         <v>34</v>
@@ -1927,7 +1927,7 @@
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
     </row>
-    <row r="37" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="31.5" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="10">
         <v>35</v>
@@ -1961,7 +1961,7 @@
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
     </row>
-    <row r="38" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="31.5" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="10">
         <v>36</v>
@@ -1995,7 +1995,7 @@
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
     </row>
-    <row r="39" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="31.5" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="10">
         <v>37</v>
@@ -2029,7 +2029,7 @@
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
     </row>
-    <row r="40" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="31.5" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="10">
         <v>38</v>
@@ -2063,7 +2063,7 @@
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
     </row>
-    <row r="41" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="31.5" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="10">
         <v>39</v>
@@ -2097,7 +2097,7 @@
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
     </row>
-    <row r="42" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="31.5" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="10">
         <v>40</v>
@@ -2131,7 +2131,7 @@
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
     </row>
-    <row r="43" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="31.5" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="10">
         <v>41</v>
@@ -2165,7 +2165,7 @@
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
     </row>
-    <row r="44" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="31.5" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="10">
         <v>42</v>
@@ -2199,7 +2199,7 @@
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
     </row>
-    <row r="45" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="31.5" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="10">
         <v>43</v>
@@ -2233,7 +2233,7 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
     </row>
-    <row r="46" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="31.5" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="10">
         <v>44</v>
@@ -2267,7 +2267,7 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
     </row>
-    <row r="47" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="31.5" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="10">
         <v>45</v>
@@ -2301,7 +2301,7 @@
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
     </row>
-    <row r="48" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="31.5" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="10">
         <v>46</v>
@@ -2335,7 +2335,7 @@
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
     </row>
-    <row r="49" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="31.5" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="10">
         <v>47</v>
@@ -2369,7 +2369,7 @@
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
     </row>
-    <row r="50" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="31.5" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="10">
         <v>48</v>
@@ -2403,7 +2403,7 @@
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
     </row>
-    <row r="51" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="31.5" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="10">
         <v>49</v>
@@ -2437,7 +2437,7 @@
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
     </row>
-    <row r="52" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="31.5" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="10">
         <v>50</v>
@@ -2471,7 +2471,7 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
     </row>
-    <row r="53" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="31.5" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="10">
         <v>51</v>
@@ -2505,7 +2505,7 @@
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
     </row>
-    <row r="54" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="31.5" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="10">
         <v>52</v>
@@ -2539,7 +2539,7 @@
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
     </row>
-    <row r="55" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" ht="31.5" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="10">
         <v>53</v>
@@ -2573,7 +2573,7 @@
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
     </row>
-    <row r="56" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="31.5" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="10">
         <v>54</v>
@@ -2607,7 +2607,7 @@
       <c r="AC56" s="7"/>
       <c r="AD56" s="7"/>
     </row>
-    <row r="57" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="31.5" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="10">
         <v>55</v>
@@ -2641,7 +2641,7 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
     </row>
-    <row r="58" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="31.5" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="10">
         <v>56</v>
@@ -2675,7 +2675,7 @@
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
     </row>
-    <row r="59" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" ht="31.5" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="10">
         <v>57</v>
@@ -2709,7 +2709,7 @@
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
     </row>
-    <row r="60" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="31.5" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="10">
         <v>58</v>
@@ -2743,7 +2743,7 @@
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
     </row>
-    <row r="61" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="31.5" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="10">
         <v>59</v>
@@ -2777,7 +2777,7 @@
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
     </row>
-    <row r="62" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="31.5" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="10">
         <v>60</v>
@@ -2811,7 +2811,7 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
     </row>
-    <row r="63" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" ht="31.5" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="10">
         <v>61</v>
@@ -2845,7 +2845,7 @@
       <c r="AC63" s="7"/>
       <c r="AD63" s="7"/>
     </row>
-    <row r="64" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" ht="31.5" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="10">
         <v>62</v>
@@ -2879,7 +2879,7 @@
       <c r="AC64" s="7"/>
       <c r="AD64" s="7"/>
     </row>
-    <row r="65" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="31.5" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="10">
         <v>63</v>
@@ -2913,7 +2913,7 @@
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
     </row>
-    <row r="66" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" ht="31.5" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="10">
         <v>64</v>
@@ -2947,7 +2947,7 @@
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
     </row>
-    <row r="67" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" ht="31.5" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="10">
         <v>65</v>
@@ -2981,7 +2981,7 @@
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
     </row>
-    <row r="68" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="31.5" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="10">
         <v>66</v>
@@ -3015,7 +3015,7 @@
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
     </row>
-    <row r="69" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" ht="31.5" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="10">
         <v>67</v>
@@ -3049,7 +3049,7 @@
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
     </row>
-    <row r="70" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" ht="31.5" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="10">
         <v>68</v>
@@ -3083,7 +3083,7 @@
       <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
     </row>
-    <row r="71" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="31.5" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="10">
         <v>69</v>
@@ -3117,7 +3117,7 @@
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
     </row>
-    <row r="72" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="31.5" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="10">
         <v>70</v>
@@ -3151,7 +3151,7 @@
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
     </row>
-    <row r="73" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" ht="31.5" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="10">
         <v>71</v>
@@ -3185,7 +3185,7 @@
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
     </row>
-    <row r="74" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="31.5" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="10">
         <v>72</v>
@@ -3219,7 +3219,7 @@
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
     </row>
-    <row r="75" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" ht="31.5" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="10">
         <v>73</v>
@@ -3253,7 +3253,7 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
     </row>
-    <row r="76" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="31.5" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="10">
         <v>74</v>
@@ -3287,7 +3287,7 @@
       <c r="AC76" s="7"/>
       <c r="AD76" s="7"/>
     </row>
-    <row r="77" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" ht="31.5" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="10">
         <v>75</v>
@@ -3321,7 +3321,7 @@
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
     </row>
-    <row r="78" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="31.5" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="10">
         <v>76</v>
@@ -3355,7 +3355,7 @@
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
     </row>
-    <row r="79" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" ht="31.5" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="10">
         <v>77</v>
@@ -3389,7 +3389,7 @@
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
     </row>
-    <row r="80" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" ht="31.5" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="10">
         <v>78</v>
@@ -3423,7 +3423,7 @@
       <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
     </row>
-    <row r="81" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="31.5" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="10">
         <v>79</v>
@@ -3457,7 +3457,7 @@
       <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
     </row>
-    <row r="82" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="31.5" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="10">
         <v>80</v>
@@ -3491,7 +3491,7 @@
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
     </row>
-    <row r="83" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="12.75">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3523,7 +3523,7 @@
       <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
     </row>
-    <row r="84" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="12.75">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3555,7 +3555,7 @@
       <c r="AC84" s="7"/>
       <c r="AD84" s="7"/>
     </row>
-    <row r="85" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="12.75">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3587,7 +3587,7 @@
       <c r="AC85" s="7"/>
       <c r="AD85" s="7"/>
     </row>
-    <row r="86" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="12.75">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3619,7 +3619,7 @@
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
     </row>
-    <row r="87" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="12.75">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3651,7 +3651,7 @@
       <c r="AC87" s="7"/>
       <c r="AD87" s="7"/>
     </row>
-    <row r="88" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="12.75">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3683,7 +3683,7 @@
       <c r="AC88" s="7"/>
       <c r="AD88" s="7"/>
     </row>
-    <row r="89" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="12.75">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3715,7 +3715,7 @@
       <c r="AC89" s="7"/>
       <c r="AD89" s="7"/>
     </row>
-    <row r="90" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="12.75">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3747,7 +3747,7 @@
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
     </row>
-    <row r="91" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="12.75">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3779,7 +3779,7 @@
       <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
     </row>
-    <row r="92" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="12.75">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3811,7 +3811,7 @@
       <c r="AC92" s="7"/>
       <c r="AD92" s="7"/>
     </row>
-    <row r="93" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="12.75">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3843,7 +3843,7 @@
       <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
     </row>
-    <row r="94" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="12.75">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3875,7 +3875,7 @@
       <c r="AC94" s="7"/>
       <c r="AD94" s="7"/>
     </row>
-    <row r="95" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="12.75">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3907,7 +3907,7 @@
       <c r="AC95" s="7"/>
       <c r="AD95" s="7"/>
     </row>
-    <row r="96" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="12.75">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3939,7 +3939,7 @@
       <c r="AC96" s="7"/>
       <c r="AD96" s="7"/>
     </row>
-    <row r="97" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="12.75">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3971,7 +3971,7 @@
       <c r="AC97" s="7"/>
       <c r="AD97" s="7"/>
     </row>
-    <row r="98" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="12.75">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -4003,7 +4003,7 @@
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
     </row>
-    <row r="99" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="12.75">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -4035,7 +4035,7 @@
       <c r="AC99" s="7"/>
       <c r="AD99" s="7"/>
     </row>
-    <row r="100" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="12.75">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -4067,7 +4067,7 @@
       <c r="AC100" s="7"/>
       <c r="AD100" s="7"/>
     </row>
-    <row r="101" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="12.75">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -4099,7 +4099,7 @@
       <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
     </row>
-    <row r="102" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="12.75">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -4131,7 +4131,7 @@
       <c r="AC102" s="7"/>
       <c r="AD102" s="7"/>
     </row>
-    <row r="103" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="12.75">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -4163,7 +4163,7 @@
       <c r="AC103" s="7"/>
       <c r="AD103" s="7"/>
     </row>
-    <row r="104" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="12.75">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -4195,7 +4195,7 @@
       <c r="AC104" s="7"/>
       <c r="AD104" s="7"/>
     </row>
-    <row r="105" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="12.75">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -4227,7 +4227,7 @@
       <c r="AC105" s="7"/>
       <c r="AD105" s="7"/>
     </row>
-    <row r="106" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="12.75">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -4259,7 +4259,7 @@
       <c r="AC106" s="7"/>
       <c r="AD106" s="7"/>
     </row>
-    <row r="107" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="12.75">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -4291,7 +4291,7 @@
       <c r="AC107" s="7"/>
       <c r="AD107" s="7"/>
     </row>
-    <row r="108" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="12.75">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4323,7 +4323,7 @@
       <c r="AC108" s="7"/>
       <c r="AD108" s="7"/>
     </row>
-    <row r="109" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="12.75">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4355,7 +4355,7 @@
       <c r="AC109" s="7"/>
       <c r="AD109" s="7"/>
     </row>
-    <row r="110" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="12.75">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4387,7 +4387,7 @@
       <c r="AC110" s="7"/>
       <c r="AD110" s="7"/>
     </row>
-    <row r="111" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="12.75">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4419,7 +4419,7 @@
       <c r="AC111" s="7"/>
       <c r="AD111" s="7"/>
     </row>
-    <row r="112" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="12.75">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4451,7 +4451,7 @@
       <c r="AC112" s="7"/>
       <c r="AD112" s="7"/>
     </row>
-    <row r="113" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" ht="12.75">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4483,7 +4483,7 @@
       <c r="AC113" s="7"/>
       <c r="AD113" s="7"/>
     </row>
-    <row r="114" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" ht="12.75">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4515,7 +4515,7 @@
       <c r="AC114" s="7"/>
       <c r="AD114" s="7"/>
     </row>
-    <row r="115" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" ht="12.75">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4547,7 +4547,7 @@
       <c r="AC115" s="7"/>
       <c r="AD115" s="7"/>
     </row>
-    <row r="116" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" ht="12.75">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4579,7 +4579,7 @@
       <c r="AC116" s="7"/>
       <c r="AD116" s="7"/>
     </row>
-    <row r="117" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" ht="12.75">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4611,7 +4611,7 @@
       <c r="AC117" s="7"/>
       <c r="AD117" s="7"/>
     </row>
-    <row r="118" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" ht="12.75">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4643,7 +4643,7 @@
       <c r="AC118" s="7"/>
       <c r="AD118" s="7"/>
     </row>
-    <row r="119" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" ht="12.75">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4675,7 +4675,7 @@
       <c r="AC119" s="7"/>
       <c r="AD119" s="7"/>
     </row>
-    <row r="120" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" ht="12.75">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4707,7 +4707,7 @@
       <c r="AC120" s="7"/>
       <c r="AD120" s="7"/>
     </row>
-    <row r="121" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" ht="12.75">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4739,7 +4739,7 @@
       <c r="AC121" s="7"/>
       <c r="AD121" s="7"/>
     </row>
-    <row r="122" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" ht="12.75">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4771,7 +4771,7 @@
       <c r="AC122" s="7"/>
       <c r="AD122" s="7"/>
     </row>
-    <row r="123" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" ht="12.75">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4803,7 +4803,7 @@
       <c r="AC123" s="7"/>
       <c r="AD123" s="7"/>
     </row>
-    <row r="124" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" ht="12.75">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4835,7 +4835,7 @@
       <c r="AC124" s="7"/>
       <c r="AD124" s="7"/>
     </row>
-    <row r="125" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" ht="12.75">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4867,7 +4867,7 @@
       <c r="AC125" s="7"/>
       <c r="AD125" s="7"/>
     </row>
-    <row r="126" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" ht="12.75">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4899,7 +4899,7 @@
       <c r="AC126" s="7"/>
       <c r="AD126" s="7"/>
     </row>
-    <row r="127" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" ht="12.75">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4931,7 +4931,7 @@
       <c r="AC127" s="7"/>
       <c r="AD127" s="7"/>
     </row>
-    <row r="128" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" ht="12.75">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4963,7 +4963,7 @@
       <c r="AC128" s="7"/>
       <c r="AD128" s="7"/>
     </row>
-    <row r="129" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" ht="12.75">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4995,7 +4995,7 @@
       <c r="AC129" s="7"/>
       <c r="AD129" s="7"/>
     </row>
-    <row r="130" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="12.75">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -5027,7 +5027,7 @@
       <c r="AC130" s="7"/>
       <c r="AD130" s="7"/>
     </row>
-    <row r="131" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="12.75">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -5059,7 +5059,7 @@
       <c r="AC131" s="7"/>
       <c r="AD131" s="7"/>
     </row>
-    <row r="132" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="12.75">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -5091,7 +5091,7 @@
       <c r="AC132" s="7"/>
       <c r="AD132" s="7"/>
     </row>
-    <row r="133" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="12.75">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -5123,7 +5123,7 @@
       <c r="AC133" s="7"/>
       <c r="AD133" s="7"/>
     </row>
-    <row r="134" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="12.75">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -5155,7 +5155,7 @@
       <c r="AC134" s="7"/>
       <c r="AD134" s="7"/>
     </row>
-    <row r="135" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="12.75">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -5187,7 +5187,7 @@
       <c r="AC135" s="7"/>
       <c r="AD135" s="7"/>
     </row>
-    <row r="136" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="12.75">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -5219,7 +5219,7 @@
       <c r="AC136" s="7"/>
       <c r="AD136" s="7"/>
     </row>
-    <row r="137" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" ht="12.75">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -5251,7 +5251,7 @@
       <c r="AC137" s="7"/>
       <c r="AD137" s="7"/>
     </row>
-    <row r="138" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="12.75">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -5283,7 +5283,7 @@
       <c r="AC138" s="7"/>
       <c r="AD138" s="7"/>
     </row>
-    <row r="139" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="12.75">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -5315,7 +5315,7 @@
       <c r="AC139" s="7"/>
       <c r="AD139" s="7"/>
     </row>
-    <row r="140" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="12.75">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -5347,7 +5347,7 @@
       <c r="AC140" s="7"/>
       <c r="AD140" s="7"/>
     </row>
-    <row r="141" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="12.75">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -5379,7 +5379,7 @@
       <c r="AC141" s="7"/>
       <c r="AD141" s="7"/>
     </row>
-    <row r="142" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="12.75">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -5411,7 +5411,7 @@
       <c r="AC142" s="7"/>
       <c r="AD142" s="7"/>
     </row>
-    <row r="143" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" ht="12.75">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -5443,7 +5443,7 @@
       <c r="AC143" s="7"/>
       <c r="AD143" s="7"/>
     </row>
-    <row r="144" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="12.75">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -5475,7 +5475,7 @@
       <c r="AC144" s="7"/>
       <c r="AD144" s="7"/>
     </row>
-    <row r="145" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" ht="12.75">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -5507,7 +5507,7 @@
       <c r="AC145" s="7"/>
       <c r="AD145" s="7"/>
     </row>
-    <row r="146" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" ht="12.75">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -5539,7 +5539,7 @@
       <c r="AC146" s="7"/>
       <c r="AD146" s="7"/>
     </row>
-    <row r="147" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" ht="12.75">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -5571,7 +5571,7 @@
       <c r="AC147" s="7"/>
       <c r="AD147" s="7"/>
     </row>
-    <row r="148" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" ht="12.75">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -5603,7 +5603,7 @@
       <c r="AC148" s="7"/>
       <c r="AD148" s="7"/>
     </row>
-    <row r="149" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" ht="12.75">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -5635,7 +5635,7 @@
       <c r="AC149" s="7"/>
       <c r="AD149" s="7"/>
     </row>
-    <row r="150" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" ht="12.75">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -5667,7 +5667,7 @@
       <c r="AC150" s="7"/>
       <c r="AD150" s="7"/>
     </row>
-    <row r="151" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" ht="12.75">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -5699,7 +5699,7 @@
       <c r="AC151" s="7"/>
       <c r="AD151" s="7"/>
     </row>
-    <row r="152" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" ht="12.75">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -5731,7 +5731,7 @@
       <c r="AC152" s="7"/>
       <c r="AD152" s="7"/>
     </row>
-    <row r="153" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" ht="12.75">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -5763,7 +5763,7 @@
       <c r="AC153" s="7"/>
       <c r="AD153" s="7"/>
     </row>
-    <row r="154" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" ht="12.75">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -5795,7 +5795,7 @@
       <c r="AC154" s="7"/>
       <c r="AD154" s="7"/>
     </row>
-    <row r="155" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" ht="12.75">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -5827,7 +5827,7 @@
       <c r="AC155" s="7"/>
       <c r="AD155" s="7"/>
     </row>
-    <row r="156" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" ht="12.75">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -5859,7 +5859,7 @@
       <c r="AC156" s="7"/>
       <c r="AD156" s="7"/>
     </row>
-    <row r="157" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" ht="12.75">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -5891,7 +5891,7 @@
       <c r="AC157" s="7"/>
       <c r="AD157" s="7"/>
     </row>
-    <row r="158" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" ht="12.75">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -5923,7 +5923,7 @@
       <c r="AC158" s="7"/>
       <c r="AD158" s="7"/>
     </row>
-    <row r="159" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" ht="12.75">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -5955,7 +5955,7 @@
       <c r="AC159" s="7"/>
       <c r="AD159" s="7"/>
     </row>
-    <row r="160" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" ht="12.75">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -5987,7 +5987,7 @@
       <c r="AC160" s="7"/>
       <c r="AD160" s="7"/>
     </row>
-    <row r="161" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" ht="12.75">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -6019,7 +6019,7 @@
       <c r="AC161" s="7"/>
       <c r="AD161" s="7"/>
     </row>
-    <row r="162" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" ht="12.75">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -6051,7 +6051,7 @@
       <c r="AC162" s="7"/>
       <c r="AD162" s="7"/>
     </row>
-    <row r="163" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" ht="12.75">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -6083,7 +6083,7 @@
       <c r="AC163" s="7"/>
       <c r="AD163" s="7"/>
     </row>
-    <row r="164" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" ht="12.75">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -6115,7 +6115,7 @@
       <c r="AC164" s="7"/>
       <c r="AD164" s="7"/>
     </row>
-    <row r="165" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" ht="12.75">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -6147,7 +6147,7 @@
       <c r="AC165" s="7"/>
       <c r="AD165" s="7"/>
     </row>
-    <row r="166" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" ht="12.75">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -6179,7 +6179,7 @@
       <c r="AC166" s="7"/>
       <c r="AD166" s="7"/>
     </row>
-    <row r="167" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" ht="12.75">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -6211,7 +6211,7 @@
       <c r="AC167" s="7"/>
       <c r="AD167" s="7"/>
     </row>
-    <row r="168" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" ht="12.75">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -6243,7 +6243,7 @@
       <c r="AC168" s="7"/>
       <c r="AD168" s="7"/>
     </row>
-    <row r="169" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" ht="12.75">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -6275,7 +6275,7 @@
       <c r="AC169" s="7"/>
       <c r="AD169" s="7"/>
     </row>
-    <row r="170" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" ht="12.75">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -6307,7 +6307,7 @@
       <c r="AC170" s="7"/>
       <c r="AD170" s="7"/>
     </row>
-    <row r="171" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" ht="12.75">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -6339,7 +6339,7 @@
       <c r="AC171" s="7"/>
       <c r="AD171" s="7"/>
     </row>
-    <row r="172" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" ht="12.75">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -6371,7 +6371,7 @@
       <c r="AC172" s="7"/>
       <c r="AD172" s="7"/>
     </row>
-    <row r="173" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" ht="12.75">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -6403,7 +6403,7 @@
       <c r="AC173" s="7"/>
       <c r="AD173" s="7"/>
     </row>
-    <row r="174" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" ht="12.75">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -6435,7 +6435,7 @@
       <c r="AC174" s="7"/>
       <c r="AD174" s="7"/>
     </row>
-    <row r="175" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" ht="12.75">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -6467,7 +6467,7 @@
       <c r="AC175" s="7"/>
       <c r="AD175" s="7"/>
     </row>
-    <row r="176" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" ht="12.75">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -6499,7 +6499,7 @@
       <c r="AC176" s="7"/>
       <c r="AD176" s="7"/>
     </row>
-    <row r="177" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" ht="12.75">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -6531,7 +6531,7 @@
       <c r="AC177" s="7"/>
       <c r="AD177" s="7"/>
     </row>
-    <row r="178" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" ht="12.75">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -6563,7 +6563,7 @@
       <c r="AC178" s="7"/>
       <c r="AD178" s="7"/>
     </row>
-    <row r="179" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" ht="12.75">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -6595,7 +6595,7 @@
       <c r="AC179" s="7"/>
       <c r="AD179" s="7"/>
     </row>
-    <row r="180" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" ht="12.75">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -6627,7 +6627,7 @@
       <c r="AC180" s="7"/>
       <c r="AD180" s="7"/>
     </row>
-    <row r="181" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" ht="12.75">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -6659,7 +6659,7 @@
       <c r="AC181" s="7"/>
       <c r="AD181" s="7"/>
     </row>
-    <row r="182" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" ht="12.75">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -6691,7 +6691,7 @@
       <c r="AC182" s="7"/>
       <c r="AD182" s="7"/>
     </row>
-    <row r="183" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" ht="12.75">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -6723,7 +6723,7 @@
       <c r="AC183" s="7"/>
       <c r="AD183" s="7"/>
     </row>
-    <row r="184" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" ht="12.75">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -6755,7 +6755,7 @@
       <c r="AC184" s="7"/>
       <c r="AD184" s="7"/>
     </row>
-    <row r="185" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" ht="12.75">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -6787,7 +6787,7 @@
       <c r="AC185" s="7"/>
       <c r="AD185" s="7"/>
     </row>
-    <row r="186" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" ht="12.75">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -6819,7 +6819,7 @@
       <c r="AC186" s="7"/>
       <c r="AD186" s="7"/>
     </row>
-    <row r="187" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" ht="12.75">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -6851,7 +6851,7 @@
       <c r="AC187" s="7"/>
       <c r="AD187" s="7"/>
     </row>
-    <row r="188" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" ht="12.75">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -6883,7 +6883,7 @@
       <c r="AC188" s="7"/>
       <c r="AD188" s="7"/>
     </row>
-    <row r="189" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" ht="12.75">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -6915,7 +6915,7 @@
       <c r="AC189" s="7"/>
       <c r="AD189" s="7"/>
     </row>
-    <row r="190" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" ht="12.75">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -6947,7 +6947,7 @@
       <c r="AC190" s="7"/>
       <c r="AD190" s="7"/>
     </row>
-    <row r="191" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" ht="12.75">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -6979,7 +6979,7 @@
       <c r="AC191" s="7"/>
       <c r="AD191" s="7"/>
     </row>
-    <row r="192" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" ht="12.75">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -7011,7 +7011,7 @@
       <c r="AC192" s="7"/>
       <c r="AD192" s="7"/>
     </row>
-    <row r="193" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" ht="12.75">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -7043,7 +7043,7 @@
       <c r="AC193" s="7"/>
       <c r="AD193" s="7"/>
     </row>
-    <row r="194" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" ht="12.75">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -7075,7 +7075,7 @@
       <c r="AC194" s="7"/>
       <c r="AD194" s="7"/>
     </row>
-    <row r="195" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" ht="12.75">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -7107,7 +7107,7 @@
       <c r="AC195" s="7"/>
       <c r="AD195" s="7"/>
     </row>
-    <row r="196" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" ht="12.75">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -7139,7 +7139,7 @@
       <c r="AC196" s="7"/>
       <c r="AD196" s="7"/>
     </row>
-    <row r="197" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" ht="12.75">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -7171,7 +7171,7 @@
       <c r="AC197" s="7"/>
       <c r="AD197" s="7"/>
     </row>
-    <row r="198" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" ht="12.75">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -7203,7 +7203,7 @@
       <c r="AC198" s="7"/>
       <c r="AD198" s="7"/>
     </row>
-    <row r="199" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" ht="12.75">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -7235,7 +7235,7 @@
       <c r="AC199" s="7"/>
       <c r="AD199" s="7"/>
     </row>
-    <row r="200" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" ht="12.75">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -7267,7 +7267,7 @@
       <c r="AC200" s="7"/>
       <c r="AD200" s="7"/>
     </row>
-    <row r="201" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" ht="12.75">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -7299,7 +7299,7 @@
       <c r="AC201" s="7"/>
       <c r="AD201" s="7"/>
     </row>
-    <row r="202" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" ht="12.75">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -7331,7 +7331,7 @@
       <c r="AC202" s="7"/>
       <c r="AD202" s="7"/>
     </row>
-    <row r="203" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" ht="12.75">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -7363,7 +7363,7 @@
       <c r="AC203" s="7"/>
       <c r="AD203" s="7"/>
     </row>
-    <row r="204" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" ht="12.75">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -7395,7 +7395,7 @@
       <c r="AC204" s="7"/>
       <c r="AD204" s="7"/>
     </row>
-    <row r="205" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" ht="12.75">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -7427,7 +7427,7 @@
       <c r="AC205" s="7"/>
       <c r="AD205" s="7"/>
     </row>
-    <row r="206" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" ht="12.75">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -7459,7 +7459,7 @@
       <c r="AC206" s="7"/>
       <c r="AD206" s="7"/>
     </row>
-    <row r="207" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" ht="12.75">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -7491,7 +7491,7 @@
       <c r="AC207" s="7"/>
       <c r="AD207" s="7"/>
     </row>
-    <row r="208" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" ht="12.75">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -7523,7 +7523,7 @@
       <c r="AC208" s="7"/>
       <c r="AD208" s="7"/>
     </row>
-    <row r="209" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" ht="12.75">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -7555,7 +7555,7 @@
       <c r="AC209" s="7"/>
       <c r="AD209" s="7"/>
     </row>
-    <row r="210" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" ht="12.75">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -7587,7 +7587,7 @@
       <c r="AC210" s="7"/>
       <c r="AD210" s="7"/>
     </row>
-    <row r="211" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" ht="12.75">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -7619,7 +7619,7 @@
       <c r="AC211" s="7"/>
       <c r="AD211" s="7"/>
     </row>
-    <row r="212" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" ht="12.75">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -7651,7 +7651,7 @@
       <c r="AC212" s="7"/>
       <c r="AD212" s="7"/>
     </row>
-    <row r="213" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" ht="12.75">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -7683,7 +7683,7 @@
       <c r="AC213" s="7"/>
       <c r="AD213" s="7"/>
     </row>
-    <row r="214" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" ht="12.75">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -7715,7 +7715,7 @@
       <c r="AC214" s="7"/>
       <c r="AD214" s="7"/>
     </row>
-    <row r="215" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" ht="12.75">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -7747,7 +7747,7 @@
       <c r="AC215" s="7"/>
       <c r="AD215" s="7"/>
     </row>
-    <row r="216" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" ht="12.75">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -7779,7 +7779,7 @@
       <c r="AC216" s="7"/>
       <c r="AD216" s="7"/>
     </row>
-    <row r="217" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" ht="12.75">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -7811,7 +7811,7 @@
       <c r="AC217" s="7"/>
       <c r="AD217" s="7"/>
     </row>
-    <row r="218" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" ht="12.75">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -7843,7 +7843,7 @@
       <c r="AC218" s="7"/>
       <c r="AD218" s="7"/>
     </row>
-    <row r="219" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" ht="12.75">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -7875,7 +7875,7 @@
       <c r="AC219" s="7"/>
       <c r="AD219" s="7"/>
     </row>
-    <row r="220" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" ht="12.75">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -7907,7 +7907,7 @@
       <c r="AC220" s="7"/>
       <c r="AD220" s="7"/>
     </row>
-    <row r="221" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" ht="12.75">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -7939,7 +7939,7 @@
       <c r="AC221" s="7"/>
       <c r="AD221" s="7"/>
     </row>
-    <row r="222" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" ht="12.75">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -7971,7 +7971,7 @@
       <c r="AC222" s="7"/>
       <c r="AD222" s="7"/>
     </row>
-    <row r="223" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" ht="12.75">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -8003,7 +8003,7 @@
       <c r="AC223" s="7"/>
       <c r="AD223" s="7"/>
     </row>
-    <row r="224" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" ht="12.75">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -8035,7 +8035,7 @@
       <c r="AC224" s="7"/>
       <c r="AD224" s="7"/>
     </row>
-    <row r="225" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" ht="12.75">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -8067,7 +8067,7 @@
       <c r="AC225" s="7"/>
       <c r="AD225" s="7"/>
     </row>
-    <row r="226" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" ht="12.75">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -8099,7 +8099,7 @@
       <c r="AC226" s="7"/>
       <c r="AD226" s="7"/>
     </row>
-    <row r="227" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" ht="12.75">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -8131,7 +8131,7 @@
       <c r="AC227" s="7"/>
       <c r="AD227" s="7"/>
     </row>
-    <row r="228" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" ht="12.75">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -8163,7 +8163,7 @@
       <c r="AC228" s="7"/>
       <c r="AD228" s="7"/>
     </row>
-    <row r="229" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" ht="12.75">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -8195,7 +8195,7 @@
       <c r="AC229" s="7"/>
       <c r="AD229" s="7"/>
     </row>
-    <row r="230" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" ht="12.75">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -8227,7 +8227,7 @@
       <c r="AC230" s="7"/>
       <c r="AD230" s="7"/>
     </row>
-    <row r="231" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" ht="12.75">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -8259,7 +8259,7 @@
       <c r="AC231" s="7"/>
       <c r="AD231" s="7"/>
     </row>
-    <row r="232" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" ht="12.75">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -8291,7 +8291,7 @@
       <c r="AC232" s="7"/>
       <c r="AD232" s="7"/>
     </row>
-    <row r="233" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" ht="12.75">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -8323,7 +8323,7 @@
       <c r="AC233" s="7"/>
       <c r="AD233" s="7"/>
     </row>
-    <row r="234" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" ht="12.75">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -8355,7 +8355,7 @@
       <c r="AC234" s="7"/>
       <c r="AD234" s="7"/>
     </row>
-    <row r="235" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" ht="12.75">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -8387,7 +8387,7 @@
       <c r="AC235" s="7"/>
       <c r="AD235" s="7"/>
     </row>
-    <row r="236" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" ht="12.75">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -8419,7 +8419,7 @@
       <c r="AC236" s="7"/>
       <c r="AD236" s="7"/>
     </row>
-    <row r="237" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" ht="12.75">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -8451,7 +8451,7 @@
       <c r="AC237" s="7"/>
       <c r="AD237" s="7"/>
     </row>
-    <row r="238" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" ht="12.75">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -8483,7 +8483,7 @@
       <c r="AC238" s="7"/>
       <c r="AD238" s="7"/>
     </row>
-    <row r="239" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" ht="12.75">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -8515,7 +8515,7 @@
       <c r="AC239" s="7"/>
       <c r="AD239" s="7"/>
     </row>
-    <row r="240" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" ht="12.75">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -8547,7 +8547,7 @@
       <c r="AC240" s="7"/>
       <c r="AD240" s="7"/>
     </row>
-    <row r="241" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" ht="12.75">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -8579,7 +8579,7 @@
       <c r="AC241" s="7"/>
       <c r="AD241" s="7"/>
     </row>
-    <row r="242" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" ht="12.75">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -8611,7 +8611,7 @@
       <c r="AC242" s="7"/>
       <c r="AD242" s="7"/>
     </row>
-    <row r="243" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" ht="12.75">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -8643,7 +8643,7 @@
       <c r="AC243" s="7"/>
       <c r="AD243" s="7"/>
     </row>
-    <row r="244" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" ht="12.75">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -8675,7 +8675,7 @@
       <c r="AC244" s="7"/>
       <c r="AD244" s="7"/>
     </row>
-    <row r="245" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" ht="12.75">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -8707,7 +8707,7 @@
       <c r="AC245" s="7"/>
       <c r="AD245" s="7"/>
     </row>
-    <row r="246" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" ht="12.75">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -8739,7 +8739,7 @@
       <c r="AC246" s="7"/>
       <c r="AD246" s="7"/>
     </row>
-    <row r="247" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" ht="12.75">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -8771,7 +8771,7 @@
       <c r="AC247" s="7"/>
       <c r="AD247" s="7"/>
     </row>
-    <row r="248" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" ht="12.75">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -8803,7 +8803,7 @@
       <c r="AC248" s="7"/>
       <c r="AD248" s="7"/>
     </row>
-    <row r="249" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" ht="12.75">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -8835,7 +8835,7 @@
       <c r="AC249" s="7"/>
       <c r="AD249" s="7"/>
     </row>
-    <row r="250" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" ht="12.75">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -8867,7 +8867,7 @@
       <c r="AC250" s="7"/>
       <c r="AD250" s="7"/>
     </row>
-    <row r="251" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" ht="12.75">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -8899,7 +8899,7 @@
       <c r="AC251" s="7"/>
       <c r="AD251" s="7"/>
     </row>
-    <row r="252" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" ht="12.75">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -8931,7 +8931,7 @@
       <c r="AC252" s="7"/>
       <c r="AD252" s="7"/>
     </row>
-    <row r="253" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" ht="12.75">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -8963,7 +8963,7 @@
       <c r="AC253" s="7"/>
       <c r="AD253" s="7"/>
     </row>
-    <row r="254" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" ht="12.75">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -8995,7 +8995,7 @@
       <c r="AC254" s="7"/>
       <c r="AD254" s="7"/>
     </row>
-    <row r="255" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" ht="12.75">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -9027,7 +9027,7 @@
       <c r="AC255" s="7"/>
       <c r="AD255" s="7"/>
     </row>
-    <row r="256" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" ht="12.75">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -9059,7 +9059,7 @@
       <c r="AC256" s="7"/>
       <c r="AD256" s="7"/>
     </row>
-    <row r="257" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" ht="12.75">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -9091,7 +9091,7 @@
       <c r="AC257" s="7"/>
       <c r="AD257" s="7"/>
     </row>
-    <row r="258" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" ht="12.75">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -9123,7 +9123,7 @@
       <c r="AC258" s="7"/>
       <c r="AD258" s="7"/>
     </row>
-    <row r="259" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" ht="12.75">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -9155,7 +9155,7 @@
       <c r="AC259" s="7"/>
       <c r="AD259" s="7"/>
     </row>
-    <row r="260" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" ht="12.75">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -9187,7 +9187,7 @@
       <c r="AC260" s="7"/>
       <c r="AD260" s="7"/>
     </row>
-    <row r="261" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" ht="12.75">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -9219,7 +9219,7 @@
       <c r="AC261" s="7"/>
       <c r="AD261" s="7"/>
     </row>
-    <row r="262" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" ht="12.75">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -9251,7 +9251,7 @@
       <c r="AC262" s="7"/>
       <c r="AD262" s="7"/>
     </row>
-    <row r="263" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" ht="12.75">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -9283,7 +9283,7 @@
       <c r="AC263" s="7"/>
       <c r="AD263" s="7"/>
     </row>
-    <row r="264" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" ht="12.75">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -9315,7 +9315,7 @@
       <c r="AC264" s="7"/>
       <c r="AD264" s="7"/>
     </row>
-    <row r="265" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" ht="12.75">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -9347,7 +9347,7 @@
       <c r="AC265" s="7"/>
       <c r="AD265" s="7"/>
     </row>
-    <row r="266" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" ht="12.75">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -9379,7 +9379,7 @@
       <c r="AC266" s="7"/>
       <c r="AD266" s="7"/>
     </row>
-    <row r="267" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" ht="12.75">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -9411,7 +9411,7 @@
       <c r="AC267" s="7"/>
       <c r="AD267" s="7"/>
     </row>
-    <row r="268" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" ht="12.75">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -9443,7 +9443,7 @@
       <c r="AC268" s="7"/>
       <c r="AD268" s="7"/>
     </row>
-    <row r="269" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" ht="12.75">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -9475,7 +9475,7 @@
       <c r="AC269" s="7"/>
       <c r="AD269" s="7"/>
     </row>
-    <row r="270" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" ht="12.75">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -9507,7 +9507,7 @@
       <c r="AC270" s="7"/>
       <c r="AD270" s="7"/>
     </row>
-    <row r="271" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" ht="12.75">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -9539,7 +9539,7 @@
       <c r="AC271" s="7"/>
       <c r="AD271" s="7"/>
     </row>
-    <row r="272" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" ht="12.75">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -9571,7 +9571,7 @@
       <c r="AC272" s="7"/>
       <c r="AD272" s="7"/>
     </row>
-    <row r="273" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" ht="12.75">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -9603,7 +9603,7 @@
       <c r="AC273" s="7"/>
       <c r="AD273" s="7"/>
     </row>
-    <row r="274" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" ht="12.75">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -9635,7 +9635,7 @@
       <c r="AC274" s="7"/>
       <c r="AD274" s="7"/>
     </row>
-    <row r="275" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" ht="12.75">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -9667,7 +9667,7 @@
       <c r="AC275" s="7"/>
       <c r="AD275" s="7"/>
     </row>
-    <row r="276" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" ht="12.75">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -9699,7 +9699,7 @@
       <c r="AC276" s="7"/>
       <c r="AD276" s="7"/>
     </row>
-    <row r="277" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" ht="12.75">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -9731,7 +9731,7 @@
       <c r="AC277" s="7"/>
       <c r="AD277" s="7"/>
     </row>
-    <row r="278" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" ht="12.75">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -9763,7 +9763,7 @@
       <c r="AC278" s="7"/>
       <c r="AD278" s="7"/>
     </row>
-    <row r="279" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" ht="12.75">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -9795,7 +9795,7 @@
       <c r="AC279" s="7"/>
       <c r="AD279" s="7"/>
     </row>
-    <row r="280" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" ht="12.75">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -9827,7 +9827,7 @@
       <c r="AC280" s="7"/>
       <c r="AD280" s="7"/>
     </row>
-    <row r="281" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" ht="12.75">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -9859,7 +9859,7 @@
       <c r="AC281" s="7"/>
       <c r="AD281" s="7"/>
     </row>
-    <row r="282" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" ht="12.75">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -9891,7 +9891,7 @@
       <c r="AC282" s="7"/>
       <c r="AD282" s="7"/>
     </row>
-    <row r="283" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" ht="12.75">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -9923,7 +9923,7 @@
       <c r="AC283" s="7"/>
       <c r="AD283" s="7"/>
     </row>
-    <row r="284" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" ht="12.75">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -9955,7 +9955,7 @@
       <c r="AC284" s="7"/>
       <c r="AD284" s="7"/>
     </row>
-    <row r="285" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" ht="12.75">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -9987,7 +9987,7 @@
       <c r="AC285" s="7"/>
       <c r="AD285" s="7"/>
     </row>
-    <row r="286" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" ht="12.75">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -10019,7 +10019,7 @@
       <c r="AC286" s="7"/>
       <c r="AD286" s="7"/>
     </row>
-    <row r="287" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" ht="12.75">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -10051,7 +10051,7 @@
       <c r="AC287" s="7"/>
       <c r="AD287" s="7"/>
     </row>
-    <row r="288" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" ht="12.75">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -10083,7 +10083,7 @@
       <c r="AC288" s="7"/>
       <c r="AD288" s="7"/>
     </row>
-    <row r="289" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" ht="12.75">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -10115,7 +10115,7 @@
       <c r="AC289" s="7"/>
       <c r="AD289" s="7"/>
     </row>
-    <row r="290" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" ht="12.75">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -10147,7 +10147,7 @@
       <c r="AC290" s="7"/>
       <c r="AD290" s="7"/>
     </row>
-    <row r="291" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" ht="12.75">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -10179,7 +10179,7 @@
       <c r="AC291" s="7"/>
       <c r="AD291" s="7"/>
     </row>
-    <row r="292" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" ht="12.75">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -10211,7 +10211,7 @@
       <c r="AC292" s="7"/>
       <c r="AD292" s="7"/>
     </row>
-    <row r="293" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" ht="12.75">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -10243,7 +10243,7 @@
       <c r="AC293" s="7"/>
       <c r="AD293" s="7"/>
     </row>
-    <row r="294" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" ht="12.75">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -10275,7 +10275,7 @@
       <c r="AC294" s="7"/>
       <c r="AD294" s="7"/>
     </row>
-    <row r="295" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" ht="12.75">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -10307,7 +10307,7 @@
       <c r="AC295" s="7"/>
       <c r="AD295" s="7"/>
     </row>
-    <row r="296" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" ht="12.75">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -10339,7 +10339,7 @@
       <c r="AC296" s="7"/>
       <c r="AD296" s="7"/>
     </row>
-    <row r="297" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" ht="12.75">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -10371,7 +10371,7 @@
       <c r="AC297" s="7"/>
       <c r="AD297" s="7"/>
     </row>
-    <row r="298" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" ht="12.75">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -10403,7 +10403,7 @@
       <c r="AC298" s="7"/>
       <c r="AD298" s="7"/>
     </row>
-    <row r="299" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" ht="12.75">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -10435,7 +10435,7 @@
       <c r="AC299" s="7"/>
       <c r="AD299" s="7"/>
     </row>
-    <row r="300" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" ht="12.75">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -10467,7 +10467,7 @@
       <c r="AC300" s="7"/>
       <c r="AD300" s="7"/>
     </row>
-    <row r="301" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" ht="12.75">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -10499,7 +10499,7 @@
       <c r="AC301" s="7"/>
       <c r="AD301" s="7"/>
     </row>
-    <row r="302" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" ht="12.75">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -10531,7 +10531,7 @@
       <c r="AC302" s="7"/>
       <c r="AD302" s="7"/>
     </row>
-    <row r="303" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" ht="12.75">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -10563,7 +10563,7 @@
       <c r="AC303" s="7"/>
       <c r="AD303" s="7"/>
     </row>
-    <row r="304" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" ht="12.75">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -10595,7 +10595,7 @@
       <c r="AC304" s="7"/>
       <c r="AD304" s="7"/>
     </row>
-    <row r="305" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" ht="12.75">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -10627,7 +10627,7 @@
       <c r="AC305" s="7"/>
       <c r="AD305" s="7"/>
     </row>
-    <row r="306" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" ht="12.75">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -10659,7 +10659,7 @@
       <c r="AC306" s="7"/>
       <c r="AD306" s="7"/>
     </row>
-    <row r="307" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" ht="12.75">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -10691,7 +10691,7 @@
       <c r="AC307" s="7"/>
       <c r="AD307" s="7"/>
     </row>
-    <row r="308" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" ht="12.75">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -10723,7 +10723,7 @@
       <c r="AC308" s="7"/>
       <c r="AD308" s="7"/>
     </row>
-    <row r="309" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" ht="12.75">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -10755,7 +10755,7 @@
       <c r="AC309" s="7"/>
       <c r="AD309" s="7"/>
     </row>
-    <row r="310" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" ht="12.75">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -10787,7 +10787,7 @@
       <c r="AC310" s="7"/>
       <c r="AD310" s="7"/>
     </row>
-    <row r="311" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" ht="12.75">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -10819,7 +10819,7 @@
       <c r="AC311" s="7"/>
       <c r="AD311" s="7"/>
     </row>
-    <row r="312" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" ht="12.75">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -10851,7 +10851,7 @@
       <c r="AC312" s="7"/>
       <c r="AD312" s="7"/>
     </row>
-    <row r="313" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" ht="12.75">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -10883,7 +10883,7 @@
       <c r="AC313" s="7"/>
       <c r="AD313" s="7"/>
     </row>
-    <row r="314" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" ht="12.75">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -10915,7 +10915,7 @@
       <c r="AC314" s="7"/>
       <c r="AD314" s="7"/>
     </row>
-    <row r="315" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" ht="12.75">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -10947,7 +10947,7 @@
       <c r="AC315" s="7"/>
       <c r="AD315" s="7"/>
     </row>
-    <row r="316" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" ht="12.75">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -10979,7 +10979,7 @@
       <c r="AC316" s="7"/>
       <c r="AD316" s="7"/>
     </row>
-    <row r="317" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" ht="12.75">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -11011,7 +11011,7 @@
       <c r="AC317" s="7"/>
       <c r="AD317" s="7"/>
     </row>
-    <row r="318" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" ht="12.75">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -11043,7 +11043,7 @@
       <c r="AC318" s="7"/>
       <c r="AD318" s="7"/>
     </row>
-    <row r="319" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" ht="12.75">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -11075,7 +11075,7 @@
       <c r="AC319" s="7"/>
       <c r="AD319" s="7"/>
     </row>
-    <row r="320" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" ht="12.75">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -11107,7 +11107,7 @@
       <c r="AC320" s="7"/>
       <c r="AD320" s="7"/>
     </row>
-    <row r="321" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" ht="12.75">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -11139,7 +11139,7 @@
       <c r="AC321" s="7"/>
       <c r="AD321" s="7"/>
     </row>
-    <row r="322" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" ht="12.75">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -11171,7 +11171,7 @@
       <c r="AC322" s="7"/>
       <c r="AD322" s="7"/>
     </row>
-    <row r="323" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" ht="12.75">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -11203,7 +11203,7 @@
       <c r="AC323" s="7"/>
       <c r="AD323" s="7"/>
     </row>
-    <row r="324" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" ht="12.75">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -11235,7 +11235,7 @@
       <c r="AC324" s="7"/>
       <c r="AD324" s="7"/>
     </row>
-    <row r="325" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" ht="12.75">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -11267,7 +11267,7 @@
       <c r="AC325" s="7"/>
       <c r="AD325" s="7"/>
     </row>
-    <row r="326" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" ht="12.75">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -11299,7 +11299,7 @@
       <c r="AC326" s="7"/>
       <c r="AD326" s="7"/>
     </row>
-    <row r="327" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" ht="12.75">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -11331,7 +11331,7 @@
       <c r="AC327" s="7"/>
       <c r="AD327" s="7"/>
     </row>
-    <row r="328" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" ht="12.75">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -11363,7 +11363,7 @@
       <c r="AC328" s="7"/>
       <c r="AD328" s="7"/>
     </row>
-    <row r="329" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" ht="12.75">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -11395,7 +11395,7 @@
       <c r="AC329" s="7"/>
       <c r="AD329" s="7"/>
     </row>
-    <row r="330" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" ht="12.75">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -11427,7 +11427,7 @@
       <c r="AC330" s="7"/>
       <c r="AD330" s="7"/>
     </row>
-    <row r="331" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" ht="12.75">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -11459,7 +11459,7 @@
       <c r="AC331" s="7"/>
       <c r="AD331" s="7"/>
     </row>
-    <row r="332" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" ht="12.75">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -11491,7 +11491,7 @@
       <c r="AC332" s="7"/>
       <c r="AD332" s="7"/>
     </row>
-    <row r="333" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" ht="12.75">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -11523,7 +11523,7 @@
       <c r="AC333" s="7"/>
       <c r="AD333" s="7"/>
     </row>
-    <row r="334" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" ht="12.75">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -11555,7 +11555,7 @@
       <c r="AC334" s="7"/>
       <c r="AD334" s="7"/>
     </row>
-    <row r="335" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" ht="12.75">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -11587,7 +11587,7 @@
       <c r="AC335" s="7"/>
       <c r="AD335" s="7"/>
     </row>
-    <row r="336" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" ht="12.75">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -11619,7 +11619,7 @@
       <c r="AC336" s="7"/>
       <c r="AD336" s="7"/>
     </row>
-    <row r="337" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" ht="12.75">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -11651,7 +11651,7 @@
       <c r="AC337" s="7"/>
       <c r="AD337" s="7"/>
     </row>
-    <row r="338" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" ht="12.75">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -11683,7 +11683,7 @@
       <c r="AC338" s="7"/>
       <c r="AD338" s="7"/>
     </row>
-    <row r="339" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" ht="12.75">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -11715,7 +11715,7 @@
       <c r="AC339" s="7"/>
       <c r="AD339" s="7"/>
     </row>
-    <row r="340" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" ht="12.75">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -11747,7 +11747,7 @@
       <c r="AC340" s="7"/>
       <c r="AD340" s="7"/>
     </row>
-    <row r="341" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" ht="12.75">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -11779,7 +11779,7 @@
       <c r="AC341" s="7"/>
       <c r="AD341" s="7"/>
     </row>
-    <row r="342" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" ht="12.75">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -11811,7 +11811,7 @@
       <c r="AC342" s="7"/>
       <c r="AD342" s="7"/>
     </row>
-    <row r="343" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" ht="12.75">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -11843,7 +11843,7 @@
       <c r="AC343" s="7"/>
       <c r="AD343" s="7"/>
     </row>
-    <row r="344" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" ht="12.75">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -11875,7 +11875,7 @@
       <c r="AC344" s="7"/>
       <c r="AD344" s="7"/>
     </row>
-    <row r="345" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" ht="12.75">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -11907,7 +11907,7 @@
       <c r="AC345" s="7"/>
       <c r="AD345" s="7"/>
     </row>
-    <row r="346" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" ht="12.75">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -11939,7 +11939,7 @@
       <c r="AC346" s="7"/>
       <c r="AD346" s="7"/>
     </row>
-    <row r="347" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" ht="12.75">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -11971,7 +11971,7 @@
       <c r="AC347" s="7"/>
       <c r="AD347" s="7"/>
     </row>
-    <row r="348" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" ht="12.75">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -12003,7 +12003,7 @@
       <c r="AC348" s="7"/>
       <c r="AD348" s="7"/>
     </row>
-    <row r="349" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" ht="12.75">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -12035,7 +12035,7 @@
       <c r="AC349" s="7"/>
       <c r="AD349" s="7"/>
     </row>
-    <row r="350" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" ht="12.75">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -12067,7 +12067,7 @@
       <c r="AC350" s="7"/>
       <c r="AD350" s="7"/>
     </row>
-    <row r="351" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" ht="12.75">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -12099,7 +12099,7 @@
       <c r="AC351" s="7"/>
       <c r="AD351" s="7"/>
     </row>
-    <row r="352" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" ht="12.75">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -12131,7 +12131,7 @@
       <c r="AC352" s="7"/>
       <c r="AD352" s="7"/>
     </row>
-    <row r="353" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" ht="12.75">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -12163,7 +12163,7 @@
       <c r="AC353" s="7"/>
       <c r="AD353" s="7"/>
     </row>
-    <row r="354" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" ht="12.75">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -12195,7 +12195,7 @@
       <c r="AC354" s="7"/>
       <c r="AD354" s="7"/>
     </row>
-    <row r="355" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" ht="12.75">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -12227,7 +12227,7 @@
       <c r="AC355" s="7"/>
       <c r="AD355" s="7"/>
     </row>
-    <row r="356" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" ht="12.75">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -12259,7 +12259,7 @@
       <c r="AC356" s="7"/>
       <c r="AD356" s="7"/>
     </row>
-    <row r="357" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" ht="12.75">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -12291,7 +12291,7 @@
       <c r="AC357" s="7"/>
       <c r="AD357" s="7"/>
     </row>
-    <row r="358" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" ht="12.75">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -12323,7 +12323,7 @@
       <c r="AC358" s="7"/>
       <c r="AD358" s="7"/>
     </row>
-    <row r="359" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" ht="12.75">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -12355,7 +12355,7 @@
       <c r="AC359" s="7"/>
       <c r="AD359" s="7"/>
     </row>
-    <row r="360" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" ht="12.75">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -12387,7 +12387,7 @@
       <c r="AC360" s="7"/>
       <c r="AD360" s="7"/>
     </row>
-    <row r="361" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" ht="12.75">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -12419,7 +12419,7 @@
       <c r="AC361" s="7"/>
       <c r="AD361" s="7"/>
     </row>
-    <row r="362" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" ht="12.75">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -12451,7 +12451,7 @@
       <c r="AC362" s="7"/>
       <c r="AD362" s="7"/>
     </row>
-    <row r="363" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" ht="12.75">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -12483,7 +12483,7 @@
       <c r="AC363" s="7"/>
       <c r="AD363" s="7"/>
     </row>
-    <row r="364" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" ht="12.75">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -12515,7 +12515,7 @@
       <c r="AC364" s="7"/>
       <c r="AD364" s="7"/>
     </row>
-    <row r="365" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" ht="12.75">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -12547,7 +12547,7 @@
       <c r="AC365" s="7"/>
       <c r="AD365" s="7"/>
     </row>
-    <row r="366" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" ht="12.75">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -12579,7 +12579,7 @@
       <c r="AC366" s="7"/>
       <c r="AD366" s="7"/>
     </row>
-    <row r="367" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" ht="12.75">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -12611,7 +12611,7 @@
       <c r="AC367" s="7"/>
       <c r="AD367" s="7"/>
     </row>
-    <row r="368" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" ht="12.75">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -12643,7 +12643,7 @@
       <c r="AC368" s="7"/>
       <c r="AD368" s="7"/>
     </row>
-    <row r="369" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" ht="12.75">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -12675,7 +12675,7 @@
       <c r="AC369" s="7"/>
       <c r="AD369" s="7"/>
     </row>
-    <row r="370" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" ht="12.75">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -12707,7 +12707,7 @@
       <c r="AC370" s="7"/>
       <c r="AD370" s="7"/>
     </row>
-    <row r="371" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" ht="12.75">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -12739,7 +12739,7 @@
       <c r="AC371" s="7"/>
       <c r="AD371" s="7"/>
     </row>
-    <row r="372" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" ht="12.75">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -12771,7 +12771,7 @@
       <c r="AC372" s="7"/>
       <c r="AD372" s="7"/>
     </row>
-    <row r="373" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" ht="12.75">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -12803,7 +12803,7 @@
       <c r="AC373" s="7"/>
       <c r="AD373" s="7"/>
     </row>
-    <row r="374" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" ht="12.75">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -12835,7 +12835,7 @@
       <c r="AC374" s="7"/>
       <c r="AD374" s="7"/>
     </row>
-    <row r="375" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" ht="12.75">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -12867,7 +12867,7 @@
       <c r="AC375" s="7"/>
       <c r="AD375" s="7"/>
     </row>
-    <row r="376" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" ht="12.75">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -12899,7 +12899,7 @@
       <c r="AC376" s="7"/>
       <c r="AD376" s="7"/>
     </row>
-    <row r="377" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" ht="12.75">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -12931,7 +12931,7 @@
       <c r="AC377" s="7"/>
       <c r="AD377" s="7"/>
     </row>
-    <row r="378" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" ht="12.75">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -12963,7 +12963,7 @@
       <c r="AC378" s="7"/>
       <c r="AD378" s="7"/>
     </row>
-    <row r="379" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" ht="12.75">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -12995,7 +12995,7 @@
       <c r="AC379" s="7"/>
       <c r="AD379" s="7"/>
     </row>
-    <row r="380" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" ht="12.75">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -13027,7 +13027,7 @@
       <c r="AC380" s="7"/>
       <c r="AD380" s="7"/>
     </row>
-    <row r="381" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" ht="12.75">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -13059,7 +13059,7 @@
       <c r="AC381" s="7"/>
       <c r="AD381" s="7"/>
     </row>
-    <row r="382" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" ht="12.75">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -13091,7 +13091,7 @@
       <c r="AC382" s="7"/>
       <c r="AD382" s="7"/>
     </row>
-    <row r="383" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" ht="12.75">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -13123,7 +13123,7 @@
       <c r="AC383" s="7"/>
       <c r="AD383" s="7"/>
     </row>
-    <row r="384" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" ht="12.75">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -13155,7 +13155,7 @@
       <c r="AC384" s="7"/>
       <c r="AD384" s="7"/>
     </row>
-    <row r="385" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" ht="12.75">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -13187,7 +13187,7 @@
       <c r="AC385" s="7"/>
       <c r="AD385" s="7"/>
     </row>
-    <row r="386" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" ht="12.75">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -13219,7 +13219,7 @@
       <c r="AC386" s="7"/>
       <c r="AD386" s="7"/>
     </row>
-    <row r="387" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" ht="12.75">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -13251,7 +13251,7 @@
       <c r="AC387" s="7"/>
       <c r="AD387" s="7"/>
     </row>
-    <row r="388" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" ht="12.75">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -13283,7 +13283,7 @@
       <c r="AC388" s="7"/>
       <c r="AD388" s="7"/>
     </row>
-    <row r="389" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" ht="12.75">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -13315,7 +13315,7 @@
       <c r="AC389" s="7"/>
       <c r="AD389" s="7"/>
     </row>
-    <row r="390" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" ht="12.75">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -13347,7 +13347,7 @@
       <c r="AC390" s="7"/>
       <c r="AD390" s="7"/>
     </row>
-    <row r="391" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" ht="12.75">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -13379,7 +13379,7 @@
       <c r="AC391" s="7"/>
       <c r="AD391" s="7"/>
     </row>
-    <row r="392" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" ht="12.75">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -13411,7 +13411,7 @@
       <c r="AC392" s="7"/>
       <c r="AD392" s="7"/>
     </row>
-    <row r="393" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" ht="12.75">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -13443,7 +13443,7 @@
       <c r="AC393" s="7"/>
       <c r="AD393" s="7"/>
     </row>
-    <row r="394" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" ht="12.75">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -13475,7 +13475,7 @@
       <c r="AC394" s="7"/>
       <c r="AD394" s="7"/>
     </row>
-    <row r="395" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" ht="12.75">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -13507,7 +13507,7 @@
       <c r="AC395" s="7"/>
       <c r="AD395" s="7"/>
     </row>
-    <row r="396" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" ht="12.75">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -13539,7 +13539,7 @@
       <c r="AC396" s="7"/>
       <c r="AD396" s="7"/>
     </row>
-    <row r="397" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" ht="12.75">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -13571,7 +13571,7 @@
       <c r="AC397" s="7"/>
       <c r="AD397" s="7"/>
     </row>
-    <row r="398" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" ht="12.75">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -13603,7 +13603,7 @@
       <c r="AC398" s="7"/>
       <c r="AD398" s="7"/>
     </row>
-    <row r="399" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" ht="12.75">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -13635,7 +13635,7 @@
       <c r="AC399" s="7"/>
       <c r="AD399" s="7"/>
     </row>
-    <row r="400" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" ht="12.75">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -13667,7 +13667,7 @@
       <c r="AC400" s="7"/>
       <c r="AD400" s="7"/>
     </row>
-    <row r="401" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" ht="12.75">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -13699,7 +13699,7 @@
       <c r="AC401" s="7"/>
       <c r="AD401" s="7"/>
     </row>
-    <row r="402" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" ht="12.75">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -13731,7 +13731,7 @@
       <c r="AC402" s="7"/>
       <c r="AD402" s="7"/>
     </row>
-    <row r="403" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" ht="12.75">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -13763,7 +13763,7 @@
       <c r="AC403" s="7"/>
       <c r="AD403" s="7"/>
     </row>
-    <row r="404" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" ht="12.75">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -13795,7 +13795,7 @@
       <c r="AC404" s="7"/>
       <c r="AD404" s="7"/>
     </row>
-    <row r="405" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" ht="12.75">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -13827,7 +13827,7 @@
       <c r="AC405" s="7"/>
       <c r="AD405" s="7"/>
     </row>
-    <row r="406" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" ht="12.75">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -13859,7 +13859,7 @@
       <c r="AC406" s="7"/>
       <c r="AD406" s="7"/>
     </row>
-    <row r="407" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" ht="12.75">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -13891,7 +13891,7 @@
       <c r="AC407" s="7"/>
       <c r="AD407" s="7"/>
     </row>
-    <row r="408" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" ht="12.75">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -13923,7 +13923,7 @@
       <c r="AC408" s="7"/>
       <c r="AD408" s="7"/>
     </row>
-    <row r="409" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" ht="12.75">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -13955,7 +13955,7 @@
       <c r="AC409" s="7"/>
       <c r="AD409" s="7"/>
     </row>
-    <row r="410" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" ht="12.75">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -13987,7 +13987,7 @@
       <c r="AC410" s="7"/>
       <c r="AD410" s="7"/>
     </row>
-    <row r="411" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" ht="12.75">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -14019,7 +14019,7 @@
       <c r="AC411" s="7"/>
       <c r="AD411" s="7"/>
     </row>
-    <row r="412" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" ht="12.75">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -14051,7 +14051,7 @@
       <c r="AC412" s="7"/>
       <c r="AD412" s="7"/>
     </row>
-    <row r="413" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" ht="12.75">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -14083,7 +14083,7 @@
       <c r="AC413" s="7"/>
       <c r="AD413" s="7"/>
     </row>
-    <row r="414" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" ht="12.75">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -14115,7 +14115,7 @@
       <c r="AC414" s="7"/>
       <c r="AD414" s="7"/>
     </row>
-    <row r="415" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" ht="12.75">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -14147,7 +14147,7 @@
       <c r="AC415" s="7"/>
       <c r="AD415" s="7"/>
     </row>
-    <row r="416" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" ht="12.75">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -14179,7 +14179,7 @@
       <c r="AC416" s="7"/>
       <c r="AD416" s="7"/>
     </row>
-    <row r="417" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" ht="12.75">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -14211,7 +14211,7 @@
       <c r="AC417" s="7"/>
       <c r="AD417" s="7"/>
     </row>
-    <row r="418" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" ht="12.75">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -14243,7 +14243,7 @@
       <c r="AC418" s="7"/>
       <c r="AD418" s="7"/>
     </row>
-    <row r="419" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" ht="12.75">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -14275,7 +14275,7 @@
       <c r="AC419" s="7"/>
       <c r="AD419" s="7"/>
     </row>
-    <row r="420" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" ht="12.75">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -14307,7 +14307,7 @@
       <c r="AC420" s="7"/>
       <c r="AD420" s="7"/>
     </row>
-    <row r="421" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" ht="12.75">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -14339,7 +14339,7 @@
       <c r="AC421" s="7"/>
       <c r="AD421" s="7"/>
     </row>
-    <row r="422" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" ht="12.75">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -14371,7 +14371,7 @@
       <c r="AC422" s="7"/>
       <c r="AD422" s="7"/>
     </row>
-    <row r="423" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" ht="12.75">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -14403,7 +14403,7 @@
       <c r="AC423" s="7"/>
       <c r="AD423" s="7"/>
     </row>
-    <row r="424" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" ht="12.75">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -14435,7 +14435,7 @@
       <c r="AC424" s="7"/>
       <c r="AD424" s="7"/>
     </row>
-    <row r="425" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" ht="12.75">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -14467,7 +14467,7 @@
       <c r="AC425" s="7"/>
       <c r="AD425" s="7"/>
     </row>
-    <row r="426" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" ht="12.75">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -14499,7 +14499,7 @@
       <c r="AC426" s="7"/>
       <c r="AD426" s="7"/>
     </row>
-    <row r="427" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" ht="12.75">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -14531,7 +14531,7 @@
       <c r="AC427" s="7"/>
       <c r="AD427" s="7"/>
     </row>
-    <row r="428" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" ht="12.75">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -14563,7 +14563,7 @@
       <c r="AC428" s="7"/>
       <c r="AD428" s="7"/>
     </row>
-    <row r="429" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" ht="12.75">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -14595,7 +14595,7 @@
       <c r="AC429" s="7"/>
       <c r="AD429" s="7"/>
     </row>
-    <row r="430" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" ht="12.75">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -14627,7 +14627,7 @@
       <c r="AC430" s="7"/>
       <c r="AD430" s="7"/>
     </row>
-    <row r="431" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" ht="12.75">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -14659,7 +14659,7 @@
       <c r="AC431" s="7"/>
       <c r="AD431" s="7"/>
     </row>
-    <row r="432" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" ht="12.75">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -14691,7 +14691,7 @@
       <c r="AC432" s="7"/>
       <c r="AD432" s="7"/>
     </row>
-    <row r="433" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" ht="12.75">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -14723,7 +14723,7 @@
       <c r="AC433" s="7"/>
       <c r="AD433" s="7"/>
     </row>
-    <row r="434" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" ht="12.75">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -14755,7 +14755,7 @@
       <c r="AC434" s="7"/>
       <c r="AD434" s="7"/>
     </row>
-    <row r="435" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" ht="12.75">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -14787,7 +14787,7 @@
       <c r="AC435" s="7"/>
       <c r="AD435" s="7"/>
     </row>
-    <row r="436" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" ht="12.75">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -14819,7 +14819,7 @@
       <c r="AC436" s="7"/>
       <c r="AD436" s="7"/>
     </row>
-    <row r="437" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" ht="12.75">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -14851,7 +14851,7 @@
       <c r="AC437" s="7"/>
       <c r="AD437" s="7"/>
     </row>
-    <row r="438" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" ht="12.75">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -14883,7 +14883,7 @@
       <c r="AC438" s="7"/>
       <c r="AD438" s="7"/>
     </row>
-    <row r="439" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" ht="12.75">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -14915,7 +14915,7 @@
       <c r="AC439" s="7"/>
       <c r="AD439" s="7"/>
     </row>
-    <row r="440" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" ht="12.75">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -14947,7 +14947,7 @@
       <c r="AC440" s="7"/>
       <c r="AD440" s="7"/>
     </row>
-    <row r="441" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" ht="12.75">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -14979,7 +14979,7 @@
       <c r="AC441" s="7"/>
       <c r="AD441" s="7"/>
     </row>
-    <row r="442" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" ht="12.75">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -15011,7 +15011,7 @@
       <c r="AC442" s="7"/>
       <c r="AD442" s="7"/>
     </row>
-    <row r="443" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" ht="12.75">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -15043,7 +15043,7 @@
       <c r="AC443" s="7"/>
       <c r="AD443" s="7"/>
     </row>
-    <row r="444" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" ht="12.75">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -15075,7 +15075,7 @@
       <c r="AC444" s="7"/>
       <c r="AD444" s="7"/>
     </row>
-    <row r="445" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" ht="12.75">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -15107,7 +15107,7 @@
       <c r="AC445" s="7"/>
       <c r="AD445" s="7"/>
     </row>
-    <row r="446" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" ht="12.75">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -15139,7 +15139,7 @@
       <c r="AC446" s="7"/>
       <c r="AD446" s="7"/>
     </row>
-    <row r="447" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" ht="12.75">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -15171,7 +15171,7 @@
       <c r="AC447" s="7"/>
       <c r="AD447" s="7"/>
     </row>
-    <row r="448" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" ht="12.75">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -15203,7 +15203,7 @@
       <c r="AC448" s="7"/>
       <c r="AD448" s="7"/>
     </row>
-    <row r="449" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" ht="12.75">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -15235,7 +15235,7 @@
       <c r="AC449" s="7"/>
       <c r="AD449" s="7"/>
     </row>
-    <row r="450" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" ht="12.75">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -15267,7 +15267,7 @@
       <c r="AC450" s="7"/>
       <c r="AD450" s="7"/>
     </row>
-    <row r="451" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" ht="12.75">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -15299,7 +15299,7 @@
       <c r="AC451" s="7"/>
       <c r="AD451" s="7"/>
     </row>
-    <row r="452" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" ht="12.75">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -15331,7 +15331,7 @@
       <c r="AC452" s="7"/>
       <c r="AD452" s="7"/>
     </row>
-    <row r="453" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" ht="12.75">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -15363,7 +15363,7 @@
       <c r="AC453" s="7"/>
       <c r="AD453" s="7"/>
     </row>
-    <row r="454" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" ht="12.75">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -15395,7 +15395,7 @@
       <c r="AC454" s="7"/>
       <c r="AD454" s="7"/>
     </row>
-    <row r="455" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" ht="12.75">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -15427,7 +15427,7 @@
       <c r="AC455" s="7"/>
       <c r="AD455" s="7"/>
     </row>
-    <row r="456" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" ht="12.75">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -15459,7 +15459,7 @@
       <c r="AC456" s="7"/>
       <c r="AD456" s="7"/>
     </row>
-    <row r="457" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" ht="12.75">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -15491,7 +15491,7 @@
       <c r="AC457" s="7"/>
       <c r="AD457" s="7"/>
     </row>
-    <row r="458" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" ht="12.75">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -15523,7 +15523,7 @@
       <c r="AC458" s="7"/>
       <c r="AD458" s="7"/>
     </row>
-    <row r="459" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" ht="12.75">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -15555,7 +15555,7 @@
       <c r="AC459" s="7"/>
       <c r="AD459" s="7"/>
     </row>
-    <row r="460" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" ht="12.75">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -15587,7 +15587,7 @@
       <c r="AC460" s="7"/>
       <c r="AD460" s="7"/>
     </row>
-    <row r="461" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" ht="12.75">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -15619,7 +15619,7 @@
       <c r="AC461" s="7"/>
       <c r="AD461" s="7"/>
     </row>
-    <row r="462" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" ht="12.75">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -15651,7 +15651,7 @@
       <c r="AC462" s="7"/>
       <c r="AD462" s="7"/>
     </row>
-    <row r="463" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" ht="12.75">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -15683,7 +15683,7 @@
       <c r="AC463" s="7"/>
       <c r="AD463" s="7"/>
     </row>
-    <row r="464" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" ht="12.75">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -15715,7 +15715,7 @@
       <c r="AC464" s="7"/>
       <c r="AD464" s="7"/>
     </row>
-    <row r="465" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" ht="12.75">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -15747,7 +15747,7 @@
       <c r="AC465" s="7"/>
       <c r="AD465" s="7"/>
     </row>
-    <row r="466" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" ht="12.75">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -15779,7 +15779,7 @@
       <c r="AC466" s="7"/>
       <c r="AD466" s="7"/>
     </row>
-    <row r="467" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" ht="12.75">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -15811,7 +15811,7 @@
       <c r="AC467" s="7"/>
       <c r="AD467" s="7"/>
     </row>
-    <row r="468" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" ht="12.75">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -15843,7 +15843,7 @@
       <c r="AC468" s="7"/>
       <c r="AD468" s="7"/>
     </row>
-    <row r="469" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" ht="12.75">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -15875,7 +15875,7 @@
       <c r="AC469" s="7"/>
       <c r="AD469" s="7"/>
     </row>
-    <row r="470" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" ht="12.75">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -15907,7 +15907,7 @@
       <c r="AC470" s="7"/>
       <c r="AD470" s="7"/>
     </row>
-    <row r="471" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" ht="12.75">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -15939,7 +15939,7 @@
       <c r="AC471" s="7"/>
       <c r="AD471" s="7"/>
     </row>
-    <row r="472" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" ht="12.75">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -15971,7 +15971,7 @@
       <c r="AC472" s="7"/>
       <c r="AD472" s="7"/>
     </row>
-    <row r="473" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" ht="12.75">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -16003,7 +16003,7 @@
       <c r="AC473" s="7"/>
       <c r="AD473" s="7"/>
     </row>
-    <row r="474" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" ht="12.75">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -16035,7 +16035,7 @@
       <c r="AC474" s="7"/>
       <c r="AD474" s="7"/>
     </row>
-    <row r="475" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" ht="12.75">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -16067,7 +16067,7 @@
       <c r="AC475" s="7"/>
       <c r="AD475" s="7"/>
     </row>
-    <row r="476" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" ht="12.75">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -16099,7 +16099,7 @@
       <c r="AC476" s="7"/>
       <c r="AD476" s="7"/>
     </row>
-    <row r="477" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" ht="12.75">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -16131,7 +16131,7 @@
       <c r="AC477" s="7"/>
       <c r="AD477" s="7"/>
     </row>
-    <row r="478" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" ht="12.75">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -16163,7 +16163,7 @@
       <c r="AC478" s="7"/>
       <c r="AD478" s="7"/>
     </row>
-    <row r="479" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" ht="12.75">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -16195,7 +16195,7 @@
       <c r="AC479" s="7"/>
       <c r="AD479" s="7"/>
     </row>
-    <row r="480" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" ht="12.75">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -16227,7 +16227,7 @@
       <c r="AC480" s="7"/>
       <c r="AD480" s="7"/>
     </row>
-    <row r="481" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" ht="12.75">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -16259,7 +16259,7 @@
       <c r="AC481" s="7"/>
       <c r="AD481" s="7"/>
     </row>
-    <row r="482" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" ht="12.75">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -16291,7 +16291,7 @@
       <c r="AC482" s="7"/>
       <c r="AD482" s="7"/>
     </row>
-    <row r="483" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" ht="12.75">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -16323,7 +16323,7 @@
       <c r="AC483" s="7"/>
       <c r="AD483" s="7"/>
     </row>
-    <row r="484" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" ht="12.75">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -16355,7 +16355,7 @@
       <c r="AC484" s="7"/>
       <c r="AD484" s="7"/>
     </row>
-    <row r="485" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" ht="12.75">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -16387,7 +16387,7 @@
       <c r="AC485" s="7"/>
       <c r="AD485" s="7"/>
     </row>
-    <row r="486" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" ht="12.75">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -16419,7 +16419,7 @@
       <c r="AC486" s="7"/>
       <c r="AD486" s="7"/>
     </row>
-    <row r="487" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" ht="12.75">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -16451,7 +16451,7 @@
       <c r="AC487" s="7"/>
       <c r="AD487" s="7"/>
     </row>
-    <row r="488" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:30" ht="12.75">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -16483,7 +16483,7 @@
       <c r="AC488" s="7"/>
       <c r="AD488" s="7"/>
     </row>
-    <row r="489" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" ht="12.75">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -16515,7 +16515,7 @@
       <c r="AC489" s="7"/>
       <c r="AD489" s="7"/>
     </row>
-    <row r="490" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" ht="12.75">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -16547,7 +16547,7 @@
       <c r="AC490" s="7"/>
       <c r="AD490" s="7"/>
     </row>
-    <row r="491" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:30" ht="12.75">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -16579,7 +16579,7 @@
       <c r="AC491" s="7"/>
       <c r="AD491" s="7"/>
     </row>
-    <row r="492" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" ht="12.75">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -16611,7 +16611,7 @@
       <c r="AC492" s="7"/>
       <c r="AD492" s="7"/>
     </row>
-    <row r="493" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" ht="12.75">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -16643,7 +16643,7 @@
       <c r="AC493" s="7"/>
       <c r="AD493" s="7"/>
     </row>
-    <row r="494" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:30" ht="12.75">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -16675,7 +16675,7 @@
       <c r="AC494" s="7"/>
       <c r="AD494" s="7"/>
     </row>
-    <row r="495" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" ht="12.75">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -16707,7 +16707,7 @@
       <c r="AC495" s="7"/>
       <c r="AD495" s="7"/>
     </row>
-    <row r="496" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" ht="12.75">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -16739,7 +16739,7 @@
       <c r="AC496" s="7"/>
       <c r="AD496" s="7"/>
     </row>
-    <row r="497" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:30" ht="12.75">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -16771,7 +16771,7 @@
       <c r="AC497" s="7"/>
       <c r="AD497" s="7"/>
     </row>
-    <row r="498" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" ht="12.75">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -16803,7 +16803,7 @@
       <c r="AC498" s="7"/>
       <c r="AD498" s="7"/>
     </row>
-    <row r="499" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" ht="12.75">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -16835,7 +16835,7 @@
       <c r="AC499" s="7"/>
       <c r="AD499" s="7"/>
     </row>
-    <row r="500" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:30" ht="12.75">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -16867,7 +16867,7 @@
       <c r="AC500" s="7"/>
       <c r="AD500" s="7"/>
     </row>
-    <row r="501" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:30" ht="12.75">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -16899,7 +16899,7 @@
       <c r="AC501" s="7"/>
       <c r="AD501" s="7"/>
     </row>
-    <row r="502" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:30" ht="12.75">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -16931,7 +16931,7 @@
       <c r="AC502" s="7"/>
       <c r="AD502" s="7"/>
     </row>
-    <row r="503" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:30" ht="12.75">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -16963,7 +16963,7 @@
       <c r="AC503" s="7"/>
       <c r="AD503" s="7"/>
     </row>
-    <row r="504" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:30" ht="12.75">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -16995,7 +16995,7 @@
       <c r="AC504" s="7"/>
       <c r="AD504" s="7"/>
     </row>
-    <row r="505" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:30" ht="12.75">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -17027,7 +17027,7 @@
       <c r="AC505" s="7"/>
       <c r="AD505" s="7"/>
     </row>
-    <row r="506" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:30" ht="12.75">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -17059,7 +17059,7 @@
       <c r="AC506" s="7"/>
       <c r="AD506" s="7"/>
     </row>
-    <row r="507" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:30" ht="12.75">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -17091,7 +17091,7 @@
       <c r="AC507" s="7"/>
       <c r="AD507" s="7"/>
     </row>
-    <row r="508" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:30" ht="12.75">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -17123,7 +17123,7 @@
       <c r="AC508" s="7"/>
       <c r="AD508" s="7"/>
     </row>
-    <row r="509" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:30" ht="12.75">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -17155,7 +17155,7 @@
       <c r="AC509" s="7"/>
       <c r="AD509" s="7"/>
     </row>
-    <row r="510" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:30" ht="12.75">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -17187,7 +17187,7 @@
       <c r="AC510" s="7"/>
       <c r="AD510" s="7"/>
     </row>
-    <row r="511" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:30" ht="12.75">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -17219,7 +17219,7 @@
       <c r="AC511" s="7"/>
       <c r="AD511" s="7"/>
     </row>
-    <row r="512" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:30" ht="12.75">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -17251,7 +17251,7 @@
       <c r="AC512" s="7"/>
       <c r="AD512" s="7"/>
     </row>
-    <row r="513" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:30" ht="12.75">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -17283,7 +17283,7 @@
       <c r="AC513" s="7"/>
       <c r="AD513" s="7"/>
     </row>
-    <row r="514" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:30" ht="12.75">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -17315,7 +17315,7 @@
       <c r="AC514" s="7"/>
       <c r="AD514" s="7"/>
     </row>
-    <row r="515" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:30" ht="12.75">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -17347,7 +17347,7 @@
       <c r="AC515" s="7"/>
       <c r="AD515" s="7"/>
     </row>
-    <row r="516" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:30" ht="12.75">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -17379,7 +17379,7 @@
       <c r="AC516" s="7"/>
       <c r="AD516" s="7"/>
     </row>
-    <row r="517" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:30" ht="12.75">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -17411,7 +17411,7 @@
       <c r="AC517" s="7"/>
       <c r="AD517" s="7"/>
     </row>
-    <row r="518" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:30" ht="12.75">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -17443,7 +17443,7 @@
       <c r="AC518" s="7"/>
       <c r="AD518" s="7"/>
     </row>
-    <row r="519" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:30" ht="12.75">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -17475,7 +17475,7 @@
       <c r="AC519" s="7"/>
       <c r="AD519" s="7"/>
     </row>
-    <row r="520" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:30" ht="12.75">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -17507,7 +17507,7 @@
       <c r="AC520" s="7"/>
       <c r="AD520" s="7"/>
     </row>
-    <row r="521" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:30" ht="12.75">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -17539,7 +17539,7 @@
       <c r="AC521" s="7"/>
       <c r="AD521" s="7"/>
     </row>
-    <row r="522" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:30" ht="12.75">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -17571,7 +17571,7 @@
       <c r="AC522" s="7"/>
       <c r="AD522" s="7"/>
     </row>
-    <row r="523" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:30" ht="12.75">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -17603,7 +17603,7 @@
       <c r="AC523" s="7"/>
       <c r="AD523" s="7"/>
     </row>
-    <row r="524" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:30" ht="12.75">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -17635,7 +17635,7 @@
       <c r="AC524" s="7"/>
       <c r="AD524" s="7"/>
     </row>
-    <row r="525" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:30" ht="12.75">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -17667,7 +17667,7 @@
       <c r="AC525" s="7"/>
       <c r="AD525" s="7"/>
     </row>
-    <row r="526" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:30" ht="12.75">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -17699,7 +17699,7 @@
       <c r="AC526" s="7"/>
       <c r="AD526" s="7"/>
     </row>
-    <row r="527" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:30" ht="12.75">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -17731,7 +17731,7 @@
       <c r="AC527" s="7"/>
       <c r="AD527" s="7"/>
     </row>
-    <row r="528" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:30" ht="12.75">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -17763,7 +17763,7 @@
       <c r="AC528" s="7"/>
       <c r="AD528" s="7"/>
     </row>
-    <row r="529" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:30" ht="12.75">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -17795,7 +17795,7 @@
       <c r="AC529" s="7"/>
       <c r="AD529" s="7"/>
     </row>
-    <row r="530" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:30" ht="12.75">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -17827,7 +17827,7 @@
       <c r="AC530" s="7"/>
       <c r="AD530" s="7"/>
     </row>
-    <row r="531" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:30" ht="12.75">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -17859,7 +17859,7 @@
       <c r="AC531" s="7"/>
       <c r="AD531" s="7"/>
     </row>
-    <row r="532" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:30" ht="12.75">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -17891,7 +17891,7 @@
       <c r="AC532" s="7"/>
       <c r="AD532" s="7"/>
     </row>
-    <row r="533" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:30" ht="12.75">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -17923,7 +17923,7 @@
       <c r="AC533" s="7"/>
       <c r="AD533" s="7"/>
     </row>
-    <row r="534" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:30" ht="12.75">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -17955,7 +17955,7 @@
       <c r="AC534" s="7"/>
       <c r="AD534" s="7"/>
     </row>
-    <row r="535" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:30" ht="12.75">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -17987,7 +17987,7 @@
       <c r="AC535" s="7"/>
       <c r="AD535" s="7"/>
     </row>
-    <row r="536" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:30" ht="12.75">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -18019,7 +18019,7 @@
       <c r="AC536" s="7"/>
       <c r="AD536" s="7"/>
     </row>
-    <row r="537" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:30" ht="12.75">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -18051,7 +18051,7 @@
       <c r="AC537" s="7"/>
       <c r="AD537" s="7"/>
     </row>
-    <row r="538" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:30" ht="12.75">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -18083,7 +18083,7 @@
       <c r="AC538" s="7"/>
       <c r="AD538" s="7"/>
     </row>
-    <row r="539" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:30" ht="12.75">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -18115,7 +18115,7 @@
       <c r="AC539" s="7"/>
       <c r="AD539" s="7"/>
     </row>
-    <row r="540" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:30" ht="12.75">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -18147,7 +18147,7 @@
       <c r="AC540" s="7"/>
       <c r="AD540" s="7"/>
     </row>
-    <row r="541" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:30" ht="12.75">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -18179,7 +18179,7 @@
       <c r="AC541" s="7"/>
       <c r="AD541" s="7"/>
     </row>
-    <row r="542" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:30" ht="12.75">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -18211,7 +18211,7 @@
       <c r="AC542" s="7"/>
       <c r="AD542" s="7"/>
     </row>
-    <row r="543" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:30" ht="12.75">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -18243,7 +18243,7 @@
       <c r="AC543" s="7"/>
       <c r="AD543" s="7"/>
     </row>
-    <row r="544" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:30" ht="12.75">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -18275,7 +18275,7 @@
       <c r="AC544" s="7"/>
       <c r="AD544" s="7"/>
     </row>
-    <row r="545" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:30" ht="12.75">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -18307,7 +18307,7 @@
       <c r="AC545" s="7"/>
       <c r="AD545" s="7"/>
     </row>
-    <row r="546" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:30" ht="12.75">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -18339,7 +18339,7 @@
       <c r="AC546" s="7"/>
       <c r="AD546" s="7"/>
     </row>
-    <row r="547" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:30" ht="12.75">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -18371,7 +18371,7 @@
       <c r="AC547" s="7"/>
       <c r="AD547" s="7"/>
     </row>
-    <row r="548" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:30" ht="12.75">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -18403,7 +18403,7 @@
       <c r="AC548" s="7"/>
       <c r="AD548" s="7"/>
     </row>
-    <row r="549" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:30" ht="12.75">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -18435,7 +18435,7 @@
       <c r="AC549" s="7"/>
       <c r="AD549" s="7"/>
     </row>
-    <row r="550" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:30" ht="12.75">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -18467,7 +18467,7 @@
       <c r="AC550" s="7"/>
       <c r="AD550" s="7"/>
     </row>
-    <row r="551" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:30" ht="12.75">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -18499,7 +18499,7 @@
       <c r="AC551" s="7"/>
       <c r="AD551" s="7"/>
     </row>
-    <row r="552" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:30" ht="12.75">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -18531,7 +18531,7 @@
       <c r="AC552" s="7"/>
       <c r="AD552" s="7"/>
     </row>
-    <row r="553" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:30" ht="12.75">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -18563,7 +18563,7 @@
       <c r="AC553" s="7"/>
       <c r="AD553" s="7"/>
     </row>
-    <row r="554" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:30" ht="12.75">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -18595,7 +18595,7 @@
       <c r="AC554" s="7"/>
       <c r="AD554" s="7"/>
     </row>
-    <row r="555" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:30" ht="12.75">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -18627,7 +18627,7 @@
       <c r="AC555" s="7"/>
       <c r="AD555" s="7"/>
     </row>
-    <row r="556" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:30" ht="12.75">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -18659,7 +18659,7 @@
       <c r="AC556" s="7"/>
       <c r="AD556" s="7"/>
     </row>
-    <row r="557" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:30" ht="12.75">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -18691,7 +18691,7 @@
       <c r="AC557" s="7"/>
       <c r="AD557" s="7"/>
     </row>
-    <row r="558" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:30" ht="12.75">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -18723,7 +18723,7 @@
       <c r="AC558" s="7"/>
       <c r="AD558" s="7"/>
     </row>
-    <row r="559" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:30" ht="12.75">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -18755,7 +18755,7 @@
       <c r="AC559" s="7"/>
       <c r="AD559" s="7"/>
     </row>
-    <row r="560" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:30" ht="12.75">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -18787,7 +18787,7 @@
       <c r="AC560" s="7"/>
       <c r="AD560" s="7"/>
     </row>
-    <row r="561" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:30" ht="12.75">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -18819,7 +18819,7 @@
       <c r="AC561" s="7"/>
       <c r="AD561" s="7"/>
     </row>
-    <row r="562" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:30" ht="12.75">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -18851,7 +18851,7 @@
       <c r="AC562" s="7"/>
       <c r="AD562" s="7"/>
     </row>
-    <row r="563" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:30" ht="12.75">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -18883,7 +18883,7 @@
       <c r="AC563" s="7"/>
       <c r="AD563" s="7"/>
     </row>
-    <row r="564" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:30" ht="12.75">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -18915,7 +18915,7 @@
       <c r="AC564" s="7"/>
       <c r="AD564" s="7"/>
     </row>
-    <row r="565" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:30" ht="12.75">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -18947,7 +18947,7 @@
       <c r="AC565" s="7"/>
       <c r="AD565" s="7"/>
     </row>
-    <row r="566" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:30" ht="12.75">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -18979,7 +18979,7 @@
       <c r="AC566" s="7"/>
       <c r="AD566" s="7"/>
     </row>
-    <row r="567" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:30" ht="12.75">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -19011,7 +19011,7 @@
       <c r="AC567" s="7"/>
       <c r="AD567" s="7"/>
     </row>
-    <row r="568" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:30" ht="12.75">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -19043,7 +19043,7 @@
       <c r="AC568" s="7"/>
       <c r="AD568" s="7"/>
     </row>
-    <row r="569" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:30" ht="12.75">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -19075,7 +19075,7 @@
       <c r="AC569" s="7"/>
       <c r="AD569" s="7"/>
     </row>
-    <row r="570" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:30" ht="12.75">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -19107,7 +19107,7 @@
       <c r="AC570" s="7"/>
       <c r="AD570" s="7"/>
     </row>
-    <row r="571" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:30" ht="12.75">
       <c r="A571" s="7"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -19139,7 +19139,7 @@
       <c r="AC571" s="7"/>
       <c r="AD571" s="7"/>
     </row>
-    <row r="572" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:30" ht="12.75">
       <c r="A572" s="7"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -19171,7 +19171,7 @@
       <c r="AC572" s="7"/>
       <c r="AD572" s="7"/>
     </row>
-    <row r="573" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:30" ht="12.75">
       <c r="A573" s="7"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -19203,7 +19203,7 @@
       <c r="AC573" s="7"/>
       <c r="AD573" s="7"/>
     </row>
-    <row r="574" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:30" ht="12.75">
       <c r="A574" s="7"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -19235,7 +19235,7 @@
       <c r="AC574" s="7"/>
       <c r="AD574" s="7"/>
     </row>
-    <row r="575" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:30" ht="12.75">
       <c r="A575" s="7"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -19267,7 +19267,7 @@
       <c r="AC575" s="7"/>
       <c r="AD575" s="7"/>
     </row>
-    <row r="576" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:30" ht="12.75">
       <c r="A576" s="7"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -19299,7 +19299,7 @@
       <c r="AC576" s="7"/>
       <c r="AD576" s="7"/>
     </row>
-    <row r="577" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:30" ht="12.75">
       <c r="A577" s="7"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -19331,7 +19331,7 @@
       <c r="AC577" s="7"/>
       <c r="AD577" s="7"/>
     </row>
-    <row r="578" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:30" ht="12.75">
       <c r="A578" s="7"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -19363,7 +19363,7 @@
       <c r="AC578" s="7"/>
       <c r="AD578" s="7"/>
     </row>
-    <row r="579" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:30" ht="12.75">
       <c r="A579" s="7"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -19395,7 +19395,7 @@
       <c r="AC579" s="7"/>
       <c r="AD579" s="7"/>
     </row>
-    <row r="580" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:30" ht="12.75">
       <c r="A580" s="7"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -19427,7 +19427,7 @@
       <c r="AC580" s="7"/>
       <c r="AD580" s="7"/>
     </row>
-    <row r="581" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:30" ht="12.75">
       <c r="A581" s="7"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -19459,7 +19459,7 @@
       <c r="AC581" s="7"/>
       <c r="AD581" s="7"/>
     </row>
-    <row r="582" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:30" ht="12.75">
       <c r="A582" s="7"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -19491,7 +19491,7 @@
       <c r="AC582" s="7"/>
       <c r="AD582" s="7"/>
     </row>
-    <row r="583" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:30" ht="12.75">
       <c r="A583" s="7"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -19523,7 +19523,7 @@
       <c r="AC583" s="7"/>
       <c r="AD583" s="7"/>
     </row>
-    <row r="584" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:30" ht="12.75">
       <c r="A584" s="7"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -19555,7 +19555,7 @@
       <c r="AC584" s="7"/>
       <c r="AD584" s="7"/>
     </row>
-    <row r="585" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:30" ht="12.75">
       <c r="A585" s="7"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -19587,7 +19587,7 @@
       <c r="AC585" s="7"/>
       <c r="AD585" s="7"/>
     </row>
-    <row r="586" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:30" ht="12.75">
       <c r="A586" s="7"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -19619,7 +19619,7 @@
       <c r="AC586" s="7"/>
       <c r="AD586" s="7"/>
     </row>
-    <row r="587" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:30" ht="12.75">
       <c r="A587" s="7"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -19651,7 +19651,7 @@
       <c r="AC587" s="7"/>
       <c r="AD587" s="7"/>
     </row>
-    <row r="588" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:30" ht="12.75">
       <c r="A588" s="7"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -19683,7 +19683,7 @@
       <c r="AC588" s="7"/>
       <c r="AD588" s="7"/>
     </row>
-    <row r="589" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:30" ht="12.75">
       <c r="A589" s="7"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -19715,7 +19715,7 @@
       <c r="AC589" s="7"/>
       <c r="AD589" s="7"/>
     </row>
-    <row r="590" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:30" ht="12.75">
       <c r="A590" s="7"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -19747,7 +19747,7 @@
       <c r="AC590" s="7"/>
       <c r="AD590" s="7"/>
     </row>
-    <row r="591" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:30" ht="12.75">
       <c r="A591" s="7"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -19779,7 +19779,7 @@
       <c r="AC591" s="7"/>
       <c r="AD591" s="7"/>
     </row>
-    <row r="592" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:30" ht="12.75">
       <c r="A592" s="7"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -19811,7 +19811,7 @@
       <c r="AC592" s="7"/>
       <c r="AD592" s="7"/>
     </row>
-    <row r="593" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:30" ht="12.75">
       <c r="A593" s="7"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -19843,7 +19843,7 @@
       <c r="AC593" s="7"/>
       <c r="AD593" s="7"/>
     </row>
-    <row r="594" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:30" ht="12.75">
       <c r="A594" s="7"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -19875,7 +19875,7 @@
       <c r="AC594" s="7"/>
       <c r="AD594" s="7"/>
     </row>
-    <row r="595" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:30" ht="12.75">
       <c r="A595" s="7"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -19907,7 +19907,7 @@
       <c r="AC595" s="7"/>
       <c r="AD595" s="7"/>
     </row>
-    <row r="596" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:30" ht="12.75">
       <c r="A596" s="7"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -19939,7 +19939,7 @@
       <c r="AC596" s="7"/>
       <c r="AD596" s="7"/>
     </row>
-    <row r="597" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:30" ht="12.75">
       <c r="A597" s="7"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -19971,7 +19971,7 @@
       <c r="AC597" s="7"/>
       <c r="AD597" s="7"/>
     </row>
-    <row r="598" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:30" ht="12.75">
       <c r="A598" s="7"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -20003,7 +20003,7 @@
       <c r="AC598" s="7"/>
       <c r="AD598" s="7"/>
     </row>
-    <row r="599" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:30" ht="12.75">
       <c r="A599" s="7"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -20035,7 +20035,7 @@
       <c r="AC599" s="7"/>
       <c r="AD599" s="7"/>
     </row>
-    <row r="600" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:30" ht="12.75">
       <c r="A600" s="7"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -20067,7 +20067,7 @@
       <c r="AC600" s="7"/>
       <c r="AD600" s="7"/>
     </row>
-    <row r="601" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:30" ht="12.75">
       <c r="A601" s="7"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -20099,7 +20099,7 @@
       <c r="AC601" s="7"/>
       <c r="AD601" s="7"/>
     </row>
-    <row r="602" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:30" ht="12.75">
       <c r="A602" s="7"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -20131,7 +20131,7 @@
       <c r="AC602" s="7"/>
       <c r="AD602" s="7"/>
     </row>
-    <row r="603" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:30" ht="12.75">
       <c r="A603" s="7"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -20163,7 +20163,7 @@
       <c r="AC603" s="7"/>
       <c r="AD603" s="7"/>
     </row>
-    <row r="604" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:30" ht="12.75">
       <c r="A604" s="7"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -20195,7 +20195,7 @@
       <c r="AC604" s="7"/>
       <c r="AD604" s="7"/>
     </row>
-    <row r="605" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:30" ht="12.75">
       <c r="A605" s="7"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -20227,7 +20227,7 @@
       <c r="AC605" s="7"/>
       <c r="AD605" s="7"/>
     </row>
-    <row r="606" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:30" ht="12.75">
       <c r="A606" s="7"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -20259,7 +20259,7 @@
       <c r="AC606" s="7"/>
       <c r="AD606" s="7"/>
     </row>
-    <row r="607" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:30" ht="12.75">
       <c r="A607" s="7"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -20291,7 +20291,7 @@
       <c r="AC607" s="7"/>
       <c r="AD607" s="7"/>
     </row>
-    <row r="608" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:30" ht="12.75">
       <c r="A608" s="7"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -20323,7 +20323,7 @@
       <c r="AC608" s="7"/>
       <c r="AD608" s="7"/>
     </row>
-    <row r="609" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:30" ht="12.75">
       <c r="A609" s="7"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -20355,7 +20355,7 @@
       <c r="AC609" s="7"/>
       <c r="AD609" s="7"/>
     </row>
-    <row r="610" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:30" ht="12.75">
       <c r="A610" s="7"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -20387,7 +20387,7 @@
       <c r="AC610" s="7"/>
       <c r="AD610" s="7"/>
     </row>
-    <row r="611" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:30" ht="12.75">
       <c r="A611" s="7"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -20419,7 +20419,7 @@
       <c r="AC611" s="7"/>
       <c r="AD611" s="7"/>
     </row>
-    <row r="612" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:30" ht="12.75">
       <c r="A612" s="7"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -20451,7 +20451,7 @@
       <c r="AC612" s="7"/>
       <c r="AD612" s="7"/>
     </row>
-    <row r="613" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:30" ht="12.75">
       <c r="A613" s="7"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -20483,7 +20483,7 @@
       <c r="AC613" s="7"/>
       <c r="AD613" s="7"/>
     </row>
-    <row r="614" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:30" ht="12.75">
       <c r="A614" s="7"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -20515,7 +20515,7 @@
       <c r="AC614" s="7"/>
       <c r="AD614" s="7"/>
     </row>
-    <row r="615" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:30" ht="12.75">
       <c r="A615" s="7"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -20547,7 +20547,7 @@
       <c r="AC615" s="7"/>
       <c r="AD615" s="7"/>
     </row>
-    <row r="616" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:30" ht="12.75">
       <c r="A616" s="7"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -20579,7 +20579,7 @@
       <c r="AC616" s="7"/>
       <c r="AD616" s="7"/>
     </row>
-    <row r="617" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:30" ht="12.75">
       <c r="A617" s="7"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -20611,7 +20611,7 @@
       <c r="AC617" s="7"/>
       <c r="AD617" s="7"/>
     </row>
-    <row r="618" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:30" ht="12.75">
       <c r="A618" s="7"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -20643,7 +20643,7 @@
       <c r="AC618" s="7"/>
       <c r="AD618" s="7"/>
     </row>
-    <row r="619" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:30" ht="12.75">
       <c r="A619" s="7"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -20675,7 +20675,7 @@
       <c r="AC619" s="7"/>
       <c r="AD619" s="7"/>
     </row>
-    <row r="620" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:30" ht="12.75">
       <c r="A620" s="7"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -20707,7 +20707,7 @@
       <c r="AC620" s="7"/>
       <c r="AD620" s="7"/>
     </row>
-    <row r="621" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:30" ht="12.75">
       <c r="A621" s="7"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -20739,7 +20739,7 @@
       <c r="AC621" s="7"/>
       <c r="AD621" s="7"/>
     </row>
-    <row r="622" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:30" ht="12.75">
       <c r="A622" s="7"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -20771,7 +20771,7 @@
       <c r="AC622" s="7"/>
       <c r="AD622" s="7"/>
     </row>
-    <row r="623" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:30" ht="12.75">
       <c r="A623" s="7"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -20803,7 +20803,7 @@
       <c r="AC623" s="7"/>
       <c r="AD623" s="7"/>
     </row>
-    <row r="624" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:30" ht="12.75">
       <c r="A624" s="7"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -20835,7 +20835,7 @@
       <c r="AC624" s="7"/>
       <c r="AD624" s="7"/>
     </row>
-    <row r="625" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:30" ht="12.75">
       <c r="A625" s="7"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -20867,7 +20867,7 @@
       <c r="AC625" s="7"/>
       <c r="AD625" s="7"/>
     </row>
-    <row r="626" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:30" ht="12.75">
       <c r="A626" s="7"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -20899,7 +20899,7 @@
       <c r="AC626" s="7"/>
       <c r="AD626" s="7"/>
     </row>
-    <row r="627" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:30" ht="12.75">
       <c r="A627" s="7"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -20931,7 +20931,7 @@
       <c r="AC627" s="7"/>
       <c r="AD627" s="7"/>
     </row>
-    <row r="628" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:30" ht="12.75">
       <c r="A628" s="7"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -20963,7 +20963,7 @@
       <c r="AC628" s="7"/>
       <c r="AD628" s="7"/>
     </row>
-    <row r="629" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:30" ht="12.75">
       <c r="A629" s="7"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -20995,7 +20995,7 @@
       <c r="AC629" s="7"/>
       <c r="AD629" s="7"/>
     </row>
-    <row r="630" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:30" ht="12.75">
       <c r="A630" s="7"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -21027,7 +21027,7 @@
       <c r="AC630" s="7"/>
       <c r="AD630" s="7"/>
     </row>
-    <row r="631" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:30" ht="12.75">
       <c r="A631" s="7"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -21059,7 +21059,7 @@
       <c r="AC631" s="7"/>
       <c r="AD631" s="7"/>
     </row>
-    <row r="632" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:30" ht="12.75">
       <c r="A632" s="7"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -21091,7 +21091,7 @@
       <c r="AC632" s="7"/>
       <c r="AD632" s="7"/>
     </row>
-    <row r="633" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:30" ht="12.75">
       <c r="A633" s="7"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -21123,7 +21123,7 @@
       <c r="AC633" s="7"/>
       <c r="AD633" s="7"/>
     </row>
-    <row r="634" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:30" ht="12.75">
       <c r="A634" s="7"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -21155,7 +21155,7 @@
       <c r="AC634" s="7"/>
       <c r="AD634" s="7"/>
     </row>
-    <row r="635" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:30" ht="12.75">
       <c r="A635" s="7"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -21187,7 +21187,7 @@
       <c r="AC635" s="7"/>
       <c r="AD635" s="7"/>
     </row>
-    <row r="636" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:30" ht="12.75">
       <c r="A636" s="7"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -21219,7 +21219,7 @@
       <c r="AC636" s="7"/>
       <c r="AD636" s="7"/>
     </row>
-    <row r="637" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:30" ht="12.75">
       <c r="A637" s="7"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -21251,7 +21251,7 @@
       <c r="AC637" s="7"/>
       <c r="AD637" s="7"/>
     </row>
-    <row r="638" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:30" ht="12.75">
       <c r="A638" s="7"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -21283,7 +21283,7 @@
       <c r="AC638" s="7"/>
       <c r="AD638" s="7"/>
     </row>
-    <row r="639" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:30" ht="12.75">
       <c r="A639" s="7"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -21315,7 +21315,7 @@
       <c r="AC639" s="7"/>
       <c r="AD639" s="7"/>
     </row>
-    <row r="640" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:30" ht="12.75">
       <c r="A640" s="7"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -21347,7 +21347,7 @@
       <c r="AC640" s="7"/>
       <c r="AD640" s="7"/>
     </row>
-    <row r="641" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:30" ht="12.75">
       <c r="A641" s="7"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -21379,7 +21379,7 @@
       <c r="AC641" s="7"/>
       <c r="AD641" s="7"/>
     </row>
-    <row r="642" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:30" ht="12.75">
       <c r="A642" s="7"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -21411,7 +21411,7 @@
       <c r="AC642" s="7"/>
       <c r="AD642" s="7"/>
     </row>
-    <row r="643" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:30" ht="12.75">
       <c r="A643" s="7"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -21443,7 +21443,7 @@
       <c r="AC643" s="7"/>
       <c r="AD643" s="7"/>
     </row>
-    <row r="644" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:30" ht="12.75">
       <c r="A644" s="7"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -21475,7 +21475,7 @@
       <c r="AC644" s="7"/>
       <c r="AD644" s="7"/>
     </row>
-    <row r="645" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:30" ht="12.75">
       <c r="A645" s="7"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -21507,7 +21507,7 @@
       <c r="AC645" s="7"/>
       <c r="AD645" s="7"/>
     </row>
-    <row r="646" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:30" ht="12.75">
       <c r="A646" s="7"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -21539,7 +21539,7 @@
       <c r="AC646" s="7"/>
       <c r="AD646" s="7"/>
     </row>
-    <row r="647" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:30" ht="12.75">
       <c r="A647" s="7"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -21571,7 +21571,7 @@
       <c r="AC647" s="7"/>
       <c r="AD647" s="7"/>
     </row>
-    <row r="648" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:30" ht="12.75">
       <c r="A648" s="7"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -21603,7 +21603,7 @@
       <c r="AC648" s="7"/>
       <c r="AD648" s="7"/>
     </row>
-    <row r="649" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:30" ht="12.75">
       <c r="A649" s="7"/>
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
@@ -21635,7 +21635,7 @@
       <c r="AC649" s="7"/>
       <c r="AD649" s="7"/>
     </row>
-    <row r="650" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:30" ht="12.75">
       <c r="A650" s="7"/>
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
@@ -21667,7 +21667,7 @@
       <c r="AC650" s="7"/>
       <c r="AD650" s="7"/>
     </row>
-    <row r="651" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:30" ht="12.75">
       <c r="A651" s="7"/>
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
@@ -21699,7 +21699,7 @@
       <c r="AC651" s="7"/>
       <c r="AD651" s="7"/>
     </row>
-    <row r="652" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:30" ht="12.75">
       <c r="A652" s="7"/>
       <c r="B652" s="7"/>
       <c r="C652" s="7"/>
@@ -21731,7 +21731,7 @@
       <c r="AC652" s="7"/>
       <c r="AD652" s="7"/>
     </row>
-    <row r="653" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:30" ht="12.75">
       <c r="A653" s="7"/>
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
@@ -21763,7 +21763,7 @@
       <c r="AC653" s="7"/>
       <c r="AD653" s="7"/>
     </row>
-    <row r="654" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:30" ht="12.75">
       <c r="A654" s="7"/>
       <c r="B654" s="7"/>
       <c r="C654" s="7"/>
@@ -21795,7 +21795,7 @@
       <c r="AC654" s="7"/>
       <c r="AD654" s="7"/>
     </row>
-    <row r="655" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:30" ht="12.75">
       <c r="A655" s="7"/>
       <c r="B655" s="7"/>
       <c r="C655" s="7"/>
@@ -21827,7 +21827,7 @@
       <c r="AC655" s="7"/>
       <c r="AD655" s="7"/>
     </row>
-    <row r="656" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:30" ht="12.75">
       <c r="A656" s="7"/>
       <c r="B656" s="7"/>
       <c r="C656" s="7"/>
@@ -21859,7 +21859,7 @@
       <c r="AC656" s="7"/>
       <c r="AD656" s="7"/>
     </row>
-    <row r="657" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:30" ht="12.75">
       <c r="A657" s="7"/>
       <c r="B657" s="7"/>
       <c r="C657" s="7"/>
@@ -21891,7 +21891,7 @@
       <c r="AC657" s="7"/>
       <c r="AD657" s="7"/>
     </row>
-    <row r="658" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:30" ht="12.75">
       <c r="A658" s="7"/>
       <c r="B658" s="7"/>
       <c r="C658" s="7"/>
@@ -21923,7 +21923,7 @@
       <c r="AC658" s="7"/>
       <c r="AD658" s="7"/>
     </row>
-    <row r="659" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:30" ht="12.75">
       <c r="A659" s="7"/>
       <c r="B659" s="7"/>
       <c r="C659" s="7"/>
@@ -21955,7 +21955,7 @@
       <c r="AC659" s="7"/>
       <c r="AD659" s="7"/>
     </row>
-    <row r="660" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:30" ht="12.75">
       <c r="A660" s="7"/>
       <c r="B660" s="7"/>
       <c r="C660" s="7"/>
@@ -21987,7 +21987,7 @@
       <c r="AC660" s="7"/>
       <c r="AD660" s="7"/>
     </row>
-    <row r="661" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:30" ht="12.75">
       <c r="A661" s="7"/>
       <c r="B661" s="7"/>
       <c r="C661" s="7"/>
@@ -22019,7 +22019,7 @@
       <c r="AC661" s="7"/>
       <c r="AD661" s="7"/>
     </row>
-    <row r="662" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:30" ht="12.75">
       <c r="A662" s="7"/>
       <c r="B662" s="7"/>
       <c r="C662" s="7"/>
@@ -22051,7 +22051,7 @@
       <c r="AC662" s="7"/>
       <c r="AD662" s="7"/>
     </row>
-    <row r="663" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:30" ht="12.75">
       <c r="A663" s="7"/>
       <c r="B663" s="7"/>
       <c r="C663" s="7"/>
@@ -22083,7 +22083,7 @@
       <c r="AC663" s="7"/>
       <c r="AD663" s="7"/>
     </row>
-    <row r="664" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:30" ht="12.75">
       <c r="A664" s="7"/>
       <c r="B664" s="7"/>
       <c r="C664" s="7"/>
@@ -22115,7 +22115,7 @@
       <c r="AC664" s="7"/>
       <c r="AD664" s="7"/>
     </row>
-    <row r="665" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:30" ht="12.75">
       <c r="A665" s="7"/>
       <c r="B665" s="7"/>
       <c r="C665" s="7"/>
@@ -22147,7 +22147,7 @@
       <c r="AC665" s="7"/>
       <c r="AD665" s="7"/>
     </row>
-    <row r="666" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:30" ht="12.75">
       <c r="A666" s="7"/>
       <c r="B666" s="7"/>
       <c r="C666" s="7"/>
@@ -22179,7 +22179,7 @@
       <c r="AC666" s="7"/>
       <c r="AD666" s="7"/>
     </row>
-    <row r="667" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:30" ht="12.75">
       <c r="A667" s="7"/>
       <c r="B667" s="7"/>
       <c r="C667" s="7"/>
@@ -22211,7 +22211,7 @@
       <c r="AC667" s="7"/>
       <c r="AD667" s="7"/>
     </row>
-    <row r="668" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:30" ht="12.75">
       <c r="A668" s="7"/>
       <c r="B668" s="7"/>
       <c r="C668" s="7"/>
@@ -22243,7 +22243,7 @@
       <c r="AC668" s="7"/>
       <c r="AD668" s="7"/>
     </row>
-    <row r="669" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:30" ht="12.75">
       <c r="A669" s="7"/>
       <c r="B669" s="7"/>
       <c r="C669" s="7"/>
@@ -22275,7 +22275,7 @@
       <c r="AC669" s="7"/>
       <c r="AD669" s="7"/>
     </row>
-    <row r="670" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:30" ht="12.75">
       <c r="A670" s="7"/>
       <c r="B670" s="7"/>
       <c r="C670" s="7"/>
@@ -22307,7 +22307,7 @@
       <c r="AC670" s="7"/>
       <c r="AD670" s="7"/>
     </row>
-    <row r="671" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:30" ht="12.75">
       <c r="A671" s="7"/>
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
@@ -22339,7 +22339,7 @@
       <c r="AC671" s="7"/>
       <c r="AD671" s="7"/>
     </row>
-    <row r="672" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:30" ht="12.75">
       <c r="A672" s="7"/>
       <c r="B672" s="7"/>
       <c r="C672" s="7"/>
@@ -22371,7 +22371,7 @@
       <c r="AC672" s="7"/>
       <c r="AD672" s="7"/>
     </row>
-    <row r="673" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:30" ht="12.75">
       <c r="A673" s="7"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
@@ -22403,7 +22403,7 @@
       <c r="AC673" s="7"/>
       <c r="AD673" s="7"/>
     </row>
-    <row r="674" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:30" ht="12.75">
       <c r="A674" s="7"/>
       <c r="B674" s="7"/>
       <c r="C674" s="7"/>
@@ -22435,7 +22435,7 @@
       <c r="AC674" s="7"/>
       <c r="AD674" s="7"/>
     </row>
-    <row r="675" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:30" ht="12.75">
       <c r="A675" s="7"/>
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
@@ -22467,7 +22467,7 @@
       <c r="AC675" s="7"/>
       <c r="AD675" s="7"/>
     </row>
-    <row r="676" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:30" ht="12.75">
       <c r="A676" s="7"/>
       <c r="B676" s="7"/>
       <c r="C676" s="7"/>
@@ -22499,7 +22499,7 @@
       <c r="AC676" s="7"/>
       <c r="AD676" s="7"/>
     </row>
-    <row r="677" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:30" ht="12.75">
       <c r="A677" s="7"/>
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
@@ -22531,7 +22531,7 @@
       <c r="AC677" s="7"/>
       <c r="AD677" s="7"/>
     </row>
-    <row r="678" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:30" ht="12.75">
       <c r="A678" s="7"/>
       <c r="B678" s="7"/>
       <c r="C678" s="7"/>
@@ -22563,7 +22563,7 @@
       <c r="AC678" s="7"/>
       <c r="AD678" s="7"/>
     </row>
-    <row r="679" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:30" ht="12.75">
       <c r="A679" s="7"/>
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
@@ -22595,7 +22595,7 @@
       <c r="AC679" s="7"/>
       <c r="AD679" s="7"/>
     </row>
-    <row r="680" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:30" ht="12.75">
       <c r="A680" s="7"/>
       <c r="B680" s="7"/>
       <c r="C680" s="7"/>
@@ -22627,7 +22627,7 @@
       <c r="AC680" s="7"/>
       <c r="AD680" s="7"/>
     </row>
-    <row r="681" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:30" ht="12.75">
       <c r="A681" s="7"/>
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
@@ -22659,7 +22659,7 @@
       <c r="AC681" s="7"/>
       <c r="AD681" s="7"/>
     </row>
-    <row r="682" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:30" ht="12.75">
       <c r="A682" s="7"/>
       <c r="B682" s="7"/>
       <c r="C682" s="7"/>
@@ -22691,7 +22691,7 @@
       <c r="AC682" s="7"/>
       <c r="AD682" s="7"/>
     </row>
-    <row r="683" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:30" ht="12.75">
       <c r="A683" s="7"/>
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
@@ -22723,7 +22723,7 @@
       <c r="AC683" s="7"/>
       <c r="AD683" s="7"/>
     </row>
-    <row r="684" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:30" ht="12.75">
       <c r="A684" s="7"/>
       <c r="B684" s="7"/>
       <c r="C684" s="7"/>
@@ -22755,7 +22755,7 @@
       <c r="AC684" s="7"/>
       <c r="AD684" s="7"/>
     </row>
-    <row r="685" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:30" ht="12.75">
       <c r="A685" s="7"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
@@ -22787,7 +22787,7 @@
       <c r="AC685" s="7"/>
       <c r="AD685" s="7"/>
     </row>
-    <row r="686" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:30" ht="12.75">
       <c r="A686" s="7"/>
       <c r="B686" s="7"/>
       <c r="C686" s="7"/>
@@ -22819,7 +22819,7 @@
       <c r="AC686" s="7"/>
       <c r="AD686" s="7"/>
     </row>
-    <row r="687" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:30" ht="12.75">
       <c r="A687" s="7"/>
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
@@ -22851,7 +22851,7 @@
       <c r="AC687" s="7"/>
       <c r="AD687" s="7"/>
     </row>
-    <row r="688" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:30" ht="12.75">
       <c r="A688" s="7"/>
       <c r="B688" s="7"/>
       <c r="C688" s="7"/>
@@ -22883,7 +22883,7 @@
       <c r="AC688" s="7"/>
       <c r="AD688" s="7"/>
     </row>
-    <row r="689" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:30" ht="12.75">
       <c r="A689" s="7"/>
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
@@ -22915,7 +22915,7 @@
       <c r="AC689" s="7"/>
       <c r="AD689" s="7"/>
     </row>
-    <row r="690" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:30" ht="12.75">
       <c r="A690" s="7"/>
       <c r="B690" s="7"/>
       <c r="C690" s="7"/>
@@ -22947,7 +22947,7 @@
       <c r="AC690" s="7"/>
       <c r="AD690" s="7"/>
     </row>
-    <row r="691" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:30" ht="12.75">
       <c r="A691" s="7"/>
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
@@ -22979,7 +22979,7 @@
       <c r="AC691" s="7"/>
       <c r="AD691" s="7"/>
     </row>
-    <row r="692" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:30" ht="12.75">
       <c r="A692" s="7"/>
       <c r="B692" s="7"/>
       <c r="C692" s="7"/>
@@ -23011,7 +23011,7 @@
       <c r="AC692" s="7"/>
       <c r="AD692" s="7"/>
     </row>
-    <row r="693" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:30" ht="12.75">
       <c r="A693" s="7"/>
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
@@ -23043,7 +23043,7 @@
       <c r="AC693" s="7"/>
       <c r="AD693" s="7"/>
     </row>
-    <row r="694" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:30" ht="12.75">
       <c r="A694" s="7"/>
       <c r="B694" s="7"/>
       <c r="C694" s="7"/>
@@ -23075,7 +23075,7 @@
       <c r="AC694" s="7"/>
       <c r="AD694" s="7"/>
     </row>
-    <row r="695" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:30" ht="12.75">
       <c r="A695" s="7"/>
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
@@ -23107,7 +23107,7 @@
       <c r="AC695" s="7"/>
       <c r="AD695" s="7"/>
     </row>
-    <row r="696" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:30" ht="12.75">
       <c r="A696" s="7"/>
       <c r="B696" s="7"/>
       <c r="C696" s="7"/>
@@ -23139,7 +23139,7 @@
       <c r="AC696" s="7"/>
       <c r="AD696" s="7"/>
     </row>
-    <row r="697" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:30" ht="12.75">
       <c r="A697" s="7"/>
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
@@ -23171,7 +23171,7 @@
       <c r="AC697" s="7"/>
       <c r="AD697" s="7"/>
     </row>
-    <row r="698" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:30" ht="12.75">
       <c r="A698" s="7"/>
       <c r="B698" s="7"/>
       <c r="C698" s="7"/>
@@ -23203,7 +23203,7 @@
       <c r="AC698" s="7"/>
       <c r="AD698" s="7"/>
     </row>
-    <row r="699" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:30" ht="12.75">
       <c r="A699" s="7"/>
       <c r="B699" s="7"/>
       <c r="C699" s="7"/>
@@ -23235,7 +23235,7 @@
       <c r="AC699" s="7"/>
       <c r="AD699" s="7"/>
     </row>
-    <row r="700" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:30" ht="12.75">
       <c r="A700" s="7"/>
       <c r="B700" s="7"/>
       <c r="C700" s="7"/>
@@ -23267,7 +23267,7 @@
       <c r="AC700" s="7"/>
       <c r="AD700" s="7"/>
     </row>
-    <row r="701" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:30" ht="12.75">
       <c r="A701" s="7"/>
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
@@ -23299,7 +23299,7 @@
       <c r="AC701" s="7"/>
       <c r="AD701" s="7"/>
     </row>
-    <row r="702" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:30" ht="12.75">
       <c r="A702" s="7"/>
       <c r="B702" s="7"/>
       <c r="C702" s="7"/>
@@ -23331,7 +23331,7 @@
       <c r="AC702" s="7"/>
       <c r="AD702" s="7"/>
     </row>
-    <row r="703" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:30" ht="12.75">
       <c r="A703" s="7"/>
       <c r="B703" s="7"/>
       <c r="C703" s="7"/>
@@ -23363,7 +23363,7 @@
       <c r="AC703" s="7"/>
       <c r="AD703" s="7"/>
     </row>
-    <row r="704" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:30" ht="12.75">
       <c r="A704" s="7"/>
       <c r="B704" s="7"/>
       <c r="C704" s="7"/>
@@ -23395,7 +23395,7 @@
       <c r="AC704" s="7"/>
       <c r="AD704" s="7"/>
     </row>
-    <row r="705" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:30" ht="12.75">
       <c r="A705" s="7"/>
       <c r="B705" s="7"/>
       <c r="C705" s="7"/>
@@ -23427,7 +23427,7 @@
       <c r="AC705" s="7"/>
       <c r="AD705" s="7"/>
     </row>
-    <row r="706" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:30" ht="12.75">
       <c r="A706" s="7"/>
       <c r="B706" s="7"/>
       <c r="C706" s="7"/>
@@ -23459,7 +23459,7 @@
       <c r="AC706" s="7"/>
       <c r="AD706" s="7"/>
     </row>
-    <row r="707" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:30" ht="12.75">
       <c r="A707" s="7"/>
       <c r="B707" s="7"/>
       <c r="C707" s="7"/>
@@ -23491,7 +23491,7 @@
       <c r="AC707" s="7"/>
       <c r="AD707" s="7"/>
     </row>
-    <row r="708" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:30" ht="12.75">
       <c r="A708" s="7"/>
       <c r="B708" s="7"/>
       <c r="C708" s="7"/>
@@ -23523,7 +23523,7 @@
       <c r="AC708" s="7"/>
       <c r="AD708" s="7"/>
     </row>
-    <row r="709" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:30" ht="12.75">
       <c r="A709" s="7"/>
       <c r="B709" s="7"/>
       <c r="C709" s="7"/>
@@ -23555,7 +23555,7 @@
       <c r="AC709" s="7"/>
       <c r="AD709" s="7"/>
     </row>
-    <row r="710" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:30" ht="12.75">
       <c r="A710" s="7"/>
       <c r="B710" s="7"/>
       <c r="C710" s="7"/>
@@ -23587,7 +23587,7 @@
       <c r="AC710" s="7"/>
       <c r="AD710" s="7"/>
     </row>
-    <row r="711" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:30" ht="12.75">
       <c r="A711" s="7"/>
       <c r="B711" s="7"/>
       <c r="C711" s="7"/>
@@ -23619,7 +23619,7 @@
       <c r="AC711" s="7"/>
       <c r="AD711" s="7"/>
     </row>
-    <row r="712" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:30" ht="12.75">
       <c r="A712" s="7"/>
       <c r="B712" s="7"/>
       <c r="C712" s="7"/>
@@ -23651,7 +23651,7 @@
       <c r="AC712" s="7"/>
       <c r="AD712" s="7"/>
     </row>
-    <row r="713" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:30" ht="12.75">
       <c r="A713" s="7"/>
       <c r="B713" s="7"/>
       <c r="C713" s="7"/>
@@ -23683,7 +23683,7 @@
       <c r="AC713" s="7"/>
       <c r="AD713" s="7"/>
     </row>
-    <row r="714" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:30" ht="12.75">
       <c r="A714" s="7"/>
       <c r="B714" s="7"/>
       <c r="C714" s="7"/>
@@ -23715,7 +23715,7 @@
       <c r="AC714" s="7"/>
       <c r="AD714" s="7"/>
     </row>
-    <row r="715" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:30" ht="12.75">
       <c r="A715" s="7"/>
       <c r="B715" s="7"/>
       <c r="C715" s="7"/>
@@ -23747,7 +23747,7 @@
       <c r="AC715" s="7"/>
       <c r="AD715" s="7"/>
     </row>
-    <row r="716" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:30" ht="12.75">
       <c r="A716" s="7"/>
       <c r="B716" s="7"/>
       <c r="C716" s="7"/>
@@ -23779,7 +23779,7 @@
       <c r="AC716" s="7"/>
       <c r="AD716" s="7"/>
     </row>
-    <row r="717" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:30" ht="12.75">
       <c r="A717" s="7"/>
       <c r="B717" s="7"/>
       <c r="C717" s="7"/>
@@ -23811,7 +23811,7 @@
       <c r="AC717" s="7"/>
       <c r="AD717" s="7"/>
     </row>
-    <row r="718" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:30" ht="12.75">
       <c r="A718" s="7"/>
       <c r="B718" s="7"/>
       <c r="C718" s="7"/>
@@ -23843,7 +23843,7 @@
       <c r="AC718" s="7"/>
       <c r="AD718" s="7"/>
     </row>
-    <row r="719" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:30" ht="12.75">
       <c r="A719" s="7"/>
       <c r="B719" s="7"/>
       <c r="C719" s="7"/>
@@ -23875,7 +23875,7 @@
       <c r="AC719" s="7"/>
       <c r="AD719" s="7"/>
     </row>
-    <row r="720" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:30" ht="12.75">
       <c r="A720" s="7"/>
       <c r="B720" s="7"/>
       <c r="C720" s="7"/>
@@ -23907,7 +23907,7 @@
       <c r="AC720" s="7"/>
       <c r="AD720" s="7"/>
     </row>
-    <row r="721" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:30" ht="12.75">
       <c r="A721" s="7"/>
       <c r="B721" s="7"/>
       <c r="C721" s="7"/>
@@ -23939,7 +23939,7 @@
       <c r="AC721" s="7"/>
       <c r="AD721" s="7"/>
     </row>
-    <row r="722" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:30" ht="12.75">
       <c r="A722" s="7"/>
       <c r="B722" s="7"/>
       <c r="C722" s="7"/>
@@ -23971,7 +23971,7 @@
       <c r="AC722" s="7"/>
       <c r="AD722" s="7"/>
     </row>
-    <row r="723" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:30" ht="12.75">
       <c r="A723" s="7"/>
       <c r="B723" s="7"/>
       <c r="C723" s="7"/>
@@ -24003,7 +24003,7 @@
       <c r="AC723" s="7"/>
       <c r="AD723" s="7"/>
     </row>
-    <row r="724" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:30" ht="12.75">
       <c r="A724" s="7"/>
       <c r="B724" s="7"/>
       <c r="C724" s="7"/>
@@ -24035,7 +24035,7 @@
       <c r="AC724" s="7"/>
       <c r="AD724" s="7"/>
     </row>
-    <row r="725" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:30" ht="12.75">
       <c r="A725" s="7"/>
       <c r="B725" s="7"/>
       <c r="C725" s="7"/>
@@ -24067,7 +24067,7 @@
       <c r="AC725" s="7"/>
       <c r="AD725" s="7"/>
     </row>
-    <row r="726" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:30" ht="12.75">
       <c r="A726" s="7"/>
       <c r="B726" s="7"/>
       <c r="C726" s="7"/>
@@ -24099,7 +24099,7 @@
       <c r="AC726" s="7"/>
       <c r="AD726" s="7"/>
     </row>
-    <row r="727" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:30" ht="12.75">
       <c r="A727" s="7"/>
       <c r="B727" s="7"/>
       <c r="C727" s="7"/>
@@ -24131,7 +24131,7 @@
       <c r="AC727" s="7"/>
       <c r="AD727" s="7"/>
     </row>
-    <row r="728" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:30" ht="12.75">
       <c r="A728" s="7"/>
       <c r="B728" s="7"/>
       <c r="C728" s="7"/>
@@ -24163,7 +24163,7 @@
       <c r="AC728" s="7"/>
       <c r="AD728" s="7"/>
     </row>
-    <row r="729" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:30" ht="12.75">
       <c r="A729" s="7"/>
       <c r="B729" s="7"/>
       <c r="C729" s="7"/>
@@ -24195,7 +24195,7 @@
       <c r="AC729" s="7"/>
       <c r="AD729" s="7"/>
     </row>
-    <row r="730" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:30" ht="12.75">
       <c r="A730" s="7"/>
       <c r="B730" s="7"/>
       <c r="C730" s="7"/>
@@ -24227,7 +24227,7 @@
       <c r="AC730" s="7"/>
       <c r="AD730" s="7"/>
     </row>
-    <row r="731" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:30" ht="12.75">
       <c r="A731" s="7"/>
       <c r="B731" s="7"/>
       <c r="C731" s="7"/>
@@ -24259,7 +24259,7 @@
       <c r="AC731" s="7"/>
       <c r="AD731" s="7"/>
     </row>
-    <row r="732" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:30" ht="12.75">
       <c r="A732" s="7"/>
       <c r="B732" s="7"/>
       <c r="C732" s="7"/>
@@ -24291,7 +24291,7 @@
       <c r="AC732" s="7"/>
       <c r="AD732" s="7"/>
     </row>
-    <row r="733" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:30" ht="12.75">
       <c r="A733" s="7"/>
       <c r="B733" s="7"/>
       <c r="C733" s="7"/>
@@ -24323,7 +24323,7 @@
       <c r="AC733" s="7"/>
       <c r="AD733" s="7"/>
     </row>
-    <row r="734" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:30" ht="12.75">
       <c r="A734" s="7"/>
       <c r="B734" s="7"/>
       <c r="C734" s="7"/>
@@ -24355,7 +24355,7 @@
       <c r="AC734" s="7"/>
       <c r="AD734" s="7"/>
     </row>
-    <row r="735" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:30" ht="12.75">
       <c r="A735" s="7"/>
       <c r="B735" s="7"/>
       <c r="C735" s="7"/>
@@ -24387,7 +24387,7 @@
       <c r="AC735" s="7"/>
       <c r="AD735" s="7"/>
     </row>
-    <row r="736" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:30" ht="12.75">
       <c r="A736" s="7"/>
       <c r="B736" s="7"/>
       <c r="C736" s="7"/>
@@ -24419,7 +24419,7 @@
       <c r="AC736" s="7"/>
       <c r="AD736" s="7"/>
     </row>
-    <row r="737" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:30" ht="12.75">
       <c r="A737" s="7"/>
       <c r="B737" s="7"/>
       <c r="C737" s="7"/>
@@ -24451,7 +24451,7 @@
       <c r="AC737" s="7"/>
       <c r="AD737" s="7"/>
     </row>
-    <row r="738" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:30" ht="12.75">
       <c r="A738" s="7"/>
       <c r="B738" s="7"/>
       <c r="C738" s="7"/>
@@ -24483,7 +24483,7 @@
       <c r="AC738" s="7"/>
       <c r="AD738" s="7"/>
     </row>
-    <row r="739" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:30" ht="12.75">
       <c r="A739" s="7"/>
       <c r="B739" s="7"/>
       <c r="C739" s="7"/>
@@ -24515,7 +24515,7 @@
       <c r="AC739" s="7"/>
       <c r="AD739" s="7"/>
     </row>
-    <row r="740" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:30" ht="12.75">
       <c r="A740" s="7"/>
       <c r="B740" s="7"/>
       <c r="C740" s="7"/>
@@ -24547,7 +24547,7 @@
       <c r="AC740" s="7"/>
       <c r="AD740" s="7"/>
     </row>
-    <row r="741" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:30" ht="12.75">
       <c r="A741" s="7"/>
       <c r="B741" s="7"/>
       <c r="C741" s="7"/>
@@ -24579,7 +24579,7 @@
       <c r="AC741" s="7"/>
       <c r="AD741" s="7"/>
     </row>
-    <row r="742" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:30" ht="12.75">
       <c r="A742" s="7"/>
       <c r="B742" s="7"/>
       <c r="C742" s="7"/>
@@ -24611,7 +24611,7 @@
       <c r="AC742" s="7"/>
       <c r="AD742" s="7"/>
     </row>
-    <row r="743" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:30" ht="12.75">
       <c r="A743" s="7"/>
       <c r="B743" s="7"/>
       <c r="C743" s="7"/>
@@ -24643,7 +24643,7 @@
       <c r="AC743" s="7"/>
       <c r="AD743" s="7"/>
     </row>
-    <row r="744" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:30" ht="12.75">
       <c r="A744" s="7"/>
       <c r="B744" s="7"/>
       <c r="C744" s="7"/>
@@ -24675,7 +24675,7 @@
       <c r="AC744" s="7"/>
       <c r="AD744" s="7"/>
     </row>
-    <row r="745" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:30" ht="12.75">
       <c r="A745" s="7"/>
       <c r="B745" s="7"/>
       <c r="C745" s="7"/>
@@ -24707,7 +24707,7 @@
       <c r="AC745" s="7"/>
       <c r="AD745" s="7"/>
     </row>
-    <row r="746" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:30" ht="12.75">
       <c r="A746" s="7"/>
       <c r="B746" s="7"/>
       <c r="C746" s="7"/>
@@ -24739,7 +24739,7 @@
       <c r="AC746" s="7"/>
       <c r="AD746" s="7"/>
     </row>
-    <row r="747" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:30" ht="12.75">
       <c r="A747" s="7"/>
       <c r="B747" s="7"/>
       <c r="C747" s="7"/>
@@ -24771,7 +24771,7 @@
       <c r="AC747" s="7"/>
       <c r="AD747" s="7"/>
     </row>
-    <row r="748" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:30" ht="12.75">
       <c r="A748" s="7"/>
       <c r="B748" s="7"/>
       <c r="C748" s="7"/>
@@ -24803,7 +24803,7 @@
       <c r="AC748" s="7"/>
       <c r="AD748" s="7"/>
     </row>
-    <row r="749" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:30" ht="12.75">
       <c r="A749" s="7"/>
       <c r="B749" s="7"/>
       <c r="C749" s="7"/>
@@ -24835,7 +24835,7 @@
       <c r="AC749" s="7"/>
       <c r="AD749" s="7"/>
     </row>
-    <row r="750" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:30" ht="12.75">
       <c r="A750" s="7"/>
       <c r="B750" s="7"/>
       <c r="C750" s="7"/>
@@ -24867,7 +24867,7 @@
       <c r="AC750" s="7"/>
       <c r="AD750" s="7"/>
     </row>
-    <row r="751" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:30" ht="12.75">
       <c r="A751" s="7"/>
       <c r="B751" s="7"/>
       <c r="C751" s="7"/>
@@ -24899,7 +24899,7 @@
       <c r="AC751" s="7"/>
       <c r="AD751" s="7"/>
     </row>
-    <row r="752" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:30" ht="12.75">
       <c r="A752" s="7"/>
       <c r="B752" s="7"/>
       <c r="C752" s="7"/>
@@ -24931,7 +24931,7 @@
       <c r="AC752" s="7"/>
       <c r="AD752" s="7"/>
     </row>
-    <row r="753" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:30" ht="12.75">
       <c r="A753" s="7"/>
       <c r="B753" s="7"/>
       <c r="C753" s="7"/>
@@ -24963,7 +24963,7 @@
       <c r="AC753" s="7"/>
       <c r="AD753" s="7"/>
     </row>
-    <row r="754" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:30" ht="12.75">
       <c r="A754" s="7"/>
       <c r="B754" s="7"/>
       <c r="C754" s="7"/>
@@ -24995,7 +24995,7 @@
       <c r="AC754" s="7"/>
       <c r="AD754" s="7"/>
     </row>
-    <row r="755" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:30" ht="12.75">
       <c r="A755" s="7"/>
       <c r="B755" s="7"/>
       <c r="C755" s="7"/>
@@ -25027,7 +25027,7 @@
       <c r="AC755" s="7"/>
       <c r="AD755" s="7"/>
     </row>
-    <row r="756" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:30" ht="12.75">
       <c r="A756" s="7"/>
       <c r="B756" s="7"/>
       <c r="C756" s="7"/>
@@ -25059,7 +25059,7 @@
       <c r="AC756" s="7"/>
       <c r="AD756" s="7"/>
     </row>
-    <row r="757" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:30" ht="12.75">
       <c r="A757" s="7"/>
       <c r="B757" s="7"/>
       <c r="C757" s="7"/>
@@ -25091,7 +25091,7 @@
       <c r="AC757" s="7"/>
       <c r="AD757" s="7"/>
     </row>
-    <row r="758" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:30" ht="12.75">
       <c r="A758" s="7"/>
       <c r="B758" s="7"/>
       <c r="C758" s="7"/>
@@ -25123,7 +25123,7 @@
       <c r="AC758" s="7"/>
       <c r="AD758" s="7"/>
     </row>
-    <row r="759" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:30" ht="12.75">
       <c r="A759" s="7"/>
       <c r="B759" s="7"/>
       <c r="C759" s="7"/>
@@ -25155,7 +25155,7 @@
       <c r="AC759" s="7"/>
       <c r="AD759" s="7"/>
     </row>
-    <row r="760" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:30" ht="12.75">
       <c r="A760" s="7"/>
       <c r="B760" s="7"/>
       <c r="C760" s="7"/>
@@ -25187,7 +25187,7 @@
       <c r="AC760" s="7"/>
       <c r="AD760" s="7"/>
     </row>
-    <row r="761" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:30" ht="12.75">
       <c r="A761" s="7"/>
       <c r="B761" s="7"/>
       <c r="C761" s="7"/>
@@ -25219,7 +25219,7 @@
       <c r="AC761" s="7"/>
       <c r="AD761" s="7"/>
     </row>
-    <row r="762" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:30" ht="12.75">
       <c r="A762" s="7"/>
       <c r="B762" s="7"/>
       <c r="C762" s="7"/>
@@ -25251,7 +25251,7 @@
       <c r="AC762" s="7"/>
       <c r="AD762" s="7"/>
     </row>
-    <row r="763" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:30" ht="12.75">
       <c r="A763" s="7"/>
       <c r="B763" s="7"/>
       <c r="C763" s="7"/>
@@ -25283,7 +25283,7 @@
       <c r="AC763" s="7"/>
       <c r="AD763" s="7"/>
     </row>
-    <row r="764" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:30" ht="12.75">
       <c r="A764" s="7"/>
       <c r="B764" s="7"/>
       <c r="C764" s="7"/>
@@ -25315,7 +25315,7 @@
       <c r="AC764" s="7"/>
       <c r="AD764" s="7"/>
     </row>
-    <row r="765" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:30" ht="12.75">
       <c r="A765" s="7"/>
       <c r="B765" s="7"/>
       <c r="C765" s="7"/>
@@ -25347,7 +25347,7 @@
       <c r="AC765" s="7"/>
       <c r="AD765" s="7"/>
     </row>
-    <row r="766" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:30" ht="12.75">
       <c r="A766" s="7"/>
       <c r="B766" s="7"/>
       <c r="C766" s="7"/>
@@ -25379,7 +25379,7 @@
       <c r="AC766" s="7"/>
       <c r="AD766" s="7"/>
     </row>
-    <row r="767" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:30" ht="12.75">
       <c r="A767" s="7"/>
       <c r="B767" s="7"/>
       <c r="C767" s="7"/>
@@ -25411,7 +25411,7 @@
       <c r="AC767" s="7"/>
       <c r="AD767" s="7"/>
     </row>
-    <row r="768" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:30" ht="12.75">
       <c r="A768" s="7"/>
       <c r="B768" s="7"/>
       <c r="C768" s="7"/>
@@ -25443,7 +25443,7 @@
       <c r="AC768" s="7"/>
       <c r="AD768" s="7"/>
     </row>
-    <row r="769" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:30" ht="12.75">
       <c r="A769" s="7"/>
       <c r="B769" s="7"/>
       <c r="C769" s="7"/>
@@ -25475,7 +25475,7 @@
       <c r="AC769" s="7"/>
       <c r="AD769" s="7"/>
     </row>
-    <row r="770" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:30" ht="12.75">
       <c r="A770" s="7"/>
       <c r="B770" s="7"/>
       <c r="C770" s="7"/>
@@ -25507,7 +25507,7 @@
       <c r="AC770" s="7"/>
       <c r="AD770" s="7"/>
     </row>
-    <row r="771" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:30" ht="12.75">
       <c r="A771" s="7"/>
       <c r="B771" s="7"/>
       <c r="C771" s="7"/>
@@ -25539,7 +25539,7 @@
       <c r="AC771" s="7"/>
       <c r="AD771" s="7"/>
     </row>
-    <row r="772" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:30" ht="12.75">
       <c r="A772" s="7"/>
       <c r="B772" s="7"/>
       <c r="C772" s="7"/>
@@ -25571,7 +25571,7 @@
       <c r="AC772" s="7"/>
       <c r="AD772" s="7"/>
     </row>
-    <row r="773" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:30" ht="12.75">
       <c r="A773" s="7"/>
       <c r="B773" s="7"/>
       <c r="C773" s="7"/>
@@ -25603,7 +25603,7 @@
       <c r="AC773" s="7"/>
       <c r="AD773" s="7"/>
     </row>
-    <row r="774" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:30" ht="12.75">
       <c r="A774" s="7"/>
       <c r="B774" s="7"/>
       <c r="C774" s="7"/>
@@ -25635,7 +25635,7 @@
       <c r="AC774" s="7"/>
       <c r="AD774" s="7"/>
     </row>
-    <row r="775" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:30" ht="12.75">
       <c r="A775" s="7"/>
       <c r="B775" s="7"/>
       <c r="C775" s="7"/>
@@ -25667,7 +25667,7 @@
       <c r="AC775" s="7"/>
       <c r="AD775" s="7"/>
     </row>
-    <row r="776" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:30" ht="12.75">
       <c r="A776" s="7"/>
       <c r="B776" s="7"/>
       <c r="C776" s="7"/>
@@ -25699,7 +25699,7 @@
       <c r="AC776" s="7"/>
       <c r="AD776" s="7"/>
     </row>
-    <row r="777" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:30" ht="12.75">
       <c r="A777" s="7"/>
       <c r="B777" s="7"/>
       <c r="C777" s="7"/>
@@ -25731,7 +25731,7 @@
       <c r="AC777" s="7"/>
       <c r="AD777" s="7"/>
     </row>
-    <row r="778" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:30" ht="12.75">
       <c r="A778" s="7"/>
       <c r="B778" s="7"/>
       <c r="C778" s="7"/>
@@ -25763,7 +25763,7 @@
       <c r="AC778" s="7"/>
       <c r="AD778" s="7"/>
     </row>
-    <row r="779" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:30" ht="12.75">
       <c r="A779" s="7"/>
       <c r="B779" s="7"/>
       <c r="C779" s="7"/>
@@ -25795,7 +25795,7 @@
       <c r="AC779" s="7"/>
       <c r="AD779" s="7"/>
     </row>
-    <row r="780" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:30" ht="12.75">
       <c r="A780" s="7"/>
       <c r="B780" s="7"/>
       <c r="C780" s="7"/>
@@ -25827,7 +25827,7 @@
       <c r="AC780" s="7"/>
       <c r="AD780" s="7"/>
     </row>
-    <row r="781" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:30" ht="12.75">
       <c r="A781" s="7"/>
       <c r="B781" s="7"/>
       <c r="C781" s="7"/>
@@ -25859,7 +25859,7 @@
       <c r="AC781" s="7"/>
       <c r="AD781" s="7"/>
     </row>
-    <row r="782" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:30" ht="12.75">
       <c r="A782" s="7"/>
       <c r="B782" s="7"/>
       <c r="C782" s="7"/>
@@ -25891,7 +25891,7 @@
       <c r="AC782" s="7"/>
       <c r="AD782" s="7"/>
     </row>
-    <row r="783" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:30" ht="12.75">
       <c r="A783" s="7"/>
       <c r="B783" s="7"/>
       <c r="C783" s="7"/>
@@ -25923,7 +25923,7 @@
       <c r="AC783" s="7"/>
       <c r="AD783" s="7"/>
     </row>
-    <row r="784" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:30" ht="12.75">
       <c r="A784" s="7"/>
       <c r="B784" s="7"/>
       <c r="C784" s="7"/>
@@ -25955,7 +25955,7 @@
       <c r="AC784" s="7"/>
       <c r="AD784" s="7"/>
     </row>
-    <row r="785" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:30" ht="12.75">
       <c r="A785" s="7"/>
       <c r="B785" s="7"/>
       <c r="C785" s="7"/>
@@ -25987,7 +25987,7 @@
       <c r="AC785" s="7"/>
       <c r="AD785" s="7"/>
     </row>
-    <row r="786" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:30" ht="12.75">
       <c r="A786" s="7"/>
       <c r="B786" s="7"/>
       <c r="C786" s="7"/>
@@ -26019,7 +26019,7 @@
       <c r="AC786" s="7"/>
       <c r="AD786" s="7"/>
     </row>
-    <row r="787" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:30" ht="12.75">
       <c r="A787" s="7"/>
       <c r="B787" s="7"/>
       <c r="C787" s="7"/>
@@ -26051,7 +26051,7 @@
       <c r="AC787" s="7"/>
       <c r="AD787" s="7"/>
     </row>
-    <row r="788" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:30" ht="12.75">
       <c r="A788" s="7"/>
       <c r="B788" s="7"/>
       <c r="C788" s="7"/>
@@ -26083,7 +26083,7 @@
       <c r="AC788" s="7"/>
       <c r="AD788" s="7"/>
     </row>
-    <row r="789" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:30" ht="12.75">
       <c r="A789" s="7"/>
       <c r="B789" s="7"/>
       <c r="C789" s="7"/>
@@ -26115,7 +26115,7 @@
       <c r="AC789" s="7"/>
       <c r="AD789" s="7"/>
     </row>
-    <row r="790" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:30" ht="12.75">
       <c r="A790" s="7"/>
       <c r="B790" s="7"/>
       <c r="C790" s="7"/>
@@ -26147,7 +26147,7 @@
       <c r="AC790" s="7"/>
       <c r="AD790" s="7"/>
     </row>
-    <row r="791" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:30" ht="12.75">
       <c r="A791" s="7"/>
       <c r="B791" s="7"/>
       <c r="C791" s="7"/>
@@ -26179,7 +26179,7 @@
       <c r="AC791" s="7"/>
       <c r="AD791" s="7"/>
     </row>
-    <row r="792" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:30" ht="12.75">
       <c r="A792" s="7"/>
       <c r="B792" s="7"/>
       <c r="C792" s="7"/>
@@ -26211,7 +26211,7 @@
       <c r="AC792" s="7"/>
       <c r="AD792" s="7"/>
     </row>
-    <row r="793" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:30" ht="12.75">
       <c r="A793" s="7"/>
       <c r="B793" s="7"/>
       <c r="C793" s="7"/>
@@ -26243,7 +26243,7 @@
       <c r="AC793" s="7"/>
       <c r="AD793" s="7"/>
     </row>
-    <row r="794" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:30" ht="12.75">
       <c r="A794" s="7"/>
       <c r="B794" s="7"/>
       <c r="C794" s="7"/>
@@ -26275,7 +26275,7 @@
       <c r="AC794" s="7"/>
       <c r="AD794" s="7"/>
     </row>
-    <row r="795" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:30" ht="12.75">
       <c r="A795" s="7"/>
       <c r="B795" s="7"/>
       <c r="C795" s="7"/>
@@ -26307,7 +26307,7 @@
       <c r="AC795" s="7"/>
       <c r="AD795" s="7"/>
     </row>
-    <row r="796" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:30" ht="12.75">
       <c r="A796" s="7"/>
       <c r="B796" s="7"/>
       <c r="C796" s="7"/>
@@ -26339,7 +26339,7 @@
       <c r="AC796" s="7"/>
       <c r="AD796" s="7"/>
     </row>
-    <row r="797" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:30" ht="12.75">
       <c r="A797" s="7"/>
       <c r="B797" s="7"/>
       <c r="C797" s="7"/>
@@ -26371,7 +26371,7 @@
       <c r="AC797" s="7"/>
       <c r="AD797" s="7"/>
     </row>
-    <row r="798" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:30" ht="12.75">
       <c r="A798" s="7"/>
       <c r="B798" s="7"/>
       <c r="C798" s="7"/>
@@ -26403,7 +26403,7 @@
       <c r="AC798" s="7"/>
       <c r="AD798" s="7"/>
     </row>
-    <row r="799" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:30" ht="12.75">
       <c r="A799" s="7"/>
       <c r="B799" s="7"/>
       <c r="C799" s="7"/>
@@ -26435,7 +26435,7 @@
       <c r="AC799" s="7"/>
       <c r="AD799" s="7"/>
     </row>
-    <row r="800" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:30" ht="12.75">
       <c r="A800" s="7"/>
       <c r="B800" s="7"/>
       <c r="C800" s="7"/>
@@ -26467,7 +26467,7 @@
       <c r="AC800" s="7"/>
       <c r="AD800" s="7"/>
     </row>
-    <row r="801" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:30" ht="12.75">
       <c r="A801" s="7"/>
       <c r="B801" s="7"/>
       <c r="C801" s="7"/>
@@ -26499,7 +26499,7 @@
       <c r="AC801" s="7"/>
       <c r="AD801" s="7"/>
     </row>
-    <row r="802" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:30" ht="12.75">
       <c r="A802" s="7"/>
       <c r="B802" s="7"/>
       <c r="C802" s="7"/>
@@ -26531,7 +26531,7 @@
       <c r="AC802" s="7"/>
       <c r="AD802" s="7"/>
     </row>
-    <row r="803" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:30" ht="12.75">
       <c r="A803" s="7"/>
       <c r="B803" s="7"/>
       <c r="C803" s="7"/>
@@ -26563,7 +26563,7 @@
       <c r="AC803" s="7"/>
       <c r="AD803" s="7"/>
     </row>
-    <row r="804" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:30" ht="12.75">
       <c r="A804" s="7"/>
       <c r="B804" s="7"/>
       <c r="C804" s="7"/>
@@ -26595,7 +26595,7 @@
       <c r="AC804" s="7"/>
       <c r="AD804" s="7"/>
     </row>
-    <row r="805" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:30" ht="12.75">
       <c r="A805" s="7"/>
       <c r="B805" s="7"/>
       <c r="C805" s="7"/>
@@ -26627,7 +26627,7 @@
       <c r="AC805" s="7"/>
       <c r="AD805" s="7"/>
     </row>
-    <row r="806" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:30" ht="12.75">
       <c r="A806" s="7"/>
       <c r="B806" s="7"/>
       <c r="C806" s="7"/>
@@ -26659,7 +26659,7 @@
       <c r="AC806" s="7"/>
       <c r="AD806" s="7"/>
     </row>
-    <row r="807" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:30" ht="12.75">
       <c r="A807" s="7"/>
       <c r="B807" s="7"/>
       <c r="C807" s="7"/>
@@ -26691,7 +26691,7 @@
       <c r="AC807" s="7"/>
       <c r="AD807" s="7"/>
     </row>
-    <row r="808" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:30" ht="12.75">
       <c r="A808" s="7"/>
       <c r="B808" s="7"/>
       <c r="C808" s="7"/>
@@ -26723,7 +26723,7 @@
       <c r="AC808" s="7"/>
       <c r="AD808" s="7"/>
     </row>
-    <row r="809" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:30" ht="12.75">
       <c r="A809" s="7"/>
       <c r="B809" s="7"/>
       <c r="C809" s="7"/>
@@ -26755,7 +26755,7 @@
       <c r="AC809" s="7"/>
       <c r="AD809" s="7"/>
     </row>
-    <row r="810" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:30" ht="12.75">
       <c r="A810" s="7"/>
       <c r="B810" s="7"/>
       <c r="C810" s="7"/>
@@ -26787,7 +26787,7 @@
       <c r="AC810" s="7"/>
       <c r="AD810" s="7"/>
     </row>
-    <row r="811" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:30" ht="12.75">
       <c r="A811" s="7"/>
       <c r="B811" s="7"/>
       <c r="C811" s="7"/>
@@ -26819,7 +26819,7 @@
       <c r="AC811" s="7"/>
       <c r="AD811" s="7"/>
     </row>
-    <row r="812" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:30" ht="12.75">
       <c r="A812" s="7"/>
       <c r="B812" s="7"/>
       <c r="C812" s="7"/>
@@ -26851,7 +26851,7 @@
       <c r="AC812" s="7"/>
       <c r="AD812" s="7"/>
     </row>
-    <row r="813" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:30" ht="12.75">
       <c r="A813" s="7"/>
       <c r="B813" s="7"/>
       <c r="C813" s="7"/>
@@ -26883,7 +26883,7 @@
       <c r="AC813" s="7"/>
       <c r="AD813" s="7"/>
     </row>
-    <row r="814" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:30" ht="12.75">
       <c r="A814" s="7"/>
       <c r="B814" s="7"/>
       <c r="C814" s="7"/>
@@ -26915,7 +26915,7 @@
       <c r="AC814" s="7"/>
       <c r="AD814" s="7"/>
     </row>
-    <row r="815" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:30" ht="12.75">
       <c r="A815" s="7"/>
       <c r="B815" s="7"/>
       <c r="C815" s="7"/>
@@ -26947,7 +26947,7 @@
       <c r="AC815" s="7"/>
       <c r="AD815" s="7"/>
     </row>
-    <row r="816" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:30" ht="12.75">
       <c r="A816" s="7"/>
       <c r="B816" s="7"/>
       <c r="C816" s="7"/>
@@ -26979,7 +26979,7 @@
       <c r="AC816" s="7"/>
       <c r="AD816" s="7"/>
     </row>
-    <row r="817" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:30" ht="12.75">
       <c r="A817" s="7"/>
       <c r="B817" s="7"/>
       <c r="C817" s="7"/>
@@ -27011,7 +27011,7 @@
       <c r="AC817" s="7"/>
       <c r="AD817" s="7"/>
     </row>
-    <row r="818" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:30" ht="12.75">
       <c r="A818" s="7"/>
       <c r="B818" s="7"/>
       <c r="C818" s="7"/>
@@ -27043,7 +27043,7 @@
       <c r="AC818" s="7"/>
       <c r="AD818" s="7"/>
     </row>
-    <row r="819" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:30" ht="12.75">
       <c r="A819" s="7"/>
       <c r="B819" s="7"/>
       <c r="C819" s="7"/>
@@ -27075,7 +27075,7 @@
       <c r="AC819" s="7"/>
       <c r="AD819" s="7"/>
     </row>
-    <row r="820" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:30" ht="12.75">
       <c r="A820" s="7"/>
       <c r="B820" s="7"/>
       <c r="C820" s="7"/>
@@ -27107,7 +27107,7 @@
       <c r="AC820" s="7"/>
       <c r="AD820" s="7"/>
     </row>
-    <row r="821" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:30" ht="12.75">
       <c r="A821" s="7"/>
       <c r="B821" s="7"/>
       <c r="C821" s="7"/>
@@ -27139,7 +27139,7 @@
       <c r="AC821" s="7"/>
       <c r="AD821" s="7"/>
     </row>
-    <row r="822" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:30" ht="12.75">
       <c r="A822" s="7"/>
       <c r="B822" s="7"/>
       <c r="C822" s="7"/>
@@ -27171,7 +27171,7 @@
       <c r="AC822" s="7"/>
       <c r="AD822" s="7"/>
     </row>
-    <row r="823" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:30" ht="12.75">
       <c r="A823" s="7"/>
       <c r="B823" s="7"/>
       <c r="C823" s="7"/>
@@ -27203,7 +27203,7 @@
       <c r="AC823" s="7"/>
       <c r="AD823" s="7"/>
     </row>
-    <row r="824" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:30" ht="12.75">
       <c r="A824" s="7"/>
       <c r="B824" s="7"/>
       <c r="C824" s="7"/>
@@ -27235,7 +27235,7 @@
       <c r="AC824" s="7"/>
       <c r="AD824" s="7"/>
     </row>
-    <row r="825" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:30" ht="12.75">
       <c r="A825" s="7"/>
       <c r="B825" s="7"/>
       <c r="C825" s="7"/>
@@ -27267,7 +27267,7 @@
       <c r="AC825" s="7"/>
       <c r="AD825" s="7"/>
     </row>
-    <row r="826" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:30" ht="12.75">
       <c r="A826" s="7"/>
       <c r="B826" s="7"/>
       <c r="C826" s="7"/>
@@ -27299,7 +27299,7 @@
       <c r="AC826" s="7"/>
       <c r="AD826" s="7"/>
     </row>
-    <row r="827" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:30" ht="12.75">
       <c r="A827" s="7"/>
       <c r="B827" s="7"/>
       <c r="C827" s="7"/>
@@ -27331,7 +27331,7 @@
       <c r="AC827" s="7"/>
       <c r="AD827" s="7"/>
     </row>
-    <row r="828" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:30" ht="12.75">
       <c r="A828" s="7"/>
       <c r="B828" s="7"/>
       <c r="C828" s="7"/>
@@ -27363,7 +27363,7 @@
       <c r="AC828" s="7"/>
       <c r="AD828" s="7"/>
     </row>
-    <row r="829" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:30" ht="12.75">
       <c r="A829" s="7"/>
       <c r="B829" s="7"/>
       <c r="C829" s="7"/>
@@ -27395,7 +27395,7 @@
       <c r="AC829" s="7"/>
       <c r="AD829" s="7"/>
     </row>
-    <row r="830" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:30" ht="12.75">
       <c r="A830" s="7"/>
       <c r="B830" s="7"/>
       <c r="C830" s="7"/>
@@ -27427,7 +27427,7 @@
       <c r="AC830" s="7"/>
       <c r="AD830" s="7"/>
     </row>
-    <row r="831" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:30" ht="12.75">
       <c r="A831" s="7"/>
       <c r="B831" s="7"/>
       <c r="C831" s="7"/>
@@ -27459,7 +27459,7 @@
       <c r="AC831" s="7"/>
       <c r="AD831" s="7"/>
     </row>
-    <row r="832" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:30" ht="12.75">
       <c r="A832" s="7"/>
       <c r="B832" s="7"/>
       <c r="C832" s="7"/>
@@ -27491,7 +27491,7 @@
       <c r="AC832" s="7"/>
       <c r="AD832" s="7"/>
     </row>
-    <row r="833" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:30" ht="12.75">
       <c r="A833" s="7"/>
       <c r="B833" s="7"/>
       <c r="C833" s="7"/>
@@ -27523,7 +27523,7 @@
       <c r="AC833" s="7"/>
       <c r="AD833" s="7"/>
     </row>
-    <row r="834" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:30" ht="12.75">
       <c r="A834" s="7"/>
       <c r="B834" s="7"/>
       <c r="C834" s="7"/>
@@ -27555,7 +27555,7 @@
       <c r="AC834" s="7"/>
       <c r="AD834" s="7"/>
     </row>
-    <row r="835" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:30" ht="12.75">
       <c r="A835" s="7"/>
       <c r="B835" s="7"/>
       <c r="C835" s="7"/>
@@ -27587,7 +27587,7 @@
       <c r="AC835" s="7"/>
       <c r="AD835" s="7"/>
     </row>
-    <row r="836" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:30" ht="12.75">
       <c r="A836" s="7"/>
       <c r="B836" s="7"/>
       <c r="C836" s="7"/>
@@ -27619,7 +27619,7 @@
       <c r="AC836" s="7"/>
       <c r="AD836" s="7"/>
     </row>
-    <row r="837" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:30" ht="12.75">
       <c r="A837" s="7"/>
       <c r="B837" s="7"/>
       <c r="C837" s="7"/>
@@ -27651,7 +27651,7 @@
       <c r="AC837" s="7"/>
       <c r="AD837" s="7"/>
     </row>
-    <row r="838" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:30" ht="12.75">
       <c r="A838" s="7"/>
       <c r="B838" s="7"/>
       <c r="C838" s="7"/>
@@ -27683,7 +27683,7 @@
       <c r="AC838" s="7"/>
       <c r="AD838" s="7"/>
     </row>
-    <row r="839" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:30" ht="12.75">
       <c r="A839" s="7"/>
       <c r="B839" s="7"/>
       <c r="C839" s="7"/>
@@ -27715,7 +27715,7 @@
       <c r="AC839" s="7"/>
       <c r="AD839" s="7"/>
     </row>
-    <row r="840" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:30" ht="12.75">
       <c r="A840" s="7"/>
       <c r="B840" s="7"/>
       <c r="C840" s="7"/>
@@ -27747,7 +27747,7 @@
       <c r="AC840" s="7"/>
       <c r="AD840" s="7"/>
     </row>
-    <row r="841" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:30" ht="12.75">
       <c r="A841" s="7"/>
       <c r="B841" s="7"/>
       <c r="C841" s="7"/>
@@ -27779,7 +27779,7 @@
       <c r="AC841" s="7"/>
       <c r="AD841" s="7"/>
     </row>
-    <row r="842" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:30" ht="12.75">
       <c r="A842" s="7"/>
       <c r="B842" s="7"/>
       <c r="C842" s="7"/>
@@ -27811,7 +27811,7 @@
       <c r="AC842" s="7"/>
       <c r="AD842" s="7"/>
     </row>
-    <row r="843" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:30" ht="12.75">
       <c r="A843" s="7"/>
       <c r="B843" s="7"/>
       <c r="C843" s="7"/>
@@ -27843,7 +27843,7 @@
       <c r="AC843" s="7"/>
       <c r="AD843" s="7"/>
     </row>
-    <row r="844" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:30" ht="12.75">
       <c r="A844" s="7"/>
       <c r="B844" s="7"/>
       <c r="C844" s="7"/>
@@ -27875,7 +27875,7 @@
       <c r="AC844" s="7"/>
       <c r="AD844" s="7"/>
     </row>
-    <row r="845" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:30" ht="12.75">
       <c r="A845" s="7"/>
       <c r="B845" s="7"/>
       <c r="C845" s="7"/>
@@ -27907,7 +27907,7 @@
       <c r="AC845" s="7"/>
       <c r="AD845" s="7"/>
     </row>
-    <row r="846" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:30" ht="12.75">
       <c r="A846" s="7"/>
       <c r="B846" s="7"/>
       <c r="C846" s="7"/>
@@ -27939,7 +27939,7 @@
       <c r="AC846" s="7"/>
       <c r="AD846" s="7"/>
     </row>
-    <row r="847" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:30" ht="12.75">
       <c r="A847" s="7"/>
       <c r="B847" s="7"/>
       <c r="C847" s="7"/>
@@ -27971,7 +27971,7 @@
       <c r="AC847" s="7"/>
       <c r="AD847" s="7"/>
     </row>
-    <row r="848" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:30" ht="12.75">
       <c r="A848" s="7"/>
       <c r="B848" s="7"/>
       <c r="C848" s="7"/>
@@ -28003,7 +28003,7 @@
       <c r="AC848" s="7"/>
       <c r="AD848" s="7"/>
     </row>
-    <row r="849" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:30" ht="12.75">
       <c r="A849" s="7"/>
       <c r="B849" s="7"/>
       <c r="C849" s="7"/>
@@ -28035,7 +28035,7 @@
       <c r="AC849" s="7"/>
       <c r="AD849" s="7"/>
     </row>
-    <row r="850" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:30" ht="12.75">
       <c r="A850" s="7"/>
       <c r="B850" s="7"/>
       <c r="C850" s="7"/>
@@ -28067,7 +28067,7 @@
       <c r="AC850" s="7"/>
       <c r="AD850" s="7"/>
     </row>
-    <row r="851" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:30" ht="12.75">
       <c r="A851" s="7"/>
       <c r="B851" s="7"/>
       <c r="C851" s="7"/>
@@ -28099,7 +28099,7 @@
       <c r="AC851" s="7"/>
       <c r="AD851" s="7"/>
     </row>
-    <row r="852" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:30" ht="12.75">
       <c r="A852" s="7"/>
       <c r="B852" s="7"/>
       <c r="C852" s="7"/>
@@ -28131,7 +28131,7 @@
       <c r="AC852" s="7"/>
       <c r="AD852" s="7"/>
     </row>
-    <row r="853" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:30" ht="12.75">
       <c r="A853" s="7"/>
       <c r="B853" s="7"/>
       <c r="C853" s="7"/>
@@ -28163,7 +28163,7 @@
       <c r="AC853" s="7"/>
       <c r="AD853" s="7"/>
     </row>
-    <row r="854" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:30" ht="12.75">
       <c r="A854" s="7"/>
       <c r="B854" s="7"/>
       <c r="C854" s="7"/>
@@ -28195,7 +28195,7 @@
       <c r="AC854" s="7"/>
       <c r="AD854" s="7"/>
     </row>
-    <row r="855" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:30" ht="12.75">
       <c r="A855" s="7"/>
       <c r="B855" s="7"/>
       <c r="C855" s="7"/>
@@ -28227,7 +28227,7 @@
       <c r="AC855" s="7"/>
       <c r="AD855" s="7"/>
     </row>
-    <row r="856" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:30" ht="12.75">
       <c r="A856" s="7"/>
       <c r="B856" s="7"/>
       <c r="C856" s="7"/>
@@ -28259,7 +28259,7 @@
       <c r="AC856" s="7"/>
       <c r="AD856" s="7"/>
     </row>
-    <row r="857" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:30" ht="12.75">
       <c r="A857" s="7"/>
       <c r="B857" s="7"/>
       <c r="C857" s="7"/>
@@ -28291,7 +28291,7 @@
       <c r="AC857" s="7"/>
       <c r="AD857" s="7"/>
     </row>
-    <row r="858" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:30" ht="12.75">
       <c r="A858" s="7"/>
       <c r="B858" s="7"/>
       <c r="C858" s="7"/>
@@ -28323,7 +28323,7 @@
       <c r="AC858" s="7"/>
       <c r="AD858" s="7"/>
     </row>
-    <row r="859" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:30" ht="12.75">
       <c r="A859" s="7"/>
       <c r="B859" s="7"/>
       <c r="C859" s="7"/>
@@ -28355,7 +28355,7 @@
       <c r="AC859" s="7"/>
       <c r="AD859" s="7"/>
     </row>
-    <row r="860" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:30" ht="12.75">
       <c r="A860" s="7"/>
       <c r="B860" s="7"/>
       <c r="C860" s="7"/>
@@ -28387,7 +28387,7 @@
       <c r="AC860" s="7"/>
       <c r="AD860" s="7"/>
     </row>
-    <row r="861" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:30" ht="12.75">
       <c r="A861" s="7"/>
       <c r="B861" s="7"/>
       <c r="C861" s="7"/>
@@ -28419,7 +28419,7 @@
       <c r="AC861" s="7"/>
       <c r="AD861" s="7"/>
     </row>
-    <row r="862" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:30" ht="12.75">
       <c r="A862" s="7"/>
       <c r="B862" s="7"/>
       <c r="C862" s="7"/>
@@ -28451,7 +28451,7 @@
       <c r="AC862" s="7"/>
       <c r="AD862" s="7"/>
     </row>
-    <row r="863" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:30" ht="12.75">
       <c r="A863" s="7"/>
       <c r="B863" s="7"/>
       <c r="C863" s="7"/>
@@ -28483,7 +28483,7 @@
       <c r="AC863" s="7"/>
       <c r="AD863" s="7"/>
     </row>
-    <row r="864" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:30" ht="12.75">
       <c r="A864" s="7"/>
       <c r="B864" s="7"/>
       <c r="C864" s="7"/>
@@ -28515,7 +28515,7 @@
       <c r="AC864" s="7"/>
       <c r="AD864" s="7"/>
     </row>
-    <row r="865" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:30" ht="12.75">
       <c r="A865" s="7"/>
       <c r="B865" s="7"/>
       <c r="C865" s="7"/>
@@ -28547,7 +28547,7 @@
       <c r="AC865" s="7"/>
       <c r="AD865" s="7"/>
     </row>
-    <row r="866" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:30" ht="12.75">
       <c r="A866" s="7"/>
       <c r="B866" s="7"/>
       <c r="C866" s="7"/>
@@ -28579,7 +28579,7 @@
       <c r="AC866" s="7"/>
       <c r="AD866" s="7"/>
     </row>
-    <row r="867" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:30" ht="12.75">
       <c r="A867" s="7"/>
       <c r="B867" s="7"/>
       <c r="C867" s="7"/>
@@ -28611,7 +28611,7 @@
       <c r="AC867" s="7"/>
       <c r="AD867" s="7"/>
     </row>
-    <row r="868" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:30" ht="12.75">
       <c r="A868" s="7"/>
       <c r="B868" s="7"/>
       <c r="C868" s="7"/>
@@ -28643,7 +28643,7 @@
       <c r="AC868" s="7"/>
       <c r="AD868" s="7"/>
     </row>
-    <row r="869" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:30" ht="12.75">
       <c r="A869" s="7"/>
       <c r="B869" s="7"/>
       <c r="C869" s="7"/>
@@ -28675,7 +28675,7 @@
       <c r="AC869" s="7"/>
       <c r="AD869" s="7"/>
     </row>
-    <row r="870" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:30" ht="12.75">
       <c r="A870" s="7"/>
       <c r="B870" s="7"/>
       <c r="C870" s="7"/>
@@ -28707,7 +28707,7 @@
       <c r="AC870" s="7"/>
       <c r="AD870" s="7"/>
     </row>
-    <row r="871" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:30" ht="12.75">
       <c r="A871" s="7"/>
       <c r="B871" s="7"/>
       <c r="C871" s="7"/>
@@ -28739,7 +28739,7 @@
       <c r="AC871" s="7"/>
       <c r="AD871" s="7"/>
     </row>
-    <row r="872" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:30" ht="12.75">
       <c r="A872" s="7"/>
       <c r="B872" s="7"/>
       <c r="C872" s="7"/>
@@ -28771,7 +28771,7 @@
       <c r="AC872" s="7"/>
       <c r="AD872" s="7"/>
     </row>
-    <row r="873" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:30" ht="12.75">
       <c r="A873" s="7"/>
       <c r="B873" s="7"/>
       <c r="C873" s="7"/>
@@ -28803,7 +28803,7 @@
       <c r="AC873" s="7"/>
       <c r="AD873" s="7"/>
     </row>
-    <row r="874" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:30" ht="12.75">
       <c r="A874" s="7"/>
       <c r="B874" s="7"/>
       <c r="C874" s="7"/>
@@ -28835,7 +28835,7 @@
       <c r="AC874" s="7"/>
       <c r="AD874" s="7"/>
     </row>
-    <row r="875" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:30" ht="12.75">
       <c r="A875" s="7"/>
       <c r="B875" s="7"/>
       <c r="C875" s="7"/>
@@ -28867,7 +28867,7 @@
       <c r="AC875" s="7"/>
       <c r="AD875" s="7"/>
     </row>
-    <row r="876" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:30" ht="12.75">
       <c r="A876" s="7"/>
       <c r="B876" s="7"/>
       <c r="C876" s="7"/>
@@ -28899,7 +28899,7 @@
       <c r="AC876" s="7"/>
       <c r="AD876" s="7"/>
     </row>
-    <row r="877" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:30" ht="12.75">
       <c r="A877" s="7"/>
       <c r="B877" s="7"/>
       <c r="C877" s="7"/>
@@ -28931,7 +28931,7 @@
       <c r="AC877" s="7"/>
       <c r="AD877" s="7"/>
     </row>
-    <row r="878" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:30" ht="12.75">
       <c r="A878" s="7"/>
       <c r="B878" s="7"/>
       <c r="C878" s="7"/>
@@ -28963,7 +28963,7 @@
       <c r="AC878" s="7"/>
       <c r="AD878" s="7"/>
     </row>
-    <row r="879" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:30" ht="12.75">
       <c r="A879" s="7"/>
       <c r="B879" s="7"/>
       <c r="C879" s="7"/>
@@ -28995,7 +28995,7 @@
       <c r="AC879" s="7"/>
       <c r="AD879" s="7"/>
     </row>
-    <row r="880" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:30" ht="12.75">
       <c r="A880" s="7"/>
       <c r="B880" s="7"/>
       <c r="C880" s="7"/>
@@ -29027,7 +29027,7 @@
       <c r="AC880" s="7"/>
       <c r="AD880" s="7"/>
     </row>
-    <row r="881" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:30" ht="12.75">
       <c r="A881" s="7"/>
       <c r="B881" s="7"/>
       <c r="C881" s="7"/>
@@ -29059,7 +29059,7 @@
       <c r="AC881" s="7"/>
       <c r="AD881" s="7"/>
     </row>
-    <row r="882" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:30" ht="12.75">
       <c r="A882" s="7"/>
       <c r="B882" s="7"/>
       <c r="C882" s="7"/>
@@ -29091,7 +29091,7 @@
       <c r="AC882" s="7"/>
       <c r="AD882" s="7"/>
     </row>
-    <row r="883" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:30" ht="12.75">
       <c r="A883" s="7"/>
       <c r="B883" s="7"/>
       <c r="C883" s="7"/>
@@ -29123,7 +29123,7 @@
       <c r="AC883" s="7"/>
       <c r="AD883" s="7"/>
     </row>
-    <row r="884" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:30" ht="12.75">
       <c r="A884" s="7"/>
       <c r="B884" s="7"/>
       <c r="C884" s="7"/>
@@ -29155,7 +29155,7 @@
       <c r="AC884" s="7"/>
       <c r="AD884" s="7"/>
     </row>
-    <row r="885" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:30" ht="12.75">
       <c r="A885" s="7"/>
       <c r="B885" s="7"/>
       <c r="C885" s="7"/>
@@ -29187,7 +29187,7 @@
       <c r="AC885" s="7"/>
       <c r="AD885" s="7"/>
     </row>
-    <row r="886" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:30" ht="12.75">
       <c r="A886" s="7"/>
       <c r="B886" s="7"/>
       <c r="C886" s="7"/>
@@ -29219,7 +29219,7 @@
       <c r="AC886" s="7"/>
       <c r="AD886" s="7"/>
     </row>
-    <row r="887" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:30" ht="12.75">
       <c r="A887" s="7"/>
       <c r="B887" s="7"/>
       <c r="C887" s="7"/>
@@ -29251,7 +29251,7 @@
       <c r="AC887" s="7"/>
       <c r="AD887" s="7"/>
     </row>
-    <row r="888" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:30" ht="12.75">
       <c r="A888" s="7"/>
       <c r="B888" s="7"/>
       <c r="C888" s="7"/>
@@ -29283,7 +29283,7 @@
       <c r="AC888" s="7"/>
       <c r="AD888" s="7"/>
     </row>
-    <row r="889" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:30" ht="12.75">
       <c r="A889" s="7"/>
       <c r="B889" s="7"/>
       <c r="C889" s="7"/>
@@ -29315,7 +29315,7 @@
       <c r="AC889" s="7"/>
       <c r="AD889" s="7"/>
     </row>
-    <row r="890" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:30" ht="12.75">
       <c r="A890" s="7"/>
       <c r="B890" s="7"/>
       <c r="C890" s="7"/>
@@ -29347,7 +29347,7 @@
       <c r="AC890" s="7"/>
       <c r="AD890" s="7"/>
     </row>
-    <row r="891" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:30" ht="12.75">
       <c r="A891" s="7"/>
       <c r="B891" s="7"/>
       <c r="C891" s="7"/>
@@ -29379,7 +29379,7 @@
       <c r="AC891" s="7"/>
       <c r="AD891" s="7"/>
     </row>
-    <row r="892" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:30" ht="12.75">
       <c r="A892" s="7"/>
       <c r="B892" s="7"/>
       <c r="C892" s="7"/>
@@ -29411,7 +29411,7 @@
       <c r="AC892" s="7"/>
       <c r="AD892" s="7"/>
     </row>
-    <row r="893" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:30" ht="12.75">
       <c r="A893" s="7"/>
       <c r="B893" s="7"/>
       <c r="C893" s="7"/>
@@ -29443,7 +29443,7 @@
       <c r="AC893" s="7"/>
       <c r="AD893" s="7"/>
     </row>
-    <row r="894" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:30" ht="12.75">
       <c r="A894" s="7"/>
       <c r="B894" s="7"/>
       <c r="C894" s="7"/>
@@ -29475,7 +29475,7 @@
       <c r="AC894" s="7"/>
       <c r="AD894" s="7"/>
     </row>
-    <row r="895" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:30" ht="12.75">
       <c r="A895" s="7"/>
       <c r="B895" s="7"/>
       <c r="C895" s="7"/>
@@ -29507,7 +29507,7 @@
       <c r="AC895" s="7"/>
       <c r="AD895" s="7"/>
     </row>
-    <row r="896" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:30" ht="12.75">
       <c r="A896" s="7"/>
       <c r="B896" s="7"/>
       <c r="C896" s="7"/>
@@ -29539,7 +29539,7 @@
       <c r="AC896" s="7"/>
       <c r="AD896" s="7"/>
     </row>
-    <row r="897" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:30" ht="12.75">
       <c r="A897" s="7"/>
       <c r="B897" s="7"/>
       <c r="C897" s="7"/>
@@ -29571,7 +29571,7 @@
       <c r="AC897" s="7"/>
       <c r="AD897" s="7"/>
     </row>
-    <row r="898" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:30" ht="12.75">
       <c r="A898" s="7"/>
       <c r="B898" s="7"/>
       <c r="C898" s="7"/>
@@ -29603,7 +29603,7 @@
       <c r="AC898" s="7"/>
       <c r="AD898" s="7"/>
     </row>
-    <row r="899" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:30" ht="12.75">
       <c r="A899" s="7"/>
       <c r="B899" s="7"/>
       <c r="C899" s="7"/>
@@ -29635,7 +29635,7 @@
       <c r="AC899" s="7"/>
       <c r="AD899" s="7"/>
     </row>
-    <row r="900" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:30" ht="12.75">
       <c r="A900" s="7"/>
       <c r="B900" s="7"/>
       <c r="C900" s="7"/>
@@ -29667,7 +29667,7 @@
       <c r="AC900" s="7"/>
       <c r="AD900" s="7"/>
     </row>
-    <row r="901" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:30" ht="12.75">
       <c r="A901" s="7"/>
       <c r="B901" s="7"/>
       <c r="C901" s="7"/>
@@ -29699,7 +29699,7 @@
       <c r="AC901" s="7"/>
       <c r="AD901" s="7"/>
     </row>
-    <row r="902" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:30" ht="12.75">
       <c r="A902" s="7"/>
       <c r="B902" s="7"/>
       <c r="C902" s="7"/>
@@ -29731,7 +29731,7 @@
       <c r="AC902" s="7"/>
       <c r="AD902" s="7"/>
     </row>
-    <row r="903" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:30" ht="12.75">
       <c r="A903" s="7"/>
       <c r="B903" s="7"/>
       <c r="C903" s="7"/>
@@ -29763,7 +29763,7 @@
       <c r="AC903" s="7"/>
       <c r="AD903" s="7"/>
     </row>
-    <row r="904" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:30" ht="12.75">
       <c r="A904" s="7"/>
       <c r="B904" s="7"/>
       <c r="C904" s="7"/>
@@ -29795,7 +29795,7 @@
       <c r="AC904" s="7"/>
       <c r="AD904" s="7"/>
     </row>
-    <row r="905" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:30" ht="12.75">
       <c r="A905" s="7"/>
       <c r="B905" s="7"/>
       <c r="C905" s="7"/>
@@ -29827,7 +29827,7 @@
       <c r="AC905" s="7"/>
       <c r="AD905" s="7"/>
     </row>
-    <row r="906" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:30" ht="12.75">
       <c r="A906" s="7"/>
       <c r="B906" s="7"/>
       <c r="C906" s="7"/>
@@ -29859,7 +29859,7 @@
       <c r="AC906" s="7"/>
       <c r="AD906" s="7"/>
     </row>
-    <row r="907" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:30" ht="12.75">
       <c r="A907" s="7"/>
       <c r="B907" s="7"/>
       <c r="C907" s="7"/>
@@ -29891,7 +29891,7 @@
       <c r="AC907" s="7"/>
       <c r="AD907" s="7"/>
     </row>
-    <row r="908" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:30" ht="12.75">
       <c r="A908" s="7"/>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
@@ -29923,7 +29923,7 @@
       <c r="AC908" s="7"/>
       <c r="AD908" s="7"/>
     </row>
-    <row r="909" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:30" ht="12.75">
       <c r="A909" s="7"/>
       <c r="B909" s="7"/>
       <c r="C909" s="7"/>
@@ -29955,7 +29955,7 @@
       <c r="AC909" s="7"/>
       <c r="AD909" s="7"/>
     </row>
-    <row r="910" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:30" ht="12.75">
       <c r="A910" s="7"/>
       <c r="B910" s="7"/>
       <c r="C910" s="7"/>
@@ -29987,7 +29987,7 @@
       <c r="AC910" s="7"/>
       <c r="AD910" s="7"/>
     </row>
-    <row r="911" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:30" ht="12.75">
       <c r="A911" s="7"/>
       <c r="B911" s="7"/>
       <c r="C911" s="7"/>
@@ -30019,7 +30019,7 @@
       <c r="AC911" s="7"/>
       <c r="AD911" s="7"/>
     </row>
-    <row r="912" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:30" ht="12.75">
       <c r="A912" s="7"/>
       <c r="B912" s="7"/>
       <c r="C912" s="7"/>
@@ -30051,7 +30051,7 @@
       <c r="AC912" s="7"/>
       <c r="AD912" s="7"/>
     </row>
-    <row r="913" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:30" ht="12.75">
       <c r="A913" s="7"/>
       <c r="B913" s="7"/>
       <c r="C913" s="7"/>
@@ -30083,7 +30083,7 @@
       <c r="AC913" s="7"/>
       <c r="AD913" s="7"/>
     </row>
-    <row r="914" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:30" ht="12.75">
       <c r="A914" s="7"/>
       <c r="B914" s="7"/>
       <c r="C914" s="7"/>
@@ -30115,7 +30115,7 @@
       <c r="AC914" s="7"/>
       <c r="AD914" s="7"/>
     </row>
-    <row r="915" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:30" ht="12.75">
       <c r="A915" s="7"/>
       <c r="B915" s="7"/>
       <c r="C915" s="7"/>
@@ -30147,7 +30147,7 @@
       <c r="AC915" s="7"/>
       <c r="AD915" s="7"/>
     </row>
-    <row r="916" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:30" ht="12.75">
       <c r="A916" s="7"/>
       <c r="B916" s="7"/>
       <c r="C916" s="7"/>
@@ -30179,7 +30179,7 @@
       <c r="AC916" s="7"/>
       <c r="AD916" s="7"/>
     </row>
-    <row r="917" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:30" ht="12.75">
       <c r="A917" s="7"/>
       <c r="B917" s="7"/>
       <c r="C917" s="7"/>
@@ -30211,7 +30211,7 @@
       <c r="AC917" s="7"/>
       <c r="AD917" s="7"/>
     </row>
-    <row r="918" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:30" ht="12.75">
       <c r="A918" s="7"/>
       <c r="B918" s="7"/>
       <c r="C918" s="7"/>
@@ -30243,7 +30243,7 @@
       <c r="AC918" s="7"/>
       <c r="AD918" s="7"/>
     </row>
-    <row r="919" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:30" ht="12.75">
       <c r="A919" s="7"/>
       <c r="B919" s="7"/>
       <c r="C919" s="7"/>
@@ -30275,7 +30275,7 @@
       <c r="AC919" s="7"/>
       <c r="AD919" s="7"/>
     </row>
-    <row r="920" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:30" ht="12.75">
       <c r="A920" s="7"/>
       <c r="B920" s="7"/>
       <c r="C920" s="7"/>
@@ -30307,7 +30307,7 @@
       <c r="AC920" s="7"/>
       <c r="AD920" s="7"/>
     </row>
-    <row r="921" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:30" ht="12.75">
       <c r="A921" s="7"/>
       <c r="B921" s="7"/>
       <c r="C921" s="7"/>
@@ -30339,7 +30339,7 @@
       <c r="AC921" s="7"/>
       <c r="AD921" s="7"/>
     </row>
-    <row r="922" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:30" ht="12.75">
       <c r="A922" s="7"/>
       <c r="B922" s="7"/>
       <c r="C922" s="7"/>
@@ -30371,7 +30371,7 @@
       <c r="AC922" s="7"/>
       <c r="AD922" s="7"/>
     </row>
-    <row r="923" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:30" ht="12.75">
       <c r="A923" s="7"/>
       <c r="B923" s="7"/>
       <c r="C923" s="7"/>
@@ -30403,7 +30403,7 @@
       <c r="AC923" s="7"/>
       <c r="AD923" s="7"/>
     </row>
-    <row r="924" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:30" ht="12.75">
       <c r="A924" s="7"/>
       <c r="B924" s="7"/>
       <c r="C924" s="7"/>
@@ -30435,7 +30435,7 @@
       <c r="AC924" s="7"/>
       <c r="AD924" s="7"/>
     </row>
-    <row r="925" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:30" ht="12.75">
       <c r="A925" s="7"/>
       <c r="B925" s="7"/>
       <c r="C925" s="7"/>
@@ -30467,7 +30467,7 @@
       <c r="AC925" s="7"/>
       <c r="AD925" s="7"/>
     </row>
-    <row r="926" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:30" ht="12.75">
       <c r="A926" s="7"/>
       <c r="B926" s="7"/>
       <c r="C926" s="7"/>
@@ -30499,7 +30499,7 @@
       <c r="AC926" s="7"/>
       <c r="AD926" s="7"/>
     </row>
-    <row r="927" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:30" ht="12.75">
       <c r="A927" s="7"/>
       <c r="B927" s="7"/>
       <c r="C927" s="7"/>
@@ -30531,7 +30531,7 @@
       <c r="AC927" s="7"/>
       <c r="AD927" s="7"/>
     </row>
-    <row r="928" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:30" ht="12.75">
       <c r="A928" s="7"/>
       <c r="B928" s="7"/>
       <c r="C928" s="7"/>
@@ -30563,7 +30563,7 @@
       <c r="AC928" s="7"/>
       <c r="AD928" s="7"/>
     </row>
-    <row r="929" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:30" ht="12.75">
       <c r="A929" s="7"/>
       <c r="B929" s="7"/>
       <c r="C929" s="7"/>
@@ -30595,7 +30595,7 @@
       <c r="AC929" s="7"/>
       <c r="AD929" s="7"/>
     </row>
-    <row r="930" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:30" ht="12.75">
       <c r="A930" s="7"/>
       <c r="B930" s="7"/>
       <c r="C930" s="7"/>
@@ -30627,7 +30627,7 @@
       <c r="AC930" s="7"/>
       <c r="AD930" s="7"/>
     </row>
-    <row r="931" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:30" ht="12.75">
       <c r="A931" s="7"/>
       <c r="B931" s="7"/>
       <c r="C931" s="7"/>
@@ -30659,7 +30659,7 @@
       <c r="AC931" s="7"/>
       <c r="AD931" s="7"/>
     </row>
-    <row r="932" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:30" ht="12.75">
       <c r="A932" s="7"/>
       <c r="B932" s="7"/>
       <c r="C932" s="7"/>
@@ -30691,7 +30691,7 @@
       <c r="AC932" s="7"/>
       <c r="AD932" s="7"/>
     </row>
-    <row r="933" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:30" ht="12.75">
       <c r="A933" s="7"/>
       <c r="B933" s="7"/>
       <c r="C933" s="7"/>
@@ -30723,7 +30723,7 @@
       <c r="AC933" s="7"/>
       <c r="AD933" s="7"/>
     </row>
-    <row r="934" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:30" ht="12.75">
       <c r="A934" s="7"/>
       <c r="B934" s="7"/>
       <c r="C934" s="7"/>
@@ -30755,7 +30755,7 @@
       <c r="AC934" s="7"/>
       <c r="AD934" s="7"/>
     </row>
-    <row r="935" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:30" ht="12.75">
       <c r="A935" s="7"/>
       <c r="B935" s="7"/>
       <c r="C935" s="7"/>
@@ -30787,7 +30787,7 @@
       <c r="AC935" s="7"/>
       <c r="AD935" s="7"/>
     </row>
-    <row r="936" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:30" ht="12.75">
       <c r="A936" s="7"/>
       <c r="B936" s="7"/>
       <c r="C936" s="7"/>
@@ -30819,7 +30819,7 @@
       <c r="AC936" s="7"/>
       <c r="AD936" s="7"/>
     </row>
-    <row r="937" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:30" ht="12.75">
       <c r="A937" s="7"/>
       <c r="B937" s="7"/>
       <c r="C937" s="7"/>
@@ -30851,7 +30851,7 @@
       <c r="AC937" s="7"/>
       <c r="AD937" s="7"/>
     </row>
-    <row r="938" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:30" ht="12.75">
       <c r="A938" s="7"/>
       <c r="B938" s="7"/>
       <c r="C938" s="7"/>
@@ -30883,7 +30883,7 @@
       <c r="AC938" s="7"/>
       <c r="AD938" s="7"/>
     </row>
-    <row r="939" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:30" ht="12.75">
       <c r="A939" s="7"/>
       <c r="B939" s="7"/>
       <c r="C939" s="7"/>
@@ -30915,7 +30915,7 @@
       <c r="AC939" s="7"/>
       <c r="AD939" s="7"/>
     </row>
-    <row r="940" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:30" ht="12.75">
       <c r="A940" s="7"/>
       <c r="B940" s="7"/>
       <c r="C940" s="7"/>
@@ -30947,7 +30947,7 @@
       <c r="AC940" s="7"/>
       <c r="AD940" s="7"/>
     </row>
-    <row r="941" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:30" ht="12.75">
       <c r="A941" s="7"/>
       <c r="B941" s="7"/>
       <c r="C941" s="7"/>
@@ -30979,7 +30979,7 @@
       <c r="AC941" s="7"/>
       <c r="AD941" s="7"/>
     </row>
-    <row r="942" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:30" ht="12.75">
       <c r="A942" s="7"/>
       <c r="B942" s="7"/>
       <c r="C942" s="7"/>
@@ -31011,7 +31011,7 @@
       <c r="AC942" s="7"/>
       <c r="AD942" s="7"/>
     </row>
-    <row r="943" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:30" ht="12.75">
       <c r="A943" s="7"/>
       <c r="B943" s="7"/>
       <c r="C943" s="7"/>
@@ -31043,7 +31043,7 @@
       <c r="AC943" s="7"/>
       <c r="AD943" s="7"/>
     </row>
-    <row r="944" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:30" ht="12.75">
       <c r="A944" s="7"/>
       <c r="B944" s="7"/>
       <c r="C944" s="7"/>
@@ -31075,7 +31075,7 @@
       <c r="AC944" s="7"/>
       <c r="AD944" s="7"/>
     </row>
-    <row r="945" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:30" ht="12.75">
       <c r="A945" s="7"/>
       <c r="B945" s="7"/>
       <c r="C945" s="7"/>
@@ -31107,7 +31107,7 @@
       <c r="AC945" s="7"/>
       <c r="AD945" s="7"/>
     </row>
-    <row r="946" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:30" ht="12.75">
       <c r="A946" s="7"/>
       <c r="B946" s="7"/>
       <c r="C946" s="7"/>
@@ -31139,7 +31139,7 @@
       <c r="AC946" s="7"/>
       <c r="AD946" s="7"/>
     </row>
-    <row r="947" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:30" ht="12.75">
       <c r="A947" s="7"/>
       <c r="B947" s="7"/>
       <c r="C947" s="7"/>
@@ -31171,7 +31171,7 @@
       <c r="AC947" s="7"/>
       <c r="AD947" s="7"/>
     </row>
-    <row r="948" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:30" ht="12.75">
       <c r="A948" s="7"/>
       <c r="B948" s="7"/>
       <c r="C948" s="7"/>
@@ -31203,7 +31203,7 @@
       <c r="AC948" s="7"/>
       <c r="AD948" s="7"/>
     </row>
-    <row r="949" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:30" ht="12.75">
       <c r="A949" s="7"/>
       <c r="B949" s="7"/>
       <c r="C949" s="7"/>
@@ -31235,7 +31235,7 @@
       <c r="AC949" s="7"/>
       <c r="AD949" s="7"/>
     </row>
-    <row r="950" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:30" ht="12.75">
       <c r="A950" s="7"/>
       <c r="B950" s="7"/>
       <c r="C950" s="7"/>
@@ -31267,7 +31267,7 @@
       <c r="AC950" s="7"/>
       <c r="AD950" s="7"/>
     </row>
-    <row r="951" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:30" ht="12.75">
       <c r="A951" s="7"/>
       <c r="B951" s="7"/>
       <c r="C951" s="7"/>
@@ -31299,7 +31299,7 @@
       <c r="AC951" s="7"/>
       <c r="AD951" s="7"/>
     </row>
-    <row r="952" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:30" ht="12.75">
       <c r="A952" s="7"/>
       <c r="B952" s="7"/>
       <c r="C952" s="7"/>
@@ -31331,7 +31331,7 @@
       <c r="AC952" s="7"/>
       <c r="AD952" s="7"/>
     </row>
-    <row r="953" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:30" ht="12.75">
       <c r="A953" s="7"/>
       <c r="B953" s="7"/>
       <c r="C953" s="7"/>
@@ -31363,7 +31363,7 @@
       <c r="AC953" s="7"/>
       <c r="AD953" s="7"/>
     </row>
-    <row r="954" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:30" ht="12.75">
       <c r="A954" s="7"/>
       <c r="B954" s="7"/>
       <c r="C954" s="7"/>
@@ -31395,7 +31395,7 @@
       <c r="AC954" s="7"/>
       <c r="AD954" s="7"/>
     </row>
-    <row r="955" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:30" ht="12.75">
       <c r="A955" s="7"/>
       <c r="B955" s="7"/>
       <c r="C955" s="7"/>
@@ -31427,7 +31427,7 @@
       <c r="AC955" s="7"/>
       <c r="AD955" s="7"/>
     </row>
-    <row r="956" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:30" ht="12.75">
       <c r="A956" s="7"/>
       <c r="B956" s="7"/>
       <c r="C956" s="7"/>
@@ -31459,7 +31459,7 @@
       <c r="AC956" s="7"/>
       <c r="AD956" s="7"/>
     </row>
-    <row r="957" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:30" ht="12.75">
       <c r="A957" s="7"/>
       <c r="B957" s="7"/>
       <c r="C957" s="7"/>
@@ -31491,7 +31491,7 @@
       <c r="AC957" s="7"/>
       <c r="AD957" s="7"/>
     </row>
-    <row r="958" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:30" ht="12.75">
       <c r="A958" s="7"/>
       <c r="B958" s="7"/>
       <c r="C958" s="7"/>
@@ -31523,7 +31523,7 @@
       <c r="AC958" s="7"/>
       <c r="AD958" s="7"/>
     </row>
-    <row r="959" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:30" ht="12.75">
       <c r="A959" s="7"/>
       <c r="B959" s="7"/>
       <c r="C959" s="7"/>
@@ -31555,7 +31555,7 @@
       <c r="AC959" s="7"/>
       <c r="AD959" s="7"/>
     </row>
-    <row r="960" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:30" ht="12.75">
       <c r="A960" s="7"/>
       <c r="B960" s="7"/>
       <c r="C960" s="7"/>
@@ -31587,7 +31587,7 @@
       <c r="AC960" s="7"/>
       <c r="AD960" s="7"/>
     </row>
-    <row r="961" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:30" ht="12.75">
       <c r="A961" s="7"/>
       <c r="B961" s="7"/>
       <c r="C961" s="7"/>
@@ -31619,7 +31619,7 @@
       <c r="AC961" s="7"/>
       <c r="AD961" s="7"/>
     </row>
-    <row r="962" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:30" ht="12.75">
       <c r="A962" s="7"/>
       <c r="B962" s="7"/>
       <c r="C962" s="7"/>
@@ -31651,7 +31651,7 @@
       <c r="AC962" s="7"/>
       <c r="AD962" s="7"/>
     </row>
-    <row r="963" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:30" ht="12.75">
       <c r="A963" s="7"/>
       <c r="B963" s="7"/>
       <c r="C963" s="7"/>
@@ -31683,7 +31683,7 @@
       <c r="AC963" s="7"/>
       <c r="AD963" s="7"/>
     </row>
-    <row r="964" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:30" ht="12.75">
       <c r="A964" s="7"/>
       <c r="B964" s="7"/>
       <c r="C964" s="7"/>
@@ -31715,7 +31715,7 @@
       <c r="AC964" s="7"/>
       <c r="AD964" s="7"/>
     </row>
-    <row r="965" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:30" ht="12.75">
       <c r="A965" s="7"/>
       <c r="B965" s="7"/>
       <c r="C965" s="7"/>
@@ -31747,7 +31747,7 @@
       <c r="AC965" s="7"/>
       <c r="AD965" s="7"/>
     </row>
-    <row r="966" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:30" ht="12.75">
       <c r="A966" s="7"/>
       <c r="B966" s="7"/>
       <c r="C966" s="7"/>
@@ -31779,7 +31779,7 @@
       <c r="AC966" s="7"/>
       <c r="AD966" s="7"/>
     </row>
-    <row r="967" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:30" ht="12.75">
       <c r="A967" s="7"/>
       <c r="B967" s="7"/>
       <c r="C967" s="7"/>
@@ -31811,7 +31811,7 @@
       <c r="AC967" s="7"/>
       <c r="AD967" s="7"/>
     </row>
-    <row r="968" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:30" ht="12.75">
       <c r="A968" s="7"/>
       <c r="B968" s="7"/>
       <c r="C968" s="7"/>
@@ -31843,7 +31843,7 @@
       <c r="AC968" s="7"/>
       <c r="AD968" s="7"/>
     </row>
-    <row r="969" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:30" ht="12.75">
       <c r="A969" s="7"/>
       <c r="B969" s="7"/>
       <c r="C969" s="7"/>
@@ -31875,7 +31875,7 @@
       <c r="AC969" s="7"/>
       <c r="AD969" s="7"/>
     </row>
-    <row r="970" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:30" ht="12.75">
       <c r="A970" s="7"/>
       <c r="B970" s="7"/>
       <c r="C970" s="7"/>
@@ -31907,7 +31907,7 @@
       <c r="AC970" s="7"/>
       <c r="AD970" s="7"/>
     </row>
-    <row r="971" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:30" ht="12.75">
       <c r="A971" s="7"/>
       <c r="B971" s="7"/>
       <c r="C971" s="7"/>
@@ -31939,7 +31939,7 @@
       <c r="AC971" s="7"/>
       <c r="AD971" s="7"/>
     </row>
-    <row r="972" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:30" ht="12.75">
       <c r="A972" s="7"/>
       <c r="B972" s="7"/>
       <c r="C972" s="7"/>
@@ -31971,7 +31971,7 @@
       <c r="AC972" s="7"/>
       <c r="AD972" s="7"/>
     </row>
-    <row r="973" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:30" ht="12.75">
       <c r="A973" s="7"/>
       <c r="B973" s="7"/>
       <c r="C973" s="7"/>
@@ -32003,7 +32003,7 @@
       <c r="AC973" s="7"/>
       <c r="AD973" s="7"/>
     </row>
-    <row r="974" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:30" ht="12.75">
       <c r="A974" s="7"/>
       <c r="B974" s="7"/>
       <c r="C974" s="7"/>
@@ -32035,7 +32035,7 @@
       <c r="AC974" s="7"/>
       <c r="AD974" s="7"/>
     </row>
-    <row r="975" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:30" ht="12.75">
       <c r="A975" s="7"/>
       <c r="B975" s="7"/>
       <c r="C975" s="7"/>
@@ -32067,7 +32067,7 @@
       <c r="AC975" s="7"/>
       <c r="AD975" s="7"/>
     </row>
-    <row r="976" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:30" ht="12.75">
       <c r="A976" s="7"/>
       <c r="B976" s="7"/>
       <c r="C976" s="7"/>
@@ -32099,7 +32099,7 @@
       <c r="AC976" s="7"/>
       <c r="AD976" s="7"/>
     </row>
-    <row r="977" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:30" ht="12.75">
       <c r="A977" s="7"/>
       <c r="B977" s="7"/>
       <c r="C977" s="7"/>
@@ -32131,7 +32131,7 @@
       <c r="AC977" s="7"/>
       <c r="AD977" s="7"/>
     </row>
-    <row r="978" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:30" ht="12.75">
       <c r="A978" s="7"/>
       <c r="B978" s="7"/>
       <c r="C978" s="7"/>
@@ -32163,7 +32163,7 @@
       <c r="AC978" s="7"/>
       <c r="AD978" s="7"/>
     </row>
-    <row r="979" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:30" ht="12.75">
       <c r="A979" s="7"/>
       <c r="B979" s="7"/>
       <c r="C979" s="7"/>
@@ -32195,7 +32195,7 @@
       <c r="AC979" s="7"/>
       <c r="AD979" s="7"/>
     </row>
-    <row r="980" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:30" ht="12.75">
       <c r="A980" s="7"/>
       <c r="B980" s="7"/>
       <c r="C980" s="7"/>
@@ -32227,7 +32227,7 @@
       <c r="AC980" s="7"/>
       <c r="AD980" s="7"/>
     </row>
-    <row r="981" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:30" ht="12.75">
       <c r="A981" s="7"/>
       <c r="B981" s="7"/>
       <c r="C981" s="7"/>
@@ -32259,7 +32259,7 @@
       <c r="AC981" s="7"/>
       <c r="AD981" s="7"/>
     </row>
-    <row r="982" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:30" ht="12.75">
       <c r="A982" s="7"/>
       <c r="B982" s="7"/>
       <c r="C982" s="7"/>
@@ -32291,7 +32291,7 @@
       <c r="AC982" s="7"/>
       <c r="AD982" s="7"/>
     </row>
-    <row r="983" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:30" ht="12.75">
       <c r="A983" s="7"/>
       <c r="B983" s="7"/>
       <c r="C983" s="7"/>
@@ -32323,7 +32323,7 @@
       <c r="AC983" s="7"/>
       <c r="AD983" s="7"/>
     </row>
-    <row r="984" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:30" ht="12.75">
       <c r="A984" s="7"/>
       <c r="B984" s="7"/>
       <c r="C984" s="7"/>
@@ -32355,7 +32355,7 @@
       <c r="AC984" s="7"/>
       <c r="AD984" s="7"/>
     </row>
-    <row r="985" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:30" ht="12.75">
       <c r="A985" s="7"/>
       <c r="B985" s="7"/>
       <c r="C985" s="7"/>
@@ -32387,7 +32387,7 @@
       <c r="AC985" s="7"/>
       <c r="AD985" s="7"/>
     </row>
-    <row r="986" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:30" ht="12.75">
       <c r="A986" s="7"/>
       <c r="B986" s="7"/>
       <c r="C986" s="7"/>
@@ -32419,7 +32419,7 @@
       <c r="AC986" s="7"/>
       <c r="AD986" s="7"/>
     </row>
-    <row r="987" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:30" ht="12.75">
       <c r="A987" s="7"/>
       <c r="B987" s="7"/>
       <c r="C987" s="7"/>
@@ -32451,7 +32451,7 @@
       <c r="AC987" s="7"/>
       <c r="AD987" s="7"/>
     </row>
-    <row r="988" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:30" ht="12.75">
       <c r="A988" s="7"/>
       <c r="B988" s="7"/>
       <c r="C988" s="7"/>
@@ -32483,7 +32483,7 @@
       <c r="AC988" s="7"/>
       <c r="AD988" s="7"/>
     </row>
-    <row r="989" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:30" ht="12.75">
       <c r="A989" s="7"/>
       <c r="B989" s="7"/>
       <c r="C989" s="7"/>
@@ -32515,7 +32515,7 @@
       <c r="AC989" s="7"/>
       <c r="AD989" s="7"/>
     </row>
-    <row r="990" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:30" ht="12.75">
       <c r="A990" s="7"/>
       <c r="B990" s="7"/>
       <c r="C990" s="7"/>
@@ -32547,7 +32547,7 @@
       <c r="AC990" s="7"/>
       <c r="AD990" s="7"/>
     </row>
-    <row r="991" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:30" ht="12.75">
       <c r="A991" s="7"/>
       <c r="B991" s="7"/>
       <c r="C991" s="7"/>
@@ -32579,7 +32579,7 @@
       <c r="AC991" s="7"/>
       <c r="AD991" s="7"/>
     </row>
-    <row r="992" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:30" ht="12.75">
       <c r="A992" s="7"/>
       <c r="B992" s="7"/>
       <c r="C992" s="7"/>
@@ -32611,7 +32611,7 @@
       <c r="AC992" s="7"/>
       <c r="AD992" s="7"/>
     </row>
-    <row r="993" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:30" ht="12.75">
       <c r="A993" s="7"/>
       <c r="B993" s="7"/>
       <c r="C993" s="7"/>
@@ -32643,7 +32643,7 @@
       <c r="AC993" s="7"/>
       <c r="AD993" s="7"/>
     </row>
-    <row r="994" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:30" ht="12.75">
       <c r="A994" s="7"/>
       <c r="B994" s="7"/>
       <c r="C994" s="7"/>
@@ -32675,7 +32675,7 @@
       <c r="AC994" s="7"/>
       <c r="AD994" s="7"/>
     </row>
-    <row r="995" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:30" ht="12.75">
       <c r="A995" s="7"/>
       <c r="B995" s="7"/>
       <c r="C995" s="7"/>
@@ -32707,7 +32707,7 @@
       <c r="AC995" s="7"/>
       <c r="AD995" s="7"/>
     </row>
-    <row r="996" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:30" ht="12.75">
       <c r="A996" s="7"/>
       <c r="B996" s="7"/>
       <c r="C996" s="7"/>
@@ -32739,7 +32739,7 @@
       <c r="AC996" s="7"/>
       <c r="AD996" s="7"/>
     </row>
-    <row r="997" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:30" ht="12.75">
       <c r="A997" s="7"/>
       <c r="B997" s="7"/>
       <c r="C997" s="7"/>
@@ -32771,7 +32771,7 @@
       <c r="AC997" s="7"/>
       <c r="AD997" s="7"/>
     </row>
-    <row r="998" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:30" ht="12.75">
       <c r="A998" s="7"/>
       <c r="B998" s="7"/>
       <c r="C998" s="7"/>
@@ -32803,7 +32803,7 @@
       <c r="AC998" s="7"/>
       <c r="AD998" s="7"/>
     </row>
-    <row r="999" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:30" ht="12.75">
       <c r="A999" s="7"/>
       <c r="B999" s="7"/>
       <c r="C999" s="7"/>
@@ -32835,7 +32835,7 @@
       <c r="AC999" s="7"/>
       <c r="AD999" s="7"/>
     </row>
-    <row r="1000" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:30" ht="12.75">
       <c r="A1000" s="7"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="7"/>
@@ -32882,7 +32882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
